--- a/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
@@ -3250,8 +3250,8 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G340" totalsRowShown="0" headerRowDxfId="0">
   <autoFilter ref="A1:G340"/>
-  <sortState ref="A2:G344">
-    <sortCondition ref="D1:D344"/>
+  <sortState ref="A2:G340">
+    <sortCondition ref="D1:D340"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -3531,7 +3531,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G340"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="D92" sqref="D92"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2064" uniqueCount="1049">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2071" uniqueCount="1053">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -3166,6 +3166,18 @@
   </si>
   <si>
     <t>https://academic.oup.com/metallomics</t>
+  </si>
+  <si>
+    <t>British Journal of Surgery</t>
+  </si>
+  <si>
+    <t>https://academic.oup.com/bjs</t>
+  </si>
+  <si>
+    <t>1365-2168</t>
+  </si>
+  <si>
+    <t>ISSN 0007-1323</t>
   </si>
 </sst>
 </file>
@@ -3248,8 +3260,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G340" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A1:G340"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G341" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A1:G341"/>
   <sortState ref="A2:G340">
     <sortCondition ref="D1:D340"/>
   </sortState>
@@ -3529,10 +3541,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G340"/>
+  <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3540,7 +3552,7 @@
     <col min="1" max="1" width="9.7109375" customWidth="1"/>
     <col min="2" max="2" width="19.140625" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1"/>
+    <col min="4" max="4" width="50.5703125" customWidth="1"/>
     <col min="5" max="5" width="25.5703125" customWidth="1"/>
     <col min="6" max="6" width="18.5703125" customWidth="1"/>
     <col min="7" max="7" width="19.5703125" customWidth="1"/>
@@ -4420,13 +4432,16 @@
         <v>997</v>
       </c>
       <c r="B44" t="s">
-        <v>127</v>
+        <v>1051</v>
+      </c>
+      <c r="C44" t="s">
+        <v>1052</v>
       </c>
       <c r="D44" t="s">
-        <v>128</v>
+        <v>1049</v>
       </c>
       <c r="E44" t="s">
-        <v>129</v>
+        <v>1050</v>
       </c>
       <c r="F44" t="s">
         <v>996</v>
@@ -4440,13 +4455,13 @@
         <v>997</v>
       </c>
       <c r="B45" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D45" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="F45" t="s">
         <v>996</v>
@@ -4460,13 +4475,13 @@
         <v>997</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="E46" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
         <v>996</v>
@@ -4480,13 +4495,13 @@
         <v>997</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D47" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="E47" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="F47" t="s">
         <v>996</v>
@@ -4500,13 +4515,13 @@
         <v>997</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="E48" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F48" t="s">
         <v>996</v>
@@ -4520,13 +4535,13 @@
         <v>997</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D49" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E49" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="F49" t="s">
         <v>996</v>
@@ -4540,13 +4555,13 @@
         <v>997</v>
       </c>
       <c r="B50" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D50" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E50" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F50" t="s">
         <v>996</v>
@@ -4560,13 +4575,13 @@
         <v>997</v>
       </c>
       <c r="B51" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D51" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E51" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="F51" t="s">
         <v>996</v>
@@ -4580,13 +4595,13 @@
         <v>997</v>
       </c>
       <c r="B52" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D52" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E52" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F52" t="s">
         <v>996</v>
@@ -4600,13 +4615,13 @@
         <v>997</v>
       </c>
       <c r="B53" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="D53" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E53" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="F53" t="s">
         <v>996</v>
@@ -4620,13 +4635,13 @@
         <v>997</v>
       </c>
       <c r="B54" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="D54" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E54" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F54" t="s">
         <v>996</v>
@@ -4640,13 +4655,13 @@
         <v>997</v>
       </c>
       <c r="B55" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="D55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="E55" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="F55" t="s">
         <v>996</v>
@@ -4660,13 +4675,13 @@
         <v>997</v>
       </c>
       <c r="B56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="D56" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E56" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F56" t="s">
         <v>996</v>
@@ -4680,13 +4695,13 @@
         <v>997</v>
       </c>
       <c r="B57" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D57" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E57" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="F57" t="s">
         <v>996</v>
@@ -4700,13 +4715,13 @@
         <v>997</v>
       </c>
       <c r="B58" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D58" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="E58" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F58" t="s">
         <v>996</v>
@@ -4720,13 +4735,13 @@
         <v>997</v>
       </c>
       <c r="B59" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="D59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E59" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="F59" t="s">
         <v>996</v>
@@ -4740,13 +4755,13 @@
         <v>997</v>
       </c>
       <c r="B60" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="D60" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="E60" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F60" t="s">
         <v>996</v>
@@ -4760,13 +4775,13 @@
         <v>997</v>
       </c>
       <c r="B61" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D61" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="E61" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F61" t="s">
         <v>996</v>
@@ -4780,13 +4795,13 @@
         <v>997</v>
       </c>
       <c r="B62" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D62" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E62" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F62" t="s">
         <v>996</v>
@@ -4800,13 +4815,13 @@
         <v>997</v>
       </c>
       <c r="B63" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="D63" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="E63" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="F63" t="s">
         <v>996</v>
@@ -4820,13 +4835,13 @@
         <v>997</v>
       </c>
       <c r="B64" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E64" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F64" t="s">
         <v>996</v>
@@ -4840,13 +4855,13 @@
         <v>997</v>
       </c>
       <c r="B65" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="D65" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E65" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="F65" t="s">
         <v>996</v>
@@ -4860,13 +4875,13 @@
         <v>997</v>
       </c>
       <c r="B66" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="D66" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E66" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F66" t="s">
         <v>996</v>
@@ -4880,13 +4895,13 @@
         <v>997</v>
       </c>
       <c r="B67" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="D67" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E67" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="F67" t="s">
         <v>996</v>
@@ -4900,13 +4915,13 @@
         <v>997</v>
       </c>
       <c r="B68" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D68" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E68" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F68" t="s">
         <v>996</v>
@@ -4920,13 +4935,13 @@
         <v>997</v>
       </c>
       <c r="B69" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D69" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="E69" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="F69" t="s">
         <v>996</v>
@@ -4940,13 +4955,13 @@
         <v>997</v>
       </c>
       <c r="B70" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="D70" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E70" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F70" t="s">
         <v>996</v>
@@ -4960,13 +4975,13 @@
         <v>997</v>
       </c>
       <c r="B71" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="D71" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="E71" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="F71" t="s">
         <v>996</v>
@@ -4980,16 +4995,13 @@
         <v>997</v>
       </c>
       <c r="B72" t="s">
-        <v>956</v>
-      </c>
-      <c r="C72" t="s">
-        <v>957</v>
+        <v>208</v>
       </c>
       <c r="D72" t="s">
-        <v>958</v>
+        <v>209</v>
       </c>
       <c r="E72" t="s">
-        <v>959</v>
+        <v>210</v>
       </c>
       <c r="F72" t="s">
         <v>996</v>
@@ -5003,13 +5015,16 @@
         <v>997</v>
       </c>
       <c r="B73" t="s">
-        <v>211</v>
+        <v>956</v>
+      </c>
+      <c r="C73" t="s">
+        <v>957</v>
       </c>
       <c r="D73" t="s">
-        <v>212</v>
+        <v>958</v>
       </c>
       <c r="E73" t="s">
-        <v>213</v>
+        <v>959</v>
       </c>
       <c r="F73" t="s">
         <v>996</v>
@@ -5023,13 +5038,13 @@
         <v>997</v>
       </c>
       <c r="B74" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="D74" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E74" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="F74" t="s">
         <v>996</v>
@@ -5043,13 +5058,13 @@
         <v>997</v>
       </c>
       <c r="B75" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="D75" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="E75" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F75" t="s">
         <v>996</v>
@@ -5063,13 +5078,13 @@
         <v>997</v>
       </c>
       <c r="B76" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="D76" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="E76" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="F76" t="s">
         <v>996</v>
@@ -5083,16 +5098,13 @@
         <v>997</v>
       </c>
       <c r="B77" t="s">
-        <v>960</v>
-      </c>
-      <c r="C77" t="s">
-        <v>961</v>
+        <v>220</v>
       </c>
       <c r="D77" t="s">
-        <v>962</v>
+        <v>221</v>
       </c>
       <c r="E77" t="s">
-        <v>963</v>
+        <v>222</v>
       </c>
       <c r="F77" t="s">
         <v>996</v>
@@ -5106,13 +5118,16 @@
         <v>997</v>
       </c>
       <c r="B78" t="s">
-        <v>223</v>
+        <v>960</v>
+      </c>
+      <c r="C78" t="s">
+        <v>961</v>
       </c>
       <c r="D78" t="s">
-        <v>224</v>
+        <v>962</v>
       </c>
       <c r="E78" t="s">
-        <v>225</v>
+        <v>963</v>
       </c>
       <c r="F78" t="s">
         <v>996</v>
@@ -5126,13 +5141,13 @@
         <v>997</v>
       </c>
       <c r="B79" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="D79" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E79" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F79" t="s">
         <v>996</v>
@@ -5146,13 +5161,13 @@
         <v>997</v>
       </c>
       <c r="B80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="E80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F80" t="s">
         <v>996</v>
@@ -5166,13 +5181,13 @@
         <v>997</v>
       </c>
       <c r="B81" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="D81" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E81" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="F81" t="s">
         <v>996</v>
@@ -5186,16 +5201,13 @@
         <v>997</v>
       </c>
       <c r="B82" t="s">
-        <v>972</v>
-      </c>
-      <c r="C82" t="s">
-        <v>973</v>
+        <v>232</v>
       </c>
       <c r="D82" t="s">
-        <v>974</v>
+        <v>233</v>
       </c>
       <c r="E82" t="s">
-        <v>975</v>
+        <v>234</v>
       </c>
       <c r="F82" t="s">
         <v>996</v>
@@ -5209,13 +5221,16 @@
         <v>997</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>972</v>
+      </c>
+      <c r="C83" t="s">
+        <v>973</v>
       </c>
       <c r="D83" t="s">
-        <v>236</v>
+        <v>974</v>
       </c>
       <c r="E83" t="s">
-        <v>237</v>
+        <v>975</v>
       </c>
       <c r="F83" t="s">
         <v>996</v>
@@ -5229,13 +5244,13 @@
         <v>997</v>
       </c>
       <c r="B84" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="D84" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E84" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="F84" t="s">
         <v>996</v>
@@ -5249,13 +5264,13 @@
         <v>997</v>
       </c>
       <c r="B85" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="D85" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E85" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F85" t="s">
         <v>996</v>
@@ -5269,13 +5284,13 @@
         <v>997</v>
       </c>
       <c r="B86" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="D86" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E86" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="F86" t="s">
         <v>996</v>
@@ -5289,13 +5304,13 @@
         <v>997</v>
       </c>
       <c r="B87" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D87" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E87" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F87" t="s">
         <v>996</v>
@@ -5309,13 +5324,13 @@
         <v>997</v>
       </c>
       <c r="B88" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D88" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E88" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F88" t="s">
         <v>996</v>
@@ -5329,13 +5344,13 @@
         <v>997</v>
       </c>
       <c r="B89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="D89" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E89" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F89" t="s">
         <v>996</v>
@@ -5349,13 +5364,13 @@
         <v>997</v>
       </c>
       <c r="B90" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="D90" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="E90" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="F90" t="s">
         <v>996</v>
@@ -5369,13 +5384,13 @@
         <v>997</v>
       </c>
       <c r="B91" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="D91" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E91" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F91" t="s">
         <v>996</v>
@@ -5389,16 +5404,13 @@
         <v>997</v>
       </c>
       <c r="B92" t="s">
-        <v>1011</v>
-      </c>
-      <c r="C92" t="s">
-        <v>1012</v>
+        <v>259</v>
       </c>
       <c r="D92" t="s">
-        <v>1013</v>
+        <v>260</v>
       </c>
       <c r="E92" t="s">
-        <v>1014</v>
+        <v>261</v>
       </c>
       <c r="F92" t="s">
         <v>996</v>
@@ -5412,13 +5424,16 @@
         <v>997</v>
       </c>
       <c r="B93" t="s">
-        <v>262</v>
+        <v>1011</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1012</v>
       </c>
       <c r="D93" t="s">
-        <v>263</v>
+        <v>1013</v>
       </c>
       <c r="E93" t="s">
-        <v>264</v>
+        <v>1014</v>
       </c>
       <c r="F93" t="s">
         <v>996</v>
@@ -5432,16 +5447,13 @@
         <v>997</v>
       </c>
       <c r="B94" t="s">
-        <v>1007</v>
-      </c>
-      <c r="C94" t="s">
-        <v>1008</v>
+        <v>262</v>
       </c>
       <c r="D94" t="s">
-        <v>1009</v>
+        <v>263</v>
       </c>
       <c r="E94" t="s">
-        <v>1010</v>
+        <v>264</v>
       </c>
       <c r="F94" t="s">
         <v>996</v>
@@ -5455,13 +5467,16 @@
         <v>997</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>1007</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1008</v>
       </c>
       <c r="D95" t="s">
-        <v>266</v>
+        <v>1009</v>
       </c>
       <c r="E95" t="s">
-        <v>267</v>
+        <v>1010</v>
       </c>
       <c r="F95" t="s">
         <v>996</v>
@@ -5475,13 +5490,13 @@
         <v>997</v>
       </c>
       <c r="B96" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="D96" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E96" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F96" t="s">
         <v>996</v>
@@ -5495,16 +5510,13 @@
         <v>997</v>
       </c>
       <c r="B97" t="s">
-        <v>1003</v>
-      </c>
-      <c r="C97" t="s">
-        <v>1004</v>
+        <v>268</v>
       </c>
       <c r="D97" t="s">
-        <v>1005</v>
+        <v>269</v>
       </c>
       <c r="E97" t="s">
-        <v>1006</v>
+        <v>270</v>
       </c>
       <c r="F97" t="s">
         <v>996</v>
@@ -5518,13 +5530,16 @@
         <v>997</v>
       </c>
       <c r="B98" t="s">
-        <v>271</v>
+        <v>1003</v>
+      </c>
+      <c r="C98" t="s">
+        <v>1004</v>
       </c>
       <c r="D98" t="s">
-        <v>272</v>
+        <v>1005</v>
       </c>
       <c r="E98" t="s">
-        <v>273</v>
+        <v>1006</v>
       </c>
       <c r="F98" t="s">
         <v>996</v>
@@ -5538,13 +5553,13 @@
         <v>997</v>
       </c>
       <c r="B99" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="D99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="F99" t="s">
         <v>996</v>
@@ -5558,13 +5573,13 @@
         <v>997</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="E100" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F100" t="s">
         <v>996</v>
@@ -5578,13 +5593,13 @@
         <v>997</v>
       </c>
       <c r="B101" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D101" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="F101" t="s">
         <v>996</v>
@@ -5598,13 +5613,13 @@
         <v>997</v>
       </c>
       <c r="B102" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D102" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E102" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F102" t="s">
         <v>996</v>
@@ -5618,13 +5633,13 @@
         <v>997</v>
       </c>
       <c r="B103" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="D103" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="E103" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F103" t="s">
         <v>996</v>
@@ -5638,13 +5653,13 @@
         <v>997</v>
       </c>
       <c r="B104" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="D104" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="E104" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F104" t="s">
         <v>996</v>
@@ -5658,13 +5673,13 @@
         <v>997</v>
       </c>
       <c r="B105" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D105" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="E105" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F105" t="s">
         <v>996</v>
@@ -5678,13 +5693,13 @@
         <v>997</v>
       </c>
       <c r="B106" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="D106" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="E106" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F106" t="s">
         <v>996</v>
@@ -5698,13 +5713,13 @@
         <v>997</v>
       </c>
       <c r="B107" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="D107" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="E107" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F107" t="s">
         <v>996</v>
@@ -5718,13 +5733,13 @@
         <v>997</v>
       </c>
       <c r="B108" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="D108" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="E108" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F108" t="s">
         <v>996</v>
@@ -5738,13 +5753,13 @@
         <v>997</v>
       </c>
       <c r="B109" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="D109" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="E109" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="F109" t="s">
         <v>996</v>
@@ -5758,13 +5773,13 @@
         <v>997</v>
       </c>
       <c r="B110" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D110" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="E110" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F110" t="s">
         <v>996</v>
@@ -5778,13 +5793,13 @@
         <v>997</v>
       </c>
       <c r="B111" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D111" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E111" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="F111" t="s">
         <v>996</v>
@@ -5798,13 +5813,13 @@
         <v>997</v>
       </c>
       <c r="B112" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="D112" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="E112" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F112" t="s">
         <v>996</v>
@@ -5818,13 +5833,13 @@
         <v>997</v>
       </c>
       <c r="B113" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D113" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="E113" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F113" t="s">
         <v>996</v>
@@ -5838,13 +5853,13 @@
         <v>997</v>
       </c>
       <c r="B114" t="s">
-        <v>1019</v>
+        <v>316</v>
       </c>
       <c r="D114" t="s">
-        <v>1020</v>
+        <v>317</v>
       </c>
       <c r="E114" t="s">
-        <v>1021</v>
+        <v>318</v>
       </c>
       <c r="F114" t="s">
         <v>996</v>
@@ -5858,13 +5873,13 @@
         <v>997</v>
       </c>
       <c r="B115" t="s">
-        <v>319</v>
+        <v>1019</v>
       </c>
       <c r="D115" t="s">
-        <v>320</v>
+        <v>1020</v>
       </c>
       <c r="E115" t="s">
-        <v>321</v>
+        <v>1021</v>
       </c>
       <c r="F115" t="s">
         <v>996</v>
@@ -5878,13 +5893,13 @@
         <v>997</v>
       </c>
       <c r="B116" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D116" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="E116" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F116" t="s">
         <v>996</v>
@@ -5898,13 +5913,13 @@
         <v>997</v>
       </c>
       <c r="B117" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D117" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="E117" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F117" t="s">
         <v>996</v>
@@ -5918,13 +5933,13 @@
         <v>997</v>
       </c>
       <c r="B118" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D118" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="E118" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F118" t="s">
         <v>996</v>
@@ -5938,13 +5953,13 @@
         <v>997</v>
       </c>
       <c r="B119" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D119" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="E119" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F119" t="s">
         <v>996</v>
@@ -5958,13 +5973,13 @@
         <v>997</v>
       </c>
       <c r="B120" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D120" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="E120" t="s">
-        <v>234</v>
+        <v>333</v>
       </c>
       <c r="F120" t="s">
         <v>996</v>
@@ -5978,13 +5993,13 @@
         <v>997</v>
       </c>
       <c r="B121" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D121" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="E121" t="s">
-        <v>338</v>
+        <v>234</v>
       </c>
       <c r="F121" t="s">
         <v>996</v>
@@ -5998,13 +6013,13 @@
         <v>997</v>
       </c>
       <c r="B122" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D122" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E122" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F122" t="s">
         <v>996</v>
@@ -6018,13 +6033,13 @@
         <v>997</v>
       </c>
       <c r="B123" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D123" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="E123" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F123" t="s">
         <v>996</v>
@@ -6038,13 +6053,13 @@
         <v>997</v>
       </c>
       <c r="B124" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D124" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="E124" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F124" t="s">
         <v>996</v>
@@ -6058,13 +6073,13 @@
         <v>997</v>
       </c>
       <c r="B125" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D125" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E125" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F125" t="s">
         <v>996</v>
@@ -6078,13 +6093,13 @@
         <v>997</v>
       </c>
       <c r="B126" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D126" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="E126" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F126" t="s">
         <v>996</v>
@@ -6098,13 +6113,13 @@
         <v>997</v>
       </c>
       <c r="B127" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D127" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="E127" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F127" t="s">
         <v>996</v>
@@ -6118,13 +6133,13 @@
         <v>997</v>
       </c>
       <c r="B128" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D128" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="E128" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F128" t="s">
         <v>996</v>
@@ -6138,13 +6153,13 @@
         <v>997</v>
       </c>
       <c r="B129" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D129" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E129" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F129" t="s">
         <v>996</v>
@@ -6158,13 +6173,13 @@
         <v>997</v>
       </c>
       <c r="B130" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D130" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="E130" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="F130" t="s">
         <v>996</v>
@@ -6178,16 +6193,13 @@
         <v>997</v>
       </c>
       <c r="B131" t="s">
-        <v>984</v>
-      </c>
-      <c r="C131" t="s">
-        <v>985</v>
+        <v>363</v>
       </c>
       <c r="D131" t="s">
-        <v>986</v>
+        <v>364</v>
       </c>
       <c r="E131" t="s">
-        <v>987</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
         <v>996</v>
@@ -6201,13 +6213,16 @@
         <v>997</v>
       </c>
       <c r="B132" t="s">
-        <v>366</v>
+        <v>984</v>
+      </c>
+      <c r="C132" t="s">
+        <v>985</v>
       </c>
       <c r="D132" t="s">
-        <v>367</v>
+        <v>986</v>
       </c>
       <c r="E132" t="s">
-        <v>368</v>
+        <v>987</v>
       </c>
       <c r="F132" t="s">
         <v>996</v>
@@ -6221,16 +6236,13 @@
         <v>997</v>
       </c>
       <c r="B133" t="s">
-        <v>369</v>
-      </c>
-      <c r="C133" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D133" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="E133" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F133" t="s">
         <v>996</v>
@@ -6244,13 +6256,16 @@
         <v>997</v>
       </c>
       <c r="B134" t="s">
-        <v>373</v>
+        <v>369</v>
+      </c>
+      <c r="C134" t="s">
+        <v>370</v>
       </c>
       <c r="D134" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="E134" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F134" t="s">
         <v>996</v>
@@ -6264,13 +6279,13 @@
         <v>997</v>
       </c>
       <c r="B135" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D135" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="E135" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F135" t="s">
         <v>996</v>
@@ -6284,13 +6299,13 @@
         <v>997</v>
       </c>
       <c r="B136" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D136" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="E136" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F136" t="s">
         <v>996</v>
@@ -6304,13 +6319,13 @@
         <v>997</v>
       </c>
       <c r="B137" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="D137" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="E137" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F137" t="s">
         <v>996</v>
@@ -6324,13 +6339,13 @@
         <v>997</v>
       </c>
       <c r="B138" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D138" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="E138" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F138" t="s">
         <v>996</v>
@@ -6344,13 +6359,13 @@
         <v>997</v>
       </c>
       <c r="B139" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D139" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="E139" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F139" t="s">
         <v>996</v>
@@ -6364,13 +6379,13 @@
         <v>997</v>
       </c>
       <c r="B140" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D140" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="E140" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F140" t="s">
         <v>996</v>
@@ -6384,13 +6399,13 @@
         <v>997</v>
       </c>
       <c r="B141" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D141" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="E141" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F141" t="s">
         <v>996</v>
@@ -6404,13 +6419,13 @@
         <v>997</v>
       </c>
       <c r="B142" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="D142" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E142" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F142" t="s">
         <v>996</v>
@@ -6424,13 +6439,13 @@
         <v>997</v>
       </c>
       <c r="B143" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="D143" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E143" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F143" t="s">
         <v>996</v>
@@ -6444,13 +6459,13 @@
         <v>997</v>
       </c>
       <c r="B144" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="D144" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="E144" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F144" t="s">
         <v>996</v>
@@ -6464,13 +6479,13 @@
         <v>997</v>
       </c>
       <c r="B145" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="D145" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="E145" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F145" t="s">
         <v>996</v>
@@ -6484,13 +6499,13 @@
         <v>997</v>
       </c>
       <c r="B146" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="D146" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E146" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F146" t="s">
         <v>996</v>
@@ -6504,13 +6519,13 @@
         <v>997</v>
       </c>
       <c r="B147" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="D147" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="E147" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F147" t="s">
         <v>996</v>
@@ -6524,13 +6539,13 @@
         <v>997</v>
       </c>
       <c r="B148" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="D148" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="E148" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F148" t="s">
         <v>996</v>
@@ -6544,13 +6559,13 @@
         <v>997</v>
       </c>
       <c r="B149" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="D149" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="E149" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F149" t="s">
         <v>996</v>
@@ -6564,13 +6579,13 @@
         <v>997</v>
       </c>
       <c r="B150" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D150" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="E150" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="F150" t="s">
         <v>996</v>
@@ -6584,13 +6599,13 @@
         <v>997</v>
       </c>
       <c r="B151" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D151" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="E151" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="F151" t="s">
         <v>996</v>
@@ -6604,13 +6619,13 @@
         <v>997</v>
       </c>
       <c r="B152" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D152" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="E152" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="F152" t="s">
         <v>996</v>
@@ -6624,13 +6639,13 @@
         <v>997</v>
       </c>
       <c r="B153" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="D153" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="E153" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="F153" t="s">
         <v>996</v>
@@ -6644,16 +6659,13 @@
         <v>997</v>
       </c>
       <c r="B154" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C154" t="s">
-        <v>1035</v>
+        <v>430</v>
       </c>
       <c r="D154" t="s">
-        <v>1036</v>
+        <v>431</v>
       </c>
       <c r="E154" t="s">
-        <v>1037</v>
+        <v>432</v>
       </c>
       <c r="F154" t="s">
         <v>996</v>
@@ -6667,13 +6679,16 @@
         <v>997</v>
       </c>
       <c r="B155" t="s">
-        <v>433</v>
+        <v>1034</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1035</v>
       </c>
       <c r="D155" t="s">
-        <v>434</v>
+        <v>1036</v>
       </c>
       <c r="E155" t="s">
-        <v>435</v>
+        <v>1037</v>
       </c>
       <c r="F155" t="s">
         <v>996</v>
@@ -6687,13 +6702,13 @@
         <v>997</v>
       </c>
       <c r="B156" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="D156" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="E156" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="F156" t="s">
         <v>996</v>
@@ -6707,13 +6722,13 @@
         <v>997</v>
       </c>
       <c r="B157" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="D157" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="E157" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="F157" t="s">
         <v>996</v>
@@ -6727,13 +6742,13 @@
         <v>997</v>
       </c>
       <c r="B158" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="D158" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E158" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="F158" t="s">
         <v>996</v>
@@ -6747,13 +6762,13 @@
         <v>997</v>
       </c>
       <c r="B159" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="D159" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E159" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="F159" t="s">
         <v>996</v>
@@ -6767,13 +6782,13 @@
         <v>997</v>
       </c>
       <c r="B160" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="D160" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E160" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="F160" t="s">
         <v>996</v>
@@ -6787,13 +6802,13 @@
         <v>997</v>
       </c>
       <c r="B161" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="D161" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E161" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="F161" t="s">
         <v>996</v>
@@ -6807,13 +6822,13 @@
         <v>997</v>
       </c>
       <c r="B162" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="D162" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E162" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="F162" t="s">
         <v>996</v>
@@ -6827,13 +6842,13 @@
         <v>997</v>
       </c>
       <c r="B163" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D163" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E163" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="F163" t="s">
         <v>996</v>
@@ -6847,13 +6862,13 @@
         <v>997</v>
       </c>
       <c r="B164" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="D164" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E164" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="F164" t="s">
         <v>996</v>
@@ -6867,13 +6882,13 @@
         <v>997</v>
       </c>
       <c r="B165" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="D165" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E165" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="F165" t="s">
         <v>996</v>
@@ -6887,13 +6902,13 @@
         <v>997</v>
       </c>
       <c r="B166" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="D166" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E166" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="F166" t="s">
         <v>996</v>
@@ -6907,16 +6922,13 @@
         <v>997</v>
       </c>
       <c r="B167" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C167" t="s">
-        <v>1016</v>
+        <v>466</v>
       </c>
       <c r="D167" t="s">
-        <v>1017</v>
+        <v>467</v>
       </c>
       <c r="E167" t="s">
-        <v>1018</v>
+        <v>468</v>
       </c>
       <c r="F167" t="s">
         <v>996</v>
@@ -6930,13 +6942,16 @@
         <v>997</v>
       </c>
       <c r="B168" t="s">
-        <v>469</v>
+        <v>1015</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1016</v>
       </c>
       <c r="D168" t="s">
-        <v>470</v>
+        <v>1017</v>
       </c>
       <c r="E168" t="s">
-        <v>471</v>
+        <v>1018</v>
       </c>
       <c r="F168" t="s">
         <v>996</v>
@@ -6950,13 +6965,13 @@
         <v>997</v>
       </c>
       <c r="B169" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="D169" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E169" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="F169" t="s">
         <v>996</v>
@@ -6970,13 +6985,13 @@
         <v>997</v>
       </c>
       <c r="B170" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="D170" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E170" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="F170" t="s">
         <v>996</v>
@@ -6990,13 +7005,13 @@
         <v>997</v>
       </c>
       <c r="B171" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="D171" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E171" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="F171" t="s">
         <v>996</v>
@@ -7010,13 +7025,13 @@
         <v>997</v>
       </c>
       <c r="B172" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="D172" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E172" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="F172" t="s">
         <v>996</v>
@@ -7030,13 +7045,13 @@
         <v>997</v>
       </c>
       <c r="B173" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="D173" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E173" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="F173" t="s">
         <v>996</v>
@@ -7050,16 +7065,13 @@
         <v>997</v>
       </c>
       <c r="B174" t="s">
-        <v>1041</v>
-      </c>
-      <c r="C174" t="s">
-        <v>1042</v>
+        <v>484</v>
       </c>
       <c r="D174" t="s">
-        <v>1043</v>
+        <v>485</v>
       </c>
       <c r="E174" t="s">
-        <v>1044</v>
+        <v>486</v>
       </c>
       <c r="F174" t="s">
         <v>996</v>
@@ -7073,13 +7085,16 @@
         <v>997</v>
       </c>
       <c r="B175" t="s">
-        <v>487</v>
+        <v>1041</v>
+      </c>
+      <c r="C175" t="s">
+        <v>1042</v>
       </c>
       <c r="D175" t="s">
-        <v>488</v>
+        <v>1043</v>
       </c>
       <c r="E175" t="s">
-        <v>489</v>
+        <v>1044</v>
       </c>
       <c r="F175" t="s">
         <v>996</v>
@@ -7093,13 +7108,13 @@
         <v>997</v>
       </c>
       <c r="B176" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="D176" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E176" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="F176" t="s">
         <v>996</v>
@@ -7113,13 +7128,13 @@
         <v>997</v>
       </c>
       <c r="B177" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="D177" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E177" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="F177" t="s">
         <v>996</v>
@@ -7133,13 +7148,13 @@
         <v>997</v>
       </c>
       <c r="B178" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="D178" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E178" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="F178" t="s">
         <v>996</v>
@@ -7153,13 +7168,13 @@
         <v>997</v>
       </c>
       <c r="B179" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="D179" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E179" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="F179" t="s">
         <v>996</v>
@@ -7173,13 +7188,13 @@
         <v>997</v>
       </c>
       <c r="B180" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="D180" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E180" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="F180" t="s">
         <v>996</v>
@@ -7193,13 +7208,13 @@
         <v>997</v>
       </c>
       <c r="B181" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="D181" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E181" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="F181" t="s">
         <v>996</v>
@@ -7213,13 +7228,13 @@
         <v>997</v>
       </c>
       <c r="B182" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="D182" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E182" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="F182" t="s">
         <v>996</v>
@@ -7233,13 +7248,13 @@
         <v>997</v>
       </c>
       <c r="B183" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="D183" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E183" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="F183" t="s">
         <v>996</v>
@@ -7253,13 +7268,13 @@
         <v>997</v>
       </c>
       <c r="B184" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="D184" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E184" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="F184" t="s">
         <v>996</v>
@@ -7273,13 +7288,13 @@
         <v>997</v>
       </c>
       <c r="B185" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="D185" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E185" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="F185" t="s">
         <v>996</v>
@@ -7293,13 +7308,13 @@
         <v>997</v>
       </c>
       <c r="B186" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
       <c r="D186" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E186" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="F186" t="s">
         <v>996</v>
@@ -7313,13 +7328,13 @@
         <v>997</v>
       </c>
       <c r="B187" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="D187" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E187" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
       <c r="F187" t="s">
         <v>996</v>
@@ -7333,13 +7348,13 @@
         <v>997</v>
       </c>
       <c r="B188" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
       <c r="D188" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="E188" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="F188" t="s">
         <v>996</v>
@@ -7353,13 +7368,13 @@
         <v>997</v>
       </c>
       <c r="B189" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="D189" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
       <c r="E189" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F189" t="s">
         <v>996</v>
@@ -7373,13 +7388,13 @@
         <v>997</v>
       </c>
       <c r="B190" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="D190" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="E190" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="F190" t="s">
         <v>996</v>
@@ -7393,13 +7408,13 @@
         <v>997</v>
       </c>
       <c r="B191" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="D191" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E191" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="F191" t="s">
         <v>996</v>
@@ -7413,13 +7428,13 @@
         <v>997</v>
       </c>
       <c r="B192" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
       <c r="D192" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E192" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
       <c r="F192" t="s">
         <v>996</v>
@@ -7433,13 +7448,13 @@
         <v>997</v>
       </c>
       <c r="B193" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="D193" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="E193" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="F193" t="s">
         <v>996</v>
@@ -7453,13 +7468,13 @@
         <v>997</v>
       </c>
       <c r="B194" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
       <c r="D194" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E194" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="F194" t="s">
         <v>996</v>
@@ -7473,13 +7488,13 @@
         <v>997</v>
       </c>
       <c r="B195" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="D195" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
       <c r="E195" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="F195" t="s">
         <v>996</v>
@@ -7493,13 +7508,13 @@
         <v>997</v>
       </c>
       <c r="B196" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
       <c r="D196" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E196" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="F196" t="s">
         <v>996</v>
@@ -7513,13 +7528,13 @@
         <v>997</v>
       </c>
       <c r="B197" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="D197" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
       <c r="E197" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="F197" t="s">
         <v>996</v>
@@ -7533,13 +7548,13 @@
         <v>997</v>
       </c>
       <c r="B198" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="D198" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="E198" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="F198" t="s">
         <v>996</v>
@@ -7553,13 +7568,13 @@
         <v>997</v>
       </c>
       <c r="B199" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
       <c r="D199" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E199" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
       <c r="F199" t="s">
         <v>996</v>
@@ -7573,13 +7588,13 @@
         <v>997</v>
       </c>
       <c r="B200" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="D200" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
       <c r="E200" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="F200" t="s">
         <v>996</v>
@@ -7593,13 +7608,13 @@
         <v>997</v>
       </c>
       <c r="B201" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="D201" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
       <c r="E201" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="F201" t="s">
         <v>996</v>
@@ -7613,13 +7628,13 @@
         <v>997</v>
       </c>
       <c r="B202" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
       <c r="D202" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E202" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="F202" t="s">
         <v>996</v>
@@ -7633,13 +7648,13 @@
         <v>997</v>
       </c>
       <c r="B203" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="D203" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="E203" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="F203" t="s">
         <v>996</v>
@@ -7653,13 +7668,13 @@
         <v>997</v>
       </c>
       <c r="B204" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="D204" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="E204" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
       <c r="F204" t="s">
         <v>996</v>
@@ -7673,13 +7688,13 @@
         <v>997</v>
       </c>
       <c r="B205" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="D205" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="E205" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="F205" t="s">
         <v>996</v>
@@ -7693,13 +7708,13 @@
         <v>997</v>
       </c>
       <c r="B206" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="D206" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="E206" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="F206" t="s">
         <v>996</v>
@@ -7713,13 +7728,13 @@
         <v>997</v>
       </c>
       <c r="B207" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="D207" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E207" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="F207" t="s">
         <v>996</v>
@@ -7733,13 +7748,13 @@
         <v>997</v>
       </c>
       <c r="B208" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="D208" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="E208" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="F208" t="s">
         <v>996</v>
@@ -7753,13 +7768,13 @@
         <v>997</v>
       </c>
       <c r="B209" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="D209" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E209" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="F209" t="s">
         <v>996</v>
@@ -7773,13 +7788,13 @@
         <v>997</v>
       </c>
       <c r="B210" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="D210" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="E210" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="F210" t="s">
         <v>996</v>
@@ -7793,13 +7808,13 @@
         <v>997</v>
       </c>
       <c r="B211" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="D211" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E211" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="F211" t="s">
         <v>996</v>
@@ -7813,16 +7828,13 @@
         <v>997</v>
       </c>
       <c r="B212" t="s">
-        <v>992</v>
-      </c>
-      <c r="C212" t="s">
-        <v>993</v>
+        <v>595</v>
       </c>
       <c r="D212" t="s">
-        <v>994</v>
+        <v>596</v>
       </c>
       <c r="E212" t="s">
-        <v>995</v>
+        <v>597</v>
       </c>
       <c r="F212" t="s">
         <v>996</v>
@@ -7836,13 +7848,16 @@
         <v>997</v>
       </c>
       <c r="B213" t="s">
-        <v>598</v>
+        <v>992</v>
+      </c>
+      <c r="C213" t="s">
+        <v>993</v>
       </c>
       <c r="D213" t="s">
-        <v>599</v>
+        <v>994</v>
       </c>
       <c r="E213" t="s">
-        <v>600</v>
+        <v>995</v>
       </c>
       <c r="F213" t="s">
         <v>996</v>
@@ -7856,13 +7871,13 @@
         <v>997</v>
       </c>
       <c r="B214" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="D214" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="E214" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="F214" t="s">
         <v>996</v>
@@ -7876,13 +7891,13 @@
         <v>997</v>
       </c>
       <c r="B215" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="D215" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="E215" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="F215" t="s">
         <v>996</v>
@@ -7896,13 +7911,13 @@
         <v>997</v>
       </c>
       <c r="B216" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="D216" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E216" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="F216" t="s">
         <v>996</v>
@@ -7916,13 +7931,13 @@
         <v>997</v>
       </c>
       <c r="B217" t="s">
-        <v>1038</v>
+        <v>607</v>
       </c>
       <c r="D217" t="s">
-        <v>1039</v>
+        <v>608</v>
       </c>
       <c r="E217" t="s">
-        <v>1040</v>
+        <v>609</v>
       </c>
       <c r="F217" t="s">
         <v>996</v>
@@ -7936,16 +7951,13 @@
         <v>997</v>
       </c>
       <c r="B218" t="s">
-        <v>1030</v>
-      </c>
-      <c r="C218" t="s">
-        <v>1031</v>
+        <v>1038</v>
       </c>
       <c r="D218" t="s">
-        <v>1032</v>
+        <v>1039</v>
       </c>
       <c r="E218" t="s">
-        <v>1033</v>
+        <v>1040</v>
       </c>
       <c r="F218" t="s">
         <v>996</v>
@@ -7959,13 +7971,16 @@
         <v>997</v>
       </c>
       <c r="B219" t="s">
-        <v>610</v>
+        <v>1030</v>
+      </c>
+      <c r="C219" t="s">
+        <v>1031</v>
       </c>
       <c r="D219" t="s">
-        <v>611</v>
+        <v>1032</v>
       </c>
       <c r="E219" t="s">
-        <v>612</v>
+        <v>1033</v>
       </c>
       <c r="F219" t="s">
         <v>996</v>
@@ -7979,13 +7994,13 @@
         <v>997</v>
       </c>
       <c r="B220" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="D220" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="E220" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="F220" t="s">
         <v>996</v>
@@ -7999,13 +8014,13 @@
         <v>997</v>
       </c>
       <c r="B221" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="D221" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="E221" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="F221" t="s">
         <v>996</v>
@@ -8019,13 +8034,13 @@
         <v>997</v>
       </c>
       <c r="B222" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="D222" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E222" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="F222" t="s">
         <v>996</v>
@@ -8039,13 +8054,13 @@
         <v>997</v>
       </c>
       <c r="B223" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="D223" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E223" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="F223" t="s">
         <v>996</v>
@@ -8059,13 +8074,13 @@
         <v>997</v>
       </c>
       <c r="B224" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="D224" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E224" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="F224" t="s">
         <v>996</v>
@@ -8079,13 +8094,13 @@
         <v>997</v>
       </c>
       <c r="B225" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="D225" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E225" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="F225" t="s">
         <v>996</v>
@@ -8099,13 +8114,13 @@
         <v>997</v>
       </c>
       <c r="B226" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="D226" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="E226" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="F226" t="s">
         <v>996</v>
@@ -8119,13 +8134,13 @@
         <v>997</v>
       </c>
       <c r="B227" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="D227" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="E227" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="F227" t="s">
         <v>996</v>
@@ -8139,13 +8154,13 @@
         <v>997</v>
       </c>
       <c r="B228" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="D228" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E228" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="F228" t="s">
         <v>996</v>
@@ -8159,13 +8174,13 @@
         <v>997</v>
       </c>
       <c r="B229" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="D229" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
       <c r="E229" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="F229" t="s">
         <v>996</v>
@@ -8179,13 +8194,13 @@
         <v>997</v>
       </c>
       <c r="B230" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D230" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E230" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="F230" t="s">
         <v>996</v>
@@ -8199,13 +8214,13 @@
         <v>997</v>
       </c>
       <c r="B231" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="D231" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
       <c r="E231" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="F231" t="s">
         <v>996</v>
@@ -8219,13 +8234,13 @@
         <v>997</v>
       </c>
       <c r="B232" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="D232" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
       <c r="E232" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="F232" t="s">
         <v>996</v>
@@ -8239,13 +8254,13 @@
         <v>997</v>
       </c>
       <c r="B233" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="D233" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
       <c r="E233" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="F233" t="s">
         <v>996</v>
@@ -8259,13 +8274,13 @@
         <v>997</v>
       </c>
       <c r="B234" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
       <c r="D234" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E234" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="F234" t="s">
         <v>996</v>
@@ -8279,13 +8294,13 @@
         <v>997</v>
       </c>
       <c r="B235" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
       <c r="D235" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E235" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
       <c r="F235" t="s">
         <v>996</v>
@@ -8299,13 +8314,13 @@
         <v>997</v>
       </c>
       <c r="B236" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="D236" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
       <c r="E236" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="F236" t="s">
         <v>996</v>
@@ -8319,13 +8334,13 @@
         <v>997</v>
       </c>
       <c r="B237" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
       <c r="D237" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E237" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
       <c r="F237" t="s">
         <v>996</v>
@@ -8339,13 +8354,13 @@
         <v>997</v>
       </c>
       <c r="B238" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
       <c r="D238" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="E238" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
       <c r="F238" t="s">
         <v>996</v>
@@ -8359,13 +8374,13 @@
         <v>997</v>
       </c>
       <c r="B239" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
       <c r="D239" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="E239" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
       <c r="F239" t="s">
         <v>996</v>
@@ -8379,13 +8394,13 @@
         <v>997</v>
       </c>
       <c r="B240" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="D240" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E240" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="F240" t="s">
         <v>996</v>
@@ -8399,13 +8414,13 @@
         <v>997</v>
       </c>
       <c r="B241" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="D241" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E241" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="F241" t="s">
         <v>996</v>
@@ -8419,13 +8434,13 @@
         <v>997</v>
       </c>
       <c r="B242" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="D242" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E242" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="F242" t="s">
         <v>996</v>
@@ -8439,13 +8454,13 @@
         <v>997</v>
       </c>
       <c r="B243" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
       <c r="D243" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
       <c r="E243" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
       <c r="F243" t="s">
         <v>996</v>
@@ -8459,16 +8474,13 @@
         <v>997</v>
       </c>
       <c r="B244" t="s">
-        <v>968</v>
-      </c>
-      <c r="C244" t="s">
-        <v>969</v>
+        <v>682</v>
       </c>
       <c r="D244" t="s">
-        <v>970</v>
+        <v>683</v>
       </c>
       <c r="E244" t="s">
-        <v>971</v>
+        <v>684</v>
       </c>
       <c r="F244" t="s">
         <v>996</v>
@@ -8482,13 +8494,16 @@
         <v>997</v>
       </c>
       <c r="B245" t="s">
-        <v>685</v>
+        <v>968</v>
+      </c>
+      <c r="C245" t="s">
+        <v>969</v>
       </c>
       <c r="D245" t="s">
-        <v>686</v>
+        <v>970</v>
       </c>
       <c r="E245" t="s">
-        <v>687</v>
+        <v>971</v>
       </c>
       <c r="F245" t="s">
         <v>996</v>
@@ -8502,13 +8517,13 @@
         <v>997</v>
       </c>
       <c r="B246" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="D246" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
       <c r="E246" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
       <c r="F246" t="s">
         <v>996</v>
@@ -8522,13 +8537,13 @@
         <v>997</v>
       </c>
       <c r="B247" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
       <c r="D247" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
       <c r="E247" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
       <c r="F247" t="s">
         <v>996</v>
@@ -8542,13 +8557,13 @@
         <v>997</v>
       </c>
       <c r="B248" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="D248" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="E248" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F248" t="s">
         <v>996</v>
@@ -8562,13 +8577,13 @@
         <v>997</v>
       </c>
       <c r="B249" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="D249" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
       <c r="E249" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
       <c r="F249" t="s">
         <v>996</v>
@@ -8582,13 +8597,13 @@
         <v>997</v>
       </c>
       <c r="B250" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
       <c r="D250" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
       <c r="E250" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
       <c r="F250" t="s">
         <v>996</v>
@@ -8602,13 +8617,13 @@
         <v>997</v>
       </c>
       <c r="B251" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
       <c r="D251" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="E251" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="F251" t="s">
         <v>996</v>
@@ -8622,16 +8637,13 @@
         <v>997</v>
       </c>
       <c r="B252" t="s">
-        <v>980</v>
-      </c>
-      <c r="C252" t="s">
-        <v>981</v>
+        <v>703</v>
       </c>
       <c r="D252" t="s">
-        <v>982</v>
+        <v>704</v>
       </c>
       <c r="E252" t="s">
-        <v>983</v>
+        <v>705</v>
       </c>
       <c r="F252" t="s">
         <v>996</v>
@@ -8645,16 +8657,16 @@
         <v>997</v>
       </c>
       <c r="B253" t="s">
-        <v>1045</v>
+        <v>980</v>
       </c>
       <c r="C253" t="s">
-        <v>1046</v>
+        <v>981</v>
       </c>
       <c r="D253" t="s">
-        <v>1047</v>
+        <v>982</v>
       </c>
       <c r="E253" t="s">
-        <v>1048</v>
+        <v>983</v>
       </c>
       <c r="F253" t="s">
         <v>996</v>
@@ -8668,13 +8680,16 @@
         <v>997</v>
       </c>
       <c r="B254" t="s">
-        <v>706</v>
+        <v>1045</v>
+      </c>
+      <c r="C254" t="s">
+        <v>1046</v>
       </c>
       <c r="D254" t="s">
-        <v>707</v>
+        <v>1047</v>
       </c>
       <c r="E254" t="s">
-        <v>708</v>
+        <v>1048</v>
       </c>
       <c r="F254" t="s">
         <v>996</v>
@@ -8688,13 +8703,13 @@
         <v>997</v>
       </c>
       <c r="B255" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
       <c r="D255" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
       <c r="E255" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
       <c r="F255" t="s">
         <v>996</v>
@@ -8708,13 +8723,13 @@
         <v>997</v>
       </c>
       <c r="B256" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
       <c r="D256" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
       <c r="E256" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
       <c r="F256" t="s">
         <v>996</v>
@@ -8728,13 +8743,13 @@
         <v>997</v>
       </c>
       <c r="B257" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
       <c r="D257" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
       <c r="E257" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
       <c r="F257" t="s">
         <v>996</v>
@@ -8748,13 +8763,13 @@
         <v>997</v>
       </c>
       <c r="B258" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
       <c r="D258" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
       <c r="E258" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
       <c r="F258" t="s">
         <v>996</v>
@@ -8768,13 +8783,13 @@
         <v>997</v>
       </c>
       <c r="B259" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
       <c r="D259" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
       <c r="E259" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
       <c r="F259" t="s">
         <v>996</v>
@@ -8788,13 +8803,13 @@
         <v>997</v>
       </c>
       <c r="B260" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
       <c r="D260" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
       <c r="E260" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
       <c r="F260" t="s">
         <v>996</v>
@@ -8808,13 +8823,13 @@
         <v>997</v>
       </c>
       <c r="B261" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="D261" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="E261" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="F261" t="s">
         <v>996</v>
@@ -8828,13 +8843,13 @@
         <v>997</v>
       </c>
       <c r="B262" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
       <c r="D262" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
       <c r="E262" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
       <c r="F262" t="s">
         <v>996</v>
@@ -8848,16 +8863,13 @@
         <v>997</v>
       </c>
       <c r="B263" t="s">
-        <v>988</v>
-      </c>
-      <c r="C263" t="s">
-        <v>989</v>
+        <v>730</v>
       </c>
       <c r="D263" t="s">
-        <v>990</v>
+        <v>731</v>
       </c>
       <c r="E263" t="s">
-        <v>991</v>
+        <v>732</v>
       </c>
       <c r="F263" t="s">
         <v>996</v>
@@ -8871,13 +8883,16 @@
         <v>997</v>
       </c>
       <c r="B264" t="s">
-        <v>733</v>
+        <v>988</v>
+      </c>
+      <c r="C264" t="s">
+        <v>989</v>
       </c>
       <c r="D264" t="s">
-        <v>734</v>
+        <v>990</v>
       </c>
       <c r="E264" t="s">
-        <v>735</v>
+        <v>991</v>
       </c>
       <c r="F264" t="s">
         <v>996</v>
@@ -8891,13 +8906,13 @@
         <v>997</v>
       </c>
       <c r="B265" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
       <c r="D265" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
       <c r="E265" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
       <c r="F265" t="s">
         <v>996</v>
@@ -8911,13 +8926,13 @@
         <v>997</v>
       </c>
       <c r="B266" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
       <c r="D266" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
       <c r="E266" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
       <c r="F266" t="s">
         <v>996</v>
@@ -8931,13 +8946,13 @@
         <v>997</v>
       </c>
       <c r="B267" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
       <c r="D267" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
       <c r="E267" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
       <c r="F267" t="s">
         <v>996</v>
@@ -8951,13 +8966,13 @@
         <v>997</v>
       </c>
       <c r="B268" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
       <c r="D268" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
       <c r="E268" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
       <c r="F268" t="s">
         <v>996</v>
@@ -8971,13 +8986,13 @@
         <v>997</v>
       </c>
       <c r="B269" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
       <c r="D269" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
       <c r="E269" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
       <c r="F269" t="s">
         <v>996</v>
@@ -8991,13 +9006,13 @@
         <v>997</v>
       </c>
       <c r="B270" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
       <c r="D270" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
       <c r="E270" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
       <c r="F270" t="s">
         <v>996</v>
@@ -9011,13 +9026,13 @@
         <v>997</v>
       </c>
       <c r="B271" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
       <c r="D271" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E271" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
       <c r="F271" t="s">
         <v>996</v>
@@ -9031,13 +9046,13 @@
         <v>997</v>
       </c>
       <c r="B272" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
       <c r="D272" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
       <c r="E272" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
       <c r="F272" t="s">
         <v>996</v>
@@ -9051,13 +9066,13 @@
         <v>997</v>
       </c>
       <c r="B273" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
       <c r="D273" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E273" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
       <c r="F273" t="s">
         <v>996</v>
@@ -9071,13 +9086,13 @@
         <v>997</v>
       </c>
       <c r="B274" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
       <c r="D274" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
       <c r="E274" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
       <c r="F274" t="s">
         <v>996</v>
@@ -9091,13 +9106,13 @@
         <v>997</v>
       </c>
       <c r="B275" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="D275" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="E275" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
       <c r="F275" t="s">
         <v>996</v>
@@ -9111,13 +9126,13 @@
         <v>997</v>
       </c>
       <c r="B276" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
       <c r="D276" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
       <c r="E276" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
       <c r="F276" t="s">
         <v>996</v>
@@ -9131,13 +9146,13 @@
         <v>997</v>
       </c>
       <c r="B277" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="D277" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
       <c r="E277" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
       <c r="F277" t="s">
         <v>996</v>
@@ -9151,13 +9166,13 @@
         <v>997</v>
       </c>
       <c r="B278" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="D278" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
       <c r="E278" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="F278" t="s">
         <v>996</v>
@@ -9171,13 +9186,13 @@
         <v>997</v>
       </c>
       <c r="B279" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
       <c r="D279" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
       <c r="E279" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
       <c r="F279" t="s">
         <v>996</v>
@@ -9191,13 +9206,13 @@
         <v>997</v>
       </c>
       <c r="B280" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
       <c r="D280" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
       <c r="E280" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
       <c r="F280" t="s">
         <v>996</v>
@@ -9211,13 +9226,13 @@
         <v>997</v>
       </c>
       <c r="B281" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
       <c r="D281" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
       <c r="E281" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
       <c r="F281" t="s">
         <v>996</v>
@@ -9231,13 +9246,13 @@
         <v>997</v>
       </c>
       <c r="B282" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
       <c r="D282" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
       <c r="E282" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
       <c r="F282" t="s">
         <v>996</v>
@@ -9251,13 +9266,13 @@
         <v>997</v>
       </c>
       <c r="B283" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
       <c r="D283" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
       <c r="E283" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
       <c r="F283" t="s">
         <v>996</v>
@@ -9271,13 +9286,13 @@
         <v>997</v>
       </c>
       <c r="B284" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
       <c r="D284" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
       <c r="E284" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
       <c r="F284" t="s">
         <v>996</v>
@@ -9291,13 +9306,13 @@
         <v>997</v>
       </c>
       <c r="B285" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
       <c r="D285" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
       <c r="E285" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
       <c r="F285" t="s">
         <v>996</v>
@@ -9311,13 +9326,13 @@
         <v>997</v>
       </c>
       <c r="B286" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
       <c r="D286" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
       <c r="E286" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
       <c r="F286" t="s">
         <v>996</v>
@@ -9331,13 +9346,13 @@
         <v>997</v>
       </c>
       <c r="B287" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
       <c r="D287" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
       <c r="E287" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
       <c r="F287" t="s">
         <v>996</v>
@@ -9351,13 +9366,13 @@
         <v>997</v>
       </c>
       <c r="B288" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
       <c r="D288" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
       <c r="E288" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
       <c r="F288" t="s">
         <v>996</v>
@@ -9371,13 +9386,13 @@
         <v>997</v>
       </c>
       <c r="B289" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
       <c r="D289" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
       <c r="E289" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
       <c r="F289" t="s">
         <v>996</v>
@@ -9391,16 +9406,13 @@
         <v>997</v>
       </c>
       <c r="B290" t="s">
-        <v>1026</v>
-      </c>
-      <c r="C290" t="s">
-        <v>1027</v>
+        <v>808</v>
       </c>
       <c r="D290" t="s">
-        <v>1028</v>
+        <v>809</v>
       </c>
       <c r="E290" t="s">
-        <v>1029</v>
+        <v>810</v>
       </c>
       <c r="F290" t="s">
         <v>996</v>
@@ -9414,13 +9426,16 @@
         <v>997</v>
       </c>
       <c r="B291" t="s">
-        <v>811</v>
+        <v>1026</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1027</v>
       </c>
       <c r="D291" t="s">
-        <v>812</v>
+        <v>1028</v>
       </c>
       <c r="E291" t="s">
-        <v>813</v>
+        <v>1029</v>
       </c>
       <c r="F291" t="s">
         <v>996</v>
@@ -9434,13 +9449,13 @@
         <v>997</v>
       </c>
       <c r="B292" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
       <c r="D292" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
       <c r="E292" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
       <c r="F292" t="s">
         <v>996</v>
@@ -9454,13 +9469,13 @@
         <v>997</v>
       </c>
       <c r="B293" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D293" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
       <c r="E293" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
       <c r="F293" t="s">
         <v>996</v>
@@ -9474,13 +9489,13 @@
         <v>997</v>
       </c>
       <c r="B294" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
       <c r="D294" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
       <c r="E294" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
       <c r="F294" t="s">
         <v>996</v>
@@ -9494,13 +9509,13 @@
         <v>997</v>
       </c>
       <c r="B295" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
       <c r="D295" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="E295" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
       <c r="F295" t="s">
         <v>996</v>
@@ -9514,13 +9529,13 @@
         <v>997</v>
       </c>
       <c r="B296" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
       <c r="D296" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
       <c r="E296" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
       <c r="F296" t="s">
         <v>996</v>
@@ -9534,13 +9549,13 @@
         <v>997</v>
       </c>
       <c r="B297" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
       <c r="D297" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
       <c r="E297" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
       <c r="F297" t="s">
         <v>996</v>
@@ -9554,13 +9569,13 @@
         <v>997</v>
       </c>
       <c r="B298" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
       <c r="D298" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
       <c r="E298" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
       <c r="F298" t="s">
         <v>996</v>
@@ -9574,13 +9589,13 @@
         <v>997</v>
       </c>
       <c r="B299" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
       <c r="D299" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
       <c r="E299" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
       <c r="F299" t="s">
         <v>996</v>
@@ -9594,13 +9609,13 @@
         <v>997</v>
       </c>
       <c r="B300" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
       <c r="D300" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
       <c r="E300" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
       <c r="F300" t="s">
         <v>996</v>
@@ -9614,13 +9629,13 @@
         <v>997</v>
       </c>
       <c r="B301" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
       <c r="D301" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
       <c r="E301" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
       <c r="F301" t="s">
         <v>996</v>
@@ -9634,13 +9649,13 @@
         <v>997</v>
       </c>
       <c r="B302" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
       <c r="D302" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
       <c r="E302" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
       <c r="F302" t="s">
         <v>996</v>
@@ -9654,13 +9669,13 @@
         <v>997</v>
       </c>
       <c r="B303" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
       <c r="D303" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
       <c r="E303" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
       <c r="F303" t="s">
         <v>996</v>
@@ -9674,13 +9689,13 @@
         <v>997</v>
       </c>
       <c r="B304" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
       <c r="D304" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
       <c r="E304" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
       <c r="F304" t="s">
         <v>996</v>
@@ -9694,13 +9709,13 @@
         <v>997</v>
       </c>
       <c r="B305" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
       <c r="D305" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
       <c r="E305" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
       <c r="F305" t="s">
         <v>996</v>
@@ -9714,13 +9729,13 @@
         <v>997</v>
       </c>
       <c r="B306" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
       <c r="D306" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
       <c r="E306" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
       <c r="F306" t="s">
         <v>996</v>
@@ -9734,13 +9749,13 @@
         <v>997</v>
       </c>
       <c r="B307" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
       <c r="D307" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
       <c r="E307" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
       <c r="F307" t="s">
         <v>996</v>
@@ -9754,13 +9769,13 @@
         <v>997</v>
       </c>
       <c r="B308" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
       <c r="D308" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
       <c r="E308" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
       <c r="F308" t="s">
         <v>996</v>
@@ -9774,13 +9789,13 @@
         <v>997</v>
       </c>
       <c r="B309" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
       <c r="D309" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
       <c r="E309" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
       <c r="F309" t="s">
         <v>996</v>
@@ -9794,13 +9809,13 @@
         <v>997</v>
       </c>
       <c r="B310" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
       <c r="D310" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
       <c r="E310" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
       <c r="F310" t="s">
         <v>996</v>
@@ -9814,13 +9829,13 @@
         <v>997</v>
       </c>
       <c r="B311" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
       <c r="D311" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
       <c r="E311" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
       <c r="F311" t="s">
         <v>996</v>
@@ -9834,13 +9849,13 @@
         <v>997</v>
       </c>
       <c r="B312" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
       <c r="D312" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
       <c r="E312" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
       <c r="F312" t="s">
         <v>996</v>
@@ -9854,13 +9869,13 @@
         <v>997</v>
       </c>
       <c r="B313" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
       <c r="D313" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
       <c r="E313" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
       <c r="F313" t="s">
         <v>996</v>
@@ -9874,13 +9889,13 @@
         <v>997</v>
       </c>
       <c r="B314" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
       <c r="D314" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
       <c r="E314" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
       <c r="F314" t="s">
         <v>996</v>
@@ -9894,13 +9909,13 @@
         <v>997</v>
       </c>
       <c r="B315" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
       <c r="D315" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
       <c r="E315" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
       <c r="F315" t="s">
         <v>996</v>
@@ -9914,13 +9929,13 @@
         <v>997</v>
       </c>
       <c r="B316" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
       <c r="D316" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
       <c r="E316" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
       <c r="F316" t="s">
         <v>996</v>
@@ -9934,13 +9949,13 @@
         <v>997</v>
       </c>
       <c r="B317" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
       <c r="D317" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
       <c r="E317" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="F317" t="s">
         <v>996</v>
@@ -9954,13 +9969,13 @@
         <v>997</v>
       </c>
       <c r="B318" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="D318" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="E318" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="F318" t="s">
         <v>996</v>
@@ -9974,16 +9989,13 @@
         <v>997</v>
       </c>
       <c r="B319" t="s">
-        <v>964</v>
-      </c>
-      <c r="C319" t="s">
-        <v>965</v>
+        <v>892</v>
       </c>
       <c r="D319" t="s">
-        <v>966</v>
+        <v>893</v>
       </c>
       <c r="E319" t="s">
-        <v>967</v>
+        <v>894</v>
       </c>
       <c r="F319" t="s">
         <v>996</v>
@@ -9997,13 +10009,16 @@
         <v>997</v>
       </c>
       <c r="B320" t="s">
-        <v>895</v>
+        <v>964</v>
+      </c>
+      <c r="C320" t="s">
+        <v>965</v>
       </c>
       <c r="D320" t="s">
-        <v>896</v>
+        <v>966</v>
       </c>
       <c r="E320" t="s">
-        <v>897</v>
+        <v>967</v>
       </c>
       <c r="F320" t="s">
         <v>996</v>
@@ -10017,13 +10032,13 @@
         <v>997</v>
       </c>
       <c r="B321" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
       <c r="D321" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
       <c r="E321" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
       <c r="F321" t="s">
         <v>996</v>
@@ -10037,13 +10052,13 @@
         <v>997</v>
       </c>
       <c r="B322" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
       <c r="D322" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
       <c r="E322" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
       <c r="F322" t="s">
         <v>996</v>
@@ -10057,13 +10072,13 @@
         <v>997</v>
       </c>
       <c r="B323" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
       <c r="D323" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
       <c r="E323" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
       <c r="F323" t="s">
         <v>996</v>
@@ -10077,13 +10092,13 @@
         <v>997</v>
       </c>
       <c r="B324" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
       <c r="D324" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
       <c r="E324" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
       <c r="F324" t="s">
         <v>996</v>
@@ -10097,16 +10112,13 @@
         <v>997</v>
       </c>
       <c r="B325" t="s">
-        <v>1022</v>
-      </c>
-      <c r="C325" t="s">
-        <v>1023</v>
+        <v>907</v>
       </c>
       <c r="D325" t="s">
-        <v>1024</v>
+        <v>908</v>
       </c>
       <c r="E325" t="s">
-        <v>1025</v>
+        <v>909</v>
       </c>
       <c r="F325" t="s">
         <v>996</v>
@@ -10120,16 +10132,16 @@
         <v>997</v>
       </c>
       <c r="B326" t="s">
-        <v>952</v>
+        <v>1022</v>
       </c>
       <c r="C326" t="s">
-        <v>953</v>
+        <v>1023</v>
       </c>
       <c r="D326" t="s">
-        <v>954</v>
+        <v>1024</v>
       </c>
       <c r="E326" t="s">
-        <v>955</v>
+        <v>1025</v>
       </c>
       <c r="F326" t="s">
         <v>996</v>
@@ -10143,13 +10155,16 @@
         <v>997</v>
       </c>
       <c r="B327" t="s">
-        <v>910</v>
+        <v>952</v>
+      </c>
+      <c r="C327" t="s">
+        <v>953</v>
       </c>
       <c r="D327" t="s">
-        <v>911</v>
+        <v>954</v>
       </c>
       <c r="E327" t="s">
-        <v>912</v>
+        <v>955</v>
       </c>
       <c r="F327" t="s">
         <v>996</v>
@@ -10163,13 +10178,13 @@
         <v>997</v>
       </c>
       <c r="B328" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
       <c r="D328" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
       <c r="E328" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
       <c r="F328" t="s">
         <v>996</v>
@@ -10183,13 +10198,13 @@
         <v>997</v>
       </c>
       <c r="B329" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
       <c r="D329" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
       <c r="E329" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
       <c r="F329" t="s">
         <v>996</v>
@@ -10203,13 +10218,13 @@
         <v>997</v>
       </c>
       <c r="B330" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
       <c r="D330" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
       <c r="E330" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
       <c r="F330" t="s">
         <v>996</v>
@@ -10223,13 +10238,13 @@
         <v>997</v>
       </c>
       <c r="B331" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
       <c r="D331" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
       <c r="E331" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
       <c r="F331" t="s">
         <v>996</v>
@@ -10243,13 +10258,13 @@
         <v>997</v>
       </c>
       <c r="B332" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="D332" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="E332" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="F332" t="s">
         <v>996</v>
@@ -10263,13 +10278,13 @@
         <v>997</v>
       </c>
       <c r="B333" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="D333" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
       <c r="E333" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
       <c r="F333" t="s">
         <v>996</v>
@@ -10283,13 +10298,13 @@
         <v>997</v>
       </c>
       <c r="B334" t="s">
-        <v>931</v>
+        <v>928</v>
       </c>
       <c r="D334" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
       <c r="E334" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
       <c r="F334" t="s">
         <v>996</v>
@@ -10303,13 +10318,13 @@
         <v>997</v>
       </c>
       <c r="B335" t="s">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="D335" t="s">
-        <v>935</v>
+        <v>932</v>
       </c>
       <c r="E335" t="s">
-        <v>936</v>
+        <v>933</v>
       </c>
       <c r="F335" t="s">
         <v>996</v>
@@ -10323,13 +10338,13 @@
         <v>997</v>
       </c>
       <c r="B336" t="s">
-        <v>937</v>
+        <v>934</v>
       </c>
       <c r="D336" t="s">
-        <v>938</v>
+        <v>935</v>
       </c>
       <c r="E336" t="s">
-        <v>939</v>
+        <v>936</v>
       </c>
       <c r="F336" t="s">
         <v>996</v>
@@ -10343,13 +10358,13 @@
         <v>997</v>
       </c>
       <c r="B337" t="s">
-        <v>940</v>
+        <v>937</v>
       </c>
       <c r="D337" t="s">
-        <v>941</v>
+        <v>938</v>
       </c>
       <c r="E337" t="s">
-        <v>942</v>
+        <v>939</v>
       </c>
       <c r="F337" t="s">
         <v>996</v>
@@ -10363,13 +10378,13 @@
         <v>997</v>
       </c>
       <c r="B338" t="s">
-        <v>943</v>
+        <v>940</v>
       </c>
       <c r="D338" t="s">
-        <v>944</v>
+        <v>941</v>
       </c>
       <c r="E338" t="s">
-        <v>945</v>
+        <v>942</v>
       </c>
       <c r="F338" t="s">
         <v>996</v>
@@ -10383,13 +10398,13 @@
         <v>997</v>
       </c>
       <c r="B339" t="s">
-        <v>946</v>
+        <v>943</v>
       </c>
       <c r="D339" t="s">
-        <v>947</v>
+        <v>944</v>
       </c>
       <c r="E339" t="s">
-        <v>948</v>
+        <v>945</v>
       </c>
       <c r="F339" t="s">
         <v>996</v>
@@ -10403,18 +10418,38 @@
         <v>997</v>
       </c>
       <c r="B340" t="s">
+        <v>946</v>
+      </c>
+      <c r="D340" t="s">
+        <v>947</v>
+      </c>
+      <c r="E340" t="s">
+        <v>948</v>
+      </c>
+      <c r="F340" t="s">
+        <v>996</v>
+      </c>
+      <c r="G340" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341" t="s">
+        <v>997</v>
+      </c>
+      <c r="B341" t="s">
         <v>949</v>
       </c>
-      <c r="D340" t="s">
+      <c r="D341" t="s">
         <v>950</v>
       </c>
-      <c r="E340" t="s">
+      <c r="E341" t="s">
         <v>951</v>
       </c>
-      <c r="F340" t="s">
-        <v>996</v>
-      </c>
-      <c r="G340" t="s">
+      <c r="F341" t="s">
+        <v>996</v>
+      </c>
+      <c r="G341" t="s">
         <v>998</v>
       </c>
     </row>

--- a/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
@@ -4290,23 +4290,6 @@
   <dxfs count="6">
     <dxf>
       <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -4355,6 +4338,23 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -4369,10 +4369,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G448" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G448" totalsRowShown="0" headerRowDxfId="5">
   <autoFilter ref="A1:G448"/>
   <sortState ref="A2:G448">
-    <sortCondition ref="F1:F448"/>
+    <sortCondition ref="D1:D448"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" name="Imprint"/>
@@ -4749,20 +4749,20 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>1063</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>1064</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>1065</v>
       </c>
       <c r="F5" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G5" t="s">
         <v>952</v>
@@ -4773,13 +4773,13 @@
         <v>951</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s">
         <v>950</v>
@@ -4793,13 +4793,13 @@
         <v>951</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="F7" t="s">
         <v>950</v>
@@ -4813,13 +4813,13 @@
         <v>951</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
         <v>950</v>
@@ -4833,13 +4833,13 @@
         <v>951</v>
       </c>
       <c r="B9" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
         <v>950</v>
@@ -4853,13 +4853,13 @@
         <v>951</v>
       </c>
       <c r="B10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="F10" t="s">
         <v>950</v>
@@ -4873,13 +4873,13 @@
         <v>951</v>
       </c>
       <c r="B11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E11" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="F11" t="s">
         <v>950</v>
@@ -4893,13 +4893,13 @@
         <v>951</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F12" t="s">
         <v>950</v>
@@ -4913,13 +4913,13 @@
         <v>951</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="F13" t="s">
         <v>950</v>
@@ -4933,13 +4933,13 @@
         <v>951</v>
       </c>
       <c r="B14" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D14" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F14" t="s">
         <v>950</v>
@@ -4953,13 +4953,13 @@
         <v>951</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
         <v>950</v>
@@ -4973,13 +4973,13 @@
         <v>951</v>
       </c>
       <c r="B16" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F16" t="s">
         <v>950</v>
@@ -4993,13 +4993,13 @@
         <v>951</v>
       </c>
       <c r="B17" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E17" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F17" t="s">
         <v>950</v>
@@ -5013,16 +5013,13 @@
         <v>951</v>
       </c>
       <c r="B18" t="s">
-        <v>1019</v>
-      </c>
-      <c r="C18" t="s">
-        <v>1054</v>
+        <v>52</v>
       </c>
       <c r="D18" t="s">
-        <v>1055</v>
+        <v>53</v>
       </c>
       <c r="E18" t="s">
-        <v>1038</v>
+        <v>54</v>
       </c>
       <c r="F18" t="s">
         <v>950</v>
@@ -5036,13 +5033,16 @@
         <v>951</v>
       </c>
       <c r="B19" t="s">
-        <v>55</v>
+        <v>1019</v>
+      </c>
+      <c r="C19" t="s">
+        <v>1054</v>
       </c>
       <c r="D19" t="s">
-        <v>56</v>
+        <v>1055</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>1038</v>
       </c>
       <c r="F19" t="s">
         <v>950</v>
@@ -5056,16 +5056,16 @@
         <v>951</v>
       </c>
       <c r="B20" t="s">
-        <v>58</v>
+        <v>1067</v>
       </c>
       <c r="D20" t="s">
-        <v>59</v>
+        <v>1068</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>1069</v>
       </c>
       <c r="F20" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G20" t="s">
         <v>952</v>
@@ -5076,13 +5076,13 @@
         <v>951</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E21" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="F21" t="s">
         <v>950</v>
@@ -5096,13 +5096,13 @@
         <v>951</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D22" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E22" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="F22" t="s">
         <v>950</v>
@@ -5116,13 +5116,13 @@
         <v>951</v>
       </c>
       <c r="B23" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D23" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E23" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="F23" t="s">
         <v>950</v>
@@ -5136,16 +5136,13 @@
         <v>951</v>
       </c>
       <c r="B24" t="s">
-        <v>930</v>
-      </c>
-      <c r="C24" t="s">
-        <v>931</v>
+        <v>64</v>
       </c>
       <c r="D24" t="s">
-        <v>932</v>
+        <v>65</v>
       </c>
       <c r="E24" t="s">
-        <v>933</v>
+        <v>66</v>
       </c>
       <c r="F24" t="s">
         <v>950</v>
@@ -5159,16 +5156,16 @@
         <v>951</v>
       </c>
       <c r="B25" t="s">
-        <v>70</v>
+        <v>1070</v>
       </c>
       <c r="D25" t="s">
-        <v>71</v>
+        <v>1071</v>
       </c>
       <c r="E25" t="s">
-        <v>72</v>
+        <v>1072</v>
       </c>
       <c r="F25" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G25" t="s">
         <v>952</v>
@@ -5179,16 +5176,16 @@
         <v>951</v>
       </c>
       <c r="B26" t="s">
-        <v>73</v>
+        <v>1073</v>
       </c>
       <c r="D26" t="s">
-        <v>74</v>
+        <v>1074</v>
       </c>
       <c r="E26" t="s">
-        <v>75</v>
+        <v>1075</v>
       </c>
       <c r="F26" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G26" t="s">
         <v>952</v>
@@ -5199,13 +5196,13 @@
         <v>951</v>
       </c>
       <c r="B27" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="D27" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
       <c r="E27" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="F27" t="s">
         <v>950</v>
@@ -5219,13 +5216,16 @@
         <v>951</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>930</v>
+      </c>
+      <c r="C28" t="s">
+        <v>931</v>
       </c>
       <c r="D28" t="s">
-        <v>80</v>
+        <v>932</v>
       </c>
       <c r="E28" t="s">
-        <v>81</v>
+        <v>933</v>
       </c>
       <c r="F28" t="s">
         <v>950</v>
@@ -5239,13 +5239,13 @@
         <v>951</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="D29" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E29" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="F29" t="s">
         <v>950</v>
@@ -5259,13 +5259,13 @@
         <v>951</v>
       </c>
       <c r="B30" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
         <v>950</v>
@@ -5279,16 +5279,16 @@
         <v>951</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
+        <v>1076</v>
       </c>
       <c r="D31" t="s">
-        <v>89</v>
+        <v>1077</v>
       </c>
       <c r="E31" t="s">
-        <v>90</v>
+        <v>1078</v>
       </c>
       <c r="F31" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G31" t="s">
         <v>952</v>
@@ -5299,13 +5299,13 @@
         <v>951</v>
       </c>
       <c r="B32" t="s">
-        <v>91</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>92</v>
+        <v>77</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="F32" t="s">
         <v>950</v>
@@ -5319,13 +5319,13 @@
         <v>951</v>
       </c>
       <c r="B33" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="D33" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="E33" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="F33" t="s">
         <v>950</v>
@@ -5339,16 +5339,13 @@
         <v>951</v>
       </c>
       <c r="B34" t="s">
-        <v>953</v>
-      </c>
-      <c r="C34" t="s">
-        <v>954</v>
+        <v>82</v>
       </c>
       <c r="D34" t="s">
-        <v>955</v>
+        <v>83</v>
       </c>
       <c r="E34" t="s">
-        <v>956</v>
+        <v>84</v>
       </c>
       <c r="F34" t="s">
         <v>950</v>
@@ -5362,16 +5359,16 @@
         <v>951</v>
       </c>
       <c r="B35" t="s">
-        <v>97</v>
+        <v>1350</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>1337</v>
       </c>
       <c r="E35" t="s">
-        <v>99</v>
+        <v>1351</v>
       </c>
       <c r="F35" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G35" t="s">
         <v>952</v>
@@ -5382,13 +5379,13 @@
         <v>951</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="D36" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="E36" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="F36" t="s">
         <v>950</v>
@@ -5398,20 +5395,20 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B37" t="s">
-        <v>103</v>
+        <v>1079</v>
       </c>
       <c r="D37" t="s">
-        <v>104</v>
+        <v>1080</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>1081</v>
       </c>
       <c r="F37" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G37" t="s">
         <v>952</v>
@@ -5422,13 +5419,13 @@
         <v>951</v>
       </c>
       <c r="B38" t="s">
-        <v>106</v>
+        <v>88</v>
       </c>
       <c r="D38" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
       <c r="E38" t="s">
-        <v>108</v>
+        <v>90</v>
       </c>
       <c r="F38" t="s">
         <v>950</v>
@@ -5442,13 +5439,13 @@
         <v>951</v>
       </c>
       <c r="B39" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="D39" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="E39" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="F39" t="s">
         <v>950</v>
@@ -5462,13 +5459,13 @@
         <v>951</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>113</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="F40" t="s">
         <v>950</v>
@@ -5482,13 +5479,16 @@
         <v>951</v>
       </c>
       <c r="B41" t="s">
-        <v>115</v>
+        <v>953</v>
+      </c>
+      <c r="C41" t="s">
+        <v>954</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>955</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>956</v>
       </c>
       <c r="F41" t="s">
         <v>950</v>
@@ -5502,13 +5502,13 @@
         <v>951</v>
       </c>
       <c r="B42" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
       <c r="D42" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
       <c r="E42" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
       <c r="F42" t="s">
         <v>950</v>
@@ -5522,19 +5522,16 @@
         <v>951</v>
       </c>
       <c r="B43" t="s">
-        <v>1001</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1002</v>
+        <v>1082</v>
       </c>
       <c r="D43" t="s">
-        <v>999</v>
+        <v>1083</v>
       </c>
       <c r="E43" t="s">
-        <v>1000</v>
+        <v>1084</v>
       </c>
       <c r="F43" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G43" t="s">
         <v>952</v>
@@ -5545,13 +5542,13 @@
         <v>951</v>
       </c>
       <c r="B44" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="E44" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="F44" t="s">
         <v>950</v>
@@ -5565,13 +5562,13 @@
         <v>951</v>
       </c>
       <c r="B45" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="D45" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="E45" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="F45" t="s">
         <v>950</v>
@@ -5585,16 +5582,16 @@
         <v>951</v>
       </c>
       <c r="B46" t="s">
-        <v>127</v>
+        <v>1085</v>
       </c>
       <c r="D46" t="s">
-        <v>128</v>
+        <v>1086</v>
       </c>
       <c r="E46" t="s">
-        <v>129</v>
+        <v>1087</v>
       </c>
       <c r="F46" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G46" t="s">
         <v>952</v>
@@ -5605,13 +5602,13 @@
         <v>951</v>
       </c>
       <c r="B47" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="D47" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="E47" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="F47" t="s">
         <v>950</v>
@@ -5625,13 +5622,13 @@
         <v>951</v>
       </c>
       <c r="B48" t="s">
-        <v>133</v>
+        <v>109</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="F48" t="s">
         <v>950</v>
@@ -5645,13 +5642,13 @@
         <v>951</v>
       </c>
       <c r="B49" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="D49" t="s">
-        <v>137</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="F49" t="s">
         <v>950</v>
@@ -5665,13 +5662,13 @@
         <v>951</v>
       </c>
       <c r="B50" t="s">
-        <v>139</v>
+        <v>115</v>
       </c>
       <c r="D50" t="s">
-        <v>140</v>
+        <v>116</v>
       </c>
       <c r="E50" t="s">
-        <v>141</v>
+        <v>117</v>
       </c>
       <c r="F50" t="s">
         <v>950</v>
@@ -5685,13 +5682,13 @@
         <v>951</v>
       </c>
       <c r="B51" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="D51" t="s">
-        <v>143</v>
+        <v>119</v>
       </c>
       <c r="E51" t="s">
-        <v>144</v>
+        <v>120</v>
       </c>
       <c r="F51" t="s">
         <v>950</v>
@@ -5705,13 +5702,16 @@
         <v>951</v>
       </c>
       <c r="B52" t="s">
-        <v>145</v>
+        <v>1001</v>
+      </c>
+      <c r="C52" t="s">
+        <v>1002</v>
       </c>
       <c r="D52" t="s">
-        <v>146</v>
+        <v>999</v>
       </c>
       <c r="E52" t="s">
-        <v>147</v>
+        <v>1000</v>
       </c>
       <c r="F52" t="s">
         <v>950</v>
@@ -5725,13 +5725,13 @@
         <v>951</v>
       </c>
       <c r="B53" t="s">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="D53" t="s">
-        <v>149</v>
+        <v>122</v>
       </c>
       <c r="E53" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="F53" t="s">
         <v>950</v>
@@ -5745,13 +5745,13 @@
         <v>951</v>
       </c>
       <c r="B54" t="s">
-        <v>151</v>
+        <v>124</v>
       </c>
       <c r="D54" t="s">
-        <v>152</v>
+        <v>125</v>
       </c>
       <c r="E54" t="s">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="F54" t="s">
         <v>950</v>
@@ -5765,13 +5765,13 @@
         <v>951</v>
       </c>
       <c r="B55" t="s">
-        <v>154</v>
+        <v>127</v>
       </c>
       <c r="D55" t="s">
-        <v>155</v>
+        <v>128</v>
       </c>
       <c r="E55" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="F55" t="s">
         <v>950</v>
@@ -5781,20 +5781,20 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
+      <c r="A56" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B56" t="s">
-        <v>157</v>
+        <v>1088</v>
       </c>
       <c r="D56" t="s">
-        <v>158</v>
+        <v>1089</v>
       </c>
       <c r="E56" t="s">
-        <v>159</v>
+        <v>1090</v>
       </c>
       <c r="F56" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G56" t="s">
         <v>952</v>
@@ -5805,13 +5805,13 @@
         <v>951</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>130</v>
       </c>
       <c r="D57" t="s">
-        <v>161</v>
+        <v>131</v>
       </c>
       <c r="E57" t="s">
-        <v>162</v>
+        <v>132</v>
       </c>
       <c r="F57" t="s">
         <v>950</v>
@@ -5825,13 +5825,13 @@
         <v>951</v>
       </c>
       <c r="B58" t="s">
-        <v>163</v>
+        <v>133</v>
       </c>
       <c r="D58" t="s">
-        <v>164</v>
+        <v>134</v>
       </c>
       <c r="E58" t="s">
-        <v>165</v>
+        <v>135</v>
       </c>
       <c r="F58" t="s">
         <v>950</v>
@@ -5845,13 +5845,13 @@
         <v>951</v>
       </c>
       <c r="B59" t="s">
-        <v>166</v>
+        <v>136</v>
       </c>
       <c r="D59" t="s">
-        <v>167</v>
+        <v>137</v>
       </c>
       <c r="E59" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="F59" t="s">
         <v>950</v>
@@ -5865,13 +5865,13 @@
         <v>951</v>
       </c>
       <c r="B60" t="s">
-        <v>169</v>
+        <v>139</v>
       </c>
       <c r="D60" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E60" t="s">
-        <v>171</v>
+        <v>141</v>
       </c>
       <c r="F60" t="s">
         <v>950</v>
@@ -5885,13 +5885,13 @@
         <v>951</v>
       </c>
       <c r="B61" t="s">
-        <v>1036</v>
+        <v>142</v>
       </c>
       <c r="D61" t="s">
-        <v>1017</v>
+        <v>143</v>
       </c>
       <c r="E61" t="s">
-        <v>1052</v>
+        <v>144</v>
       </c>
       <c r="F61" t="s">
         <v>950</v>
@@ -5905,13 +5905,13 @@
         <v>951</v>
       </c>
       <c r="B62" t="s">
-        <v>172</v>
+        <v>145</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="E62" t="s">
-        <v>174</v>
+        <v>147</v>
       </c>
       <c r="F62" t="s">
         <v>950</v>
@@ -5925,13 +5925,13 @@
         <v>951</v>
       </c>
       <c r="B63" t="s">
-        <v>175</v>
+        <v>148</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>149</v>
       </c>
       <c r="E63" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="F63" t="s">
         <v>950</v>
@@ -5945,16 +5945,16 @@
         <v>951</v>
       </c>
       <c r="B64" t="s">
-        <v>178</v>
+        <v>1091</v>
       </c>
       <c r="D64" t="s">
-        <v>179</v>
+        <v>1092</v>
       </c>
       <c r="E64" t="s">
-        <v>180</v>
+        <v>1093</v>
       </c>
       <c r="F64" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G64" t="s">
         <v>952</v>
@@ -5965,13 +5965,13 @@
         <v>951</v>
       </c>
       <c r="B65" t="s">
-        <v>181</v>
+        <v>151</v>
       </c>
       <c r="D65" t="s">
-        <v>182</v>
+        <v>152</v>
       </c>
       <c r="E65" t="s">
-        <v>183</v>
+        <v>153</v>
       </c>
       <c r="F65" t="s">
         <v>950</v>
@@ -5985,13 +5985,13 @@
         <v>951</v>
       </c>
       <c r="B66" t="s">
-        <v>184</v>
+        <v>154</v>
       </c>
       <c r="D66" t="s">
-        <v>185</v>
+        <v>155</v>
       </c>
       <c r="E66" t="s">
-        <v>186</v>
+        <v>156</v>
       </c>
       <c r="F66" t="s">
         <v>950</v>
@@ -6005,13 +6005,13 @@
         <v>951</v>
       </c>
       <c r="B67" t="s">
-        <v>187</v>
+        <v>157</v>
       </c>
       <c r="D67" t="s">
-        <v>188</v>
+        <v>158</v>
       </c>
       <c r="E67" t="s">
-        <v>189</v>
+        <v>159</v>
       </c>
       <c r="F67" t="s">
         <v>950</v>
@@ -6025,13 +6025,13 @@
         <v>951</v>
       </c>
       <c r="B68" t="s">
-        <v>190</v>
+        <v>160</v>
       </c>
       <c r="D68" t="s">
-        <v>191</v>
+        <v>161</v>
       </c>
       <c r="E68" t="s">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="F68" t="s">
         <v>950</v>
@@ -6045,13 +6045,13 @@
         <v>951</v>
       </c>
       <c r="B69" t="s">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="E69" t="s">
-        <v>195</v>
+        <v>165</v>
       </c>
       <c r="F69" t="s">
         <v>950</v>
@@ -6065,13 +6065,13 @@
         <v>951</v>
       </c>
       <c r="B70" t="s">
-        <v>196</v>
+        <v>166</v>
       </c>
       <c r="D70" t="s">
-        <v>197</v>
+        <v>167</v>
       </c>
       <c r="E70" t="s">
-        <v>198</v>
+        <v>168</v>
       </c>
       <c r="F70" t="s">
         <v>950</v>
@@ -6085,13 +6085,13 @@
         <v>951</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>169</v>
       </c>
       <c r="D71" t="s">
-        <v>200</v>
+        <v>170</v>
       </c>
       <c r="E71" t="s">
-        <v>201</v>
+        <v>171</v>
       </c>
       <c r="F71" t="s">
         <v>950</v>
@@ -6105,19 +6105,19 @@
         <v>951</v>
       </c>
       <c r="B72" t="s">
-        <v>912</v>
+        <v>1094</v>
       </c>
       <c r="C72" t="s">
-        <v>913</v>
+        <v>1095</v>
       </c>
       <c r="D72" t="s">
-        <v>914</v>
+        <v>1096</v>
       </c>
       <c r="E72" t="s">
-        <v>915</v>
+        <v>1097</v>
       </c>
       <c r="F72" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G72" t="s">
         <v>952</v>
@@ -6128,13 +6128,13 @@
         <v>951</v>
       </c>
       <c r="B73" t="s">
-        <v>202</v>
+        <v>1036</v>
       </c>
       <c r="D73" t="s">
-        <v>203</v>
+        <v>1017</v>
       </c>
       <c r="E73" t="s">
-        <v>204</v>
+        <v>1052</v>
       </c>
       <c r="F73" t="s">
         <v>950</v>
@@ -6148,13 +6148,13 @@
         <v>951</v>
       </c>
       <c r="B74" t="s">
-        <v>205</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="E74" t="s">
-        <v>207</v>
+        <v>174</v>
       </c>
       <c r="F74" t="s">
         <v>950</v>
@@ -6168,13 +6168,13 @@
         <v>951</v>
       </c>
       <c r="B75" t="s">
-        <v>208</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
-        <v>209</v>
+        <v>176</v>
       </c>
       <c r="E75" t="s">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="F75" t="s">
         <v>950</v>
@@ -6188,16 +6188,19 @@
         <v>951</v>
       </c>
       <c r="B76" t="s">
-        <v>211</v>
+        <v>1098</v>
+      </c>
+      <c r="C76" t="s">
+        <v>1099</v>
       </c>
       <c r="D76" t="s">
-        <v>212</v>
+        <v>1100</v>
       </c>
       <c r="E76" t="s">
-        <v>213</v>
+        <v>1101</v>
       </c>
       <c r="F76" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G76" t="s">
         <v>952</v>
@@ -6208,16 +6211,13 @@
         <v>951</v>
       </c>
       <c r="B77" t="s">
-        <v>916</v>
-      </c>
-      <c r="C77" t="s">
-        <v>917</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
-        <v>918</v>
+        <v>179</v>
       </c>
       <c r="E77" t="s">
-        <v>919</v>
+        <v>180</v>
       </c>
       <c r="F77" t="s">
         <v>950</v>
@@ -6231,13 +6231,13 @@
         <v>951</v>
       </c>
       <c r="B78" t="s">
-        <v>214</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F78" t="s">
         <v>950</v>
@@ -6251,13 +6251,13 @@
         <v>951</v>
       </c>
       <c r="B79" t="s">
-        <v>217</v>
+        <v>184</v>
       </c>
       <c r="D79" t="s">
-        <v>218</v>
+        <v>185</v>
       </c>
       <c r="E79" t="s">
-        <v>219</v>
+        <v>186</v>
       </c>
       <c r="F79" t="s">
         <v>950</v>
@@ -6271,13 +6271,13 @@
         <v>951</v>
       </c>
       <c r="B80" t="s">
-        <v>220</v>
+        <v>187</v>
       </c>
       <c r="D80" t="s">
-        <v>221</v>
+        <v>188</v>
       </c>
       <c r="E80" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="F80" t="s">
         <v>950</v>
@@ -6291,16 +6291,16 @@
         <v>951</v>
       </c>
       <c r="B81" t="s">
-        <v>928</v>
+        <v>1102</v>
       </c>
       <c r="D81" t="s">
-        <v>1340</v>
+        <v>1103</v>
       </c>
       <c r="E81" t="s">
-        <v>929</v>
+        <v>1104</v>
       </c>
       <c r="F81" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G81" t="s">
         <v>952</v>
@@ -6311,13 +6311,13 @@
         <v>951</v>
       </c>
       <c r="B82" t="s">
-        <v>223</v>
+        <v>190</v>
       </c>
       <c r="D82" t="s">
-        <v>224</v>
+        <v>191</v>
       </c>
       <c r="E82" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="F82" t="s">
         <v>950</v>
@@ -6331,13 +6331,13 @@
         <v>951</v>
       </c>
       <c r="B83" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="D83" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="E83" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="F83" t="s">
         <v>950</v>
@@ -6347,20 +6347,20 @@
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" t="s">
+      <c r="A84" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B84" t="s">
-        <v>229</v>
+        <v>1105</v>
       </c>
       <c r="D84" t="s">
-        <v>230</v>
+        <v>1106</v>
       </c>
       <c r="E84" t="s">
-        <v>231</v>
+        <v>1107</v>
       </c>
       <c r="F84" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G84" t="s">
         <v>952</v>
@@ -6371,16 +6371,16 @@
         <v>951</v>
       </c>
       <c r="B85" t="s">
-        <v>232</v>
+        <v>1108</v>
       </c>
       <c r="D85" t="s">
-        <v>233</v>
+        <v>1109</v>
       </c>
       <c r="E85" t="s">
-        <v>234</v>
+        <v>1110</v>
       </c>
       <c r="F85" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G85" t="s">
         <v>952</v>
@@ -6391,13 +6391,13 @@
         <v>951</v>
       </c>
       <c r="B86" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="D86" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="E86" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
       <c r="F86" t="s">
         <v>950</v>
@@ -6411,36 +6411,39 @@
         <v>951</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>1111</v>
+      </c>
+      <c r="C87" t="s">
+        <v>1112</v>
       </c>
       <c r="D87" t="s">
-        <v>239</v>
+        <v>1113</v>
       </c>
       <c r="E87" t="s">
-        <v>240</v>
+        <v>1114</v>
       </c>
       <c r="F87" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G87" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" t="s">
+      <c r="A88" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B88" t="s">
-        <v>241</v>
+        <v>1115</v>
       </c>
       <c r="D88" t="s">
-        <v>242</v>
+        <v>1116</v>
       </c>
       <c r="E88" t="s">
-        <v>243</v>
+        <v>1117</v>
       </c>
       <c r="F88" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G88" t="s">
         <v>952</v>
@@ -6451,13 +6454,13 @@
         <v>951</v>
       </c>
       <c r="B89" t="s">
-        <v>244</v>
+        <v>199</v>
       </c>
       <c r="D89" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
       <c r="E89" t="s">
-        <v>246</v>
+        <v>201</v>
       </c>
       <c r="F89" t="s">
         <v>950</v>
@@ -6471,13 +6474,16 @@
         <v>951</v>
       </c>
       <c r="B90" t="s">
-        <v>247</v>
+        <v>912</v>
+      </c>
+      <c r="C90" t="s">
+        <v>913</v>
       </c>
       <c r="D90" t="s">
-        <v>248</v>
+        <v>914</v>
       </c>
       <c r="E90" t="s">
-        <v>249</v>
+        <v>915</v>
       </c>
       <c r="F90" t="s">
         <v>950</v>
@@ -6491,19 +6497,16 @@
         <v>951</v>
       </c>
       <c r="B91" t="s">
-        <v>1020</v>
-      </c>
-      <c r="C91" t="s">
-        <v>1056</v>
+        <v>1352</v>
       </c>
       <c r="D91" t="s">
-        <v>1003</v>
+        <v>1341</v>
       </c>
       <c r="E91" t="s">
-        <v>1039</v>
+        <v>1353</v>
       </c>
       <c r="F91" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G91" t="s">
         <v>952</v>
@@ -6514,13 +6517,13 @@
         <v>951</v>
       </c>
       <c r="B92" t="s">
-        <v>250</v>
+        <v>202</v>
       </c>
       <c r="D92" t="s">
-        <v>251</v>
+        <v>203</v>
       </c>
       <c r="E92" t="s">
-        <v>252</v>
+        <v>204</v>
       </c>
       <c r="F92" t="s">
         <v>950</v>
@@ -6534,19 +6537,19 @@
         <v>951</v>
       </c>
       <c r="B93" t="s">
-        <v>961</v>
+        <v>1118</v>
       </c>
       <c r="C93" t="s">
-        <v>962</v>
+        <v>1119</v>
       </c>
       <c r="D93" t="s">
-        <v>963</v>
+        <v>1120</v>
       </c>
       <c r="E93" t="s">
-        <v>964</v>
+        <v>1121</v>
       </c>
       <c r="F93" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G93" t="s">
         <v>952</v>
@@ -6557,13 +6560,13 @@
         <v>951</v>
       </c>
       <c r="B94" t="s">
-        <v>253</v>
+        <v>205</v>
       </c>
       <c r="D94" t="s">
-        <v>254</v>
+        <v>206</v>
       </c>
       <c r="E94" t="s">
-        <v>255</v>
+        <v>207</v>
       </c>
       <c r="F94" t="s">
         <v>950</v>
@@ -6577,13 +6580,13 @@
         <v>951</v>
       </c>
       <c r="B95" t="s">
-        <v>256</v>
+        <v>208</v>
       </c>
       <c r="D95" t="s">
-        <v>257</v>
+        <v>209</v>
       </c>
       <c r="E95" t="s">
-        <v>258</v>
+        <v>210</v>
       </c>
       <c r="F95" t="s">
         <v>950</v>
@@ -6597,16 +6600,13 @@
         <v>951</v>
       </c>
       <c r="B96" t="s">
-        <v>957</v>
-      </c>
-      <c r="C96" t="s">
-        <v>958</v>
+        <v>211</v>
       </c>
       <c r="D96" t="s">
-        <v>959</v>
+        <v>212</v>
       </c>
       <c r="E96" t="s">
-        <v>960</v>
+        <v>213</v>
       </c>
       <c r="F96" t="s">
         <v>950</v>
@@ -6620,13 +6620,16 @@
         <v>951</v>
       </c>
       <c r="B97" t="s">
-        <v>259</v>
+        <v>916</v>
+      </c>
+      <c r="C97" t="s">
+        <v>917</v>
       </c>
       <c r="D97" t="s">
-        <v>260</v>
+        <v>918</v>
       </c>
       <c r="E97" t="s">
-        <v>261</v>
+        <v>919</v>
       </c>
       <c r="F97" t="s">
         <v>950</v>
@@ -6640,13 +6643,13 @@
         <v>951</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>214</v>
       </c>
       <c r="D98" t="s">
-        <v>263</v>
+        <v>215</v>
       </c>
       <c r="E98" t="s">
-        <v>264</v>
+        <v>216</v>
       </c>
       <c r="F98" t="s">
         <v>950</v>
@@ -6660,13 +6663,13 @@
         <v>951</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>217</v>
       </c>
       <c r="D99" t="s">
-        <v>266</v>
+        <v>218</v>
       </c>
       <c r="E99" t="s">
-        <v>267</v>
+        <v>219</v>
       </c>
       <c r="F99" t="s">
         <v>950</v>
@@ -6680,13 +6683,13 @@
         <v>951</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>220</v>
       </c>
       <c r="D100" t="s">
-        <v>269</v>
+        <v>221</v>
       </c>
       <c r="E100" t="s">
-        <v>270</v>
+        <v>222</v>
       </c>
       <c r="F100" t="s">
         <v>950</v>
@@ -6700,13 +6703,13 @@
         <v>951</v>
       </c>
       <c r="B101" t="s">
-        <v>271</v>
+        <v>928</v>
       </c>
       <c r="D101" t="s">
-        <v>272</v>
+        <v>1340</v>
       </c>
       <c r="E101" t="s">
-        <v>273</v>
+        <v>929</v>
       </c>
       <c r="F101" t="s">
         <v>950</v>
@@ -6720,13 +6723,13 @@
         <v>951</v>
       </c>
       <c r="B102" t="s">
-        <v>274</v>
+        <v>223</v>
       </c>
       <c r="D102" t="s">
-        <v>275</v>
+        <v>224</v>
       </c>
       <c r="E102" t="s">
-        <v>276</v>
+        <v>225</v>
       </c>
       <c r="F102" t="s">
         <v>950</v>
@@ -6740,13 +6743,13 @@
         <v>951</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="D103" t="s">
-        <v>278</v>
+        <v>227</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>228</v>
       </c>
       <c r="F103" t="s">
         <v>950</v>
@@ -6760,16 +6763,16 @@
         <v>951</v>
       </c>
       <c r="B104" t="s">
-        <v>280</v>
+        <v>1122</v>
       </c>
       <c r="D104" t="s">
-        <v>281</v>
+        <v>1123</v>
       </c>
       <c r="E104" t="s">
-        <v>282</v>
+        <v>1124</v>
       </c>
       <c r="F104" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G104" t="s">
         <v>952</v>
@@ -6780,13 +6783,13 @@
         <v>951</v>
       </c>
       <c r="B105" t="s">
-        <v>283</v>
+        <v>229</v>
       </c>
       <c r="D105" t="s">
-        <v>284</v>
+        <v>230</v>
       </c>
       <c r="E105" t="s">
-        <v>285</v>
+        <v>231</v>
       </c>
       <c r="F105" t="s">
         <v>950</v>
@@ -6800,13 +6803,13 @@
         <v>951</v>
       </c>
       <c r="B106" t="s">
-        <v>286</v>
+        <v>232</v>
       </c>
       <c r="D106" t="s">
-        <v>287</v>
+        <v>233</v>
       </c>
       <c r="E106" t="s">
-        <v>288</v>
+        <v>234</v>
       </c>
       <c r="F106" t="s">
         <v>950</v>
@@ -6820,13 +6823,13 @@
         <v>951</v>
       </c>
       <c r="B107" t="s">
-        <v>289</v>
+        <v>235</v>
       </c>
       <c r="D107" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="E107" t="s">
-        <v>291</v>
+        <v>237</v>
       </c>
       <c r="F107" t="s">
         <v>950</v>
@@ -6840,13 +6843,13 @@
         <v>951</v>
       </c>
       <c r="B108" t="s">
-        <v>292</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
-        <v>293</v>
+        <v>239</v>
       </c>
       <c r="E108" t="s">
-        <v>294</v>
+        <v>240</v>
       </c>
       <c r="F108" t="s">
         <v>950</v>
@@ -6860,13 +6863,13 @@
         <v>951</v>
       </c>
       <c r="B109" t="s">
-        <v>295</v>
+        <v>241</v>
       </c>
       <c r="D109" t="s">
-        <v>296</v>
+        <v>242</v>
       </c>
       <c r="E109" t="s">
-        <v>297</v>
+        <v>243</v>
       </c>
       <c r="F109" t="s">
         <v>950</v>
@@ -6880,13 +6883,13 @@
         <v>951</v>
       </c>
       <c r="B110" t="s">
-        <v>298</v>
+        <v>244</v>
       </c>
       <c r="D110" t="s">
-        <v>299</v>
+        <v>245</v>
       </c>
       <c r="E110" t="s">
-        <v>300</v>
+        <v>246</v>
       </c>
       <c r="F110" t="s">
         <v>950</v>
@@ -6900,16 +6903,16 @@
         <v>951</v>
       </c>
       <c r="B111" t="s">
-        <v>301</v>
+        <v>1125</v>
       </c>
       <c r="D111" t="s">
-        <v>302</v>
+        <v>1126</v>
       </c>
       <c r="E111" t="s">
-        <v>303</v>
+        <v>1127</v>
       </c>
       <c r="F111" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G111" t="s">
         <v>952</v>
@@ -6920,16 +6923,16 @@
         <v>951</v>
       </c>
       <c r="B112" t="s">
-        <v>969</v>
+        <v>1128</v>
       </c>
       <c r="D112" t="s">
-        <v>970</v>
+        <v>1129</v>
       </c>
       <c r="E112" t="s">
-        <v>971</v>
+        <v>1130</v>
       </c>
       <c r="F112" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G112" t="s">
         <v>952</v>
@@ -6940,13 +6943,13 @@
         <v>951</v>
       </c>
       <c r="B113" t="s">
-        <v>304</v>
+        <v>247</v>
       </c>
       <c r="D113" t="s">
-        <v>305</v>
+        <v>248</v>
       </c>
       <c r="E113" t="s">
-        <v>306</v>
+        <v>249</v>
       </c>
       <c r="F113" t="s">
         <v>950</v>
@@ -6960,16 +6963,16 @@
         <v>951</v>
       </c>
       <c r="B114" t="s">
-        <v>307</v>
+        <v>1354</v>
       </c>
       <c r="D114" t="s">
-        <v>308</v>
+        <v>1339</v>
       </c>
       <c r="E114" t="s">
-        <v>309</v>
+        <v>1355</v>
       </c>
       <c r="F114" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G114" t="s">
         <v>952</v>
@@ -6980,13 +6983,16 @@
         <v>951</v>
       </c>
       <c r="B115" t="s">
-        <v>310</v>
+        <v>1020</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1056</v>
       </c>
       <c r="D115" t="s">
-        <v>311</v>
+        <v>1003</v>
       </c>
       <c r="E115" t="s">
-        <v>312</v>
+        <v>1039</v>
       </c>
       <c r="F115" t="s">
         <v>950</v>
@@ -7000,13 +7006,13 @@
         <v>951</v>
       </c>
       <c r="B116" t="s">
-        <v>313</v>
+        <v>250</v>
       </c>
       <c r="D116" t="s">
-        <v>314</v>
+        <v>251</v>
       </c>
       <c r="E116" t="s">
-        <v>315</v>
+        <v>252</v>
       </c>
       <c r="F116" t="s">
         <v>950</v>
@@ -7020,13 +7026,16 @@
         <v>951</v>
       </c>
       <c r="B117" t="s">
-        <v>316</v>
+        <v>961</v>
+      </c>
+      <c r="C117" t="s">
+        <v>962</v>
       </c>
       <c r="D117" t="s">
-        <v>317</v>
+        <v>963</v>
       </c>
       <c r="E117" t="s">
-        <v>318</v>
+        <v>964</v>
       </c>
       <c r="F117" t="s">
         <v>950</v>
@@ -7040,13 +7049,13 @@
         <v>951</v>
       </c>
       <c r="B118" t="s">
-        <v>319</v>
+        <v>253</v>
       </c>
       <c r="D118" t="s">
-        <v>320</v>
+        <v>254</v>
       </c>
       <c r="E118" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="F118" t="s">
         <v>950</v>
@@ -7060,13 +7069,13 @@
         <v>951</v>
       </c>
       <c r="B119" t="s">
-        <v>321</v>
+        <v>256</v>
       </c>
       <c r="D119" t="s">
-        <v>322</v>
+        <v>257</v>
       </c>
       <c r="E119" t="s">
-        <v>323</v>
+        <v>258</v>
       </c>
       <c r="F119" t="s">
         <v>950</v>
@@ -7080,13 +7089,16 @@
         <v>951</v>
       </c>
       <c r="B120" t="s">
-        <v>324</v>
+        <v>957</v>
+      </c>
+      <c r="C120" t="s">
+        <v>958</v>
       </c>
       <c r="D120" t="s">
-        <v>325</v>
+        <v>959</v>
       </c>
       <c r="E120" t="s">
-        <v>326</v>
+        <v>960</v>
       </c>
       <c r="F120" t="s">
         <v>950</v>
@@ -7100,16 +7112,16 @@
         <v>951</v>
       </c>
       <c r="B121" t="s">
-        <v>327</v>
+        <v>1356</v>
       </c>
       <c r="D121" t="s">
-        <v>328</v>
+        <v>1322</v>
       </c>
       <c r="E121" t="s">
-        <v>329</v>
+        <v>1357</v>
       </c>
       <c r="F121" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G121" t="s">
         <v>952</v>
@@ -7120,13 +7132,13 @@
         <v>951</v>
       </c>
       <c r="B122" t="s">
-        <v>330</v>
+        <v>259</v>
       </c>
       <c r="D122" t="s">
-        <v>331</v>
+        <v>260</v>
       </c>
       <c r="E122" t="s">
-        <v>332</v>
+        <v>261</v>
       </c>
       <c r="F122" t="s">
         <v>950</v>
@@ -7140,13 +7152,13 @@
         <v>951</v>
       </c>
       <c r="B123" t="s">
-        <v>333</v>
+        <v>262</v>
       </c>
       <c r="D123" t="s">
-        <v>334</v>
+        <v>263</v>
       </c>
       <c r="E123" t="s">
-        <v>335</v>
+        <v>264</v>
       </c>
       <c r="F123" t="s">
         <v>950</v>
@@ -7160,13 +7172,13 @@
         <v>951</v>
       </c>
       <c r="B124" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="D124" t="s">
-        <v>337</v>
+        <v>266</v>
       </c>
       <c r="E124" t="s">
-        <v>338</v>
+        <v>267</v>
       </c>
       <c r="F124" t="s">
         <v>950</v>
@@ -7180,16 +7192,16 @@
         <v>951</v>
       </c>
       <c r="B125" t="s">
-        <v>339</v>
+        <v>1131</v>
       </c>
       <c r="D125" t="s">
-        <v>340</v>
+        <v>1132</v>
       </c>
       <c r="E125" t="s">
-        <v>341</v>
+        <v>1133</v>
       </c>
       <c r="F125" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G125" t="s">
         <v>952</v>
@@ -7200,16 +7212,16 @@
         <v>951</v>
       </c>
       <c r="B126" t="s">
-        <v>342</v>
+        <v>1134</v>
       </c>
       <c r="D126" t="s">
-        <v>343</v>
+        <v>1135</v>
       </c>
       <c r="E126" t="s">
-        <v>344</v>
+        <v>1136</v>
       </c>
       <c r="F126" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G126" t="s">
         <v>952</v>
@@ -7220,13 +7232,13 @@
         <v>951</v>
       </c>
       <c r="B127" t="s">
-        <v>345</v>
+        <v>268</v>
       </c>
       <c r="D127" t="s">
-        <v>346</v>
+        <v>269</v>
       </c>
       <c r="E127" t="s">
-        <v>347</v>
+        <v>270</v>
       </c>
       <c r="F127" t="s">
         <v>950</v>
@@ -7240,16 +7252,16 @@
         <v>951</v>
       </c>
       <c r="B128" t="s">
-        <v>348</v>
+        <v>1358</v>
       </c>
       <c r="D128" t="s">
-        <v>349</v>
+        <v>1323</v>
       </c>
       <c r="E128" t="s">
-        <v>350</v>
+        <v>1359</v>
       </c>
       <c r="F128" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G128" t="s">
         <v>952</v>
@@ -7260,16 +7272,13 @@
         <v>951</v>
       </c>
       <c r="B129" t="s">
-        <v>938</v>
-      </c>
-      <c r="C129" t="s">
-        <v>939</v>
+        <v>271</v>
       </c>
       <c r="D129" t="s">
-        <v>940</v>
+        <v>272</v>
       </c>
       <c r="E129" t="s">
-        <v>941</v>
+        <v>273</v>
       </c>
       <c r="F129" t="s">
         <v>950</v>
@@ -7283,16 +7292,13 @@
         <v>951</v>
       </c>
       <c r="B130" t="s">
-        <v>351</v>
-      </c>
-      <c r="C130" t="s">
-        <v>352</v>
+        <v>274</v>
       </c>
       <c r="D130" t="s">
-        <v>353</v>
+        <v>275</v>
       </c>
       <c r="E130" t="s">
-        <v>354</v>
+        <v>276</v>
       </c>
       <c r="F130" t="s">
         <v>950</v>
@@ -7306,13 +7312,13 @@
         <v>951</v>
       </c>
       <c r="B131" t="s">
-        <v>355</v>
+        <v>277</v>
       </c>
       <c r="D131" t="s">
-        <v>356</v>
+        <v>278</v>
       </c>
       <c r="E131" t="s">
-        <v>357</v>
+        <v>279</v>
       </c>
       <c r="F131" t="s">
         <v>950</v>
@@ -7326,13 +7332,13 @@
         <v>951</v>
       </c>
       <c r="B132" t="s">
-        <v>358</v>
+        <v>280</v>
       </c>
       <c r="D132" t="s">
-        <v>359</v>
+        <v>281</v>
       </c>
       <c r="E132" t="s">
-        <v>360</v>
+        <v>282</v>
       </c>
       <c r="F132" t="s">
         <v>950</v>
@@ -7346,16 +7352,19 @@
         <v>951</v>
       </c>
       <c r="B133" t="s">
-        <v>361</v>
+        <v>1137</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1138</v>
       </c>
       <c r="D133" t="s">
-        <v>362</v>
+        <v>1139</v>
       </c>
       <c r="E133" t="s">
-        <v>363</v>
+        <v>1140</v>
       </c>
       <c r="F133" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G133" t="s">
         <v>952</v>
@@ -7366,13 +7375,13 @@
         <v>951</v>
       </c>
       <c r="B134" t="s">
-        <v>364</v>
+        <v>283</v>
       </c>
       <c r="D134" t="s">
-        <v>365</v>
+        <v>284</v>
       </c>
       <c r="E134" t="s">
-        <v>366</v>
+        <v>285</v>
       </c>
       <c r="F134" t="s">
         <v>950</v>
@@ -7386,13 +7395,13 @@
         <v>951</v>
       </c>
       <c r="B135" t="s">
-        <v>367</v>
+        <v>286</v>
       </c>
       <c r="D135" t="s">
-        <v>368</v>
+        <v>287</v>
       </c>
       <c r="E135" t="s">
-        <v>369</v>
+        <v>288</v>
       </c>
       <c r="F135" t="s">
         <v>950</v>
@@ -7406,13 +7415,13 @@
         <v>951</v>
       </c>
       <c r="B136" t="s">
-        <v>370</v>
+        <v>289</v>
       </c>
       <c r="D136" t="s">
-        <v>371</v>
+        <v>290</v>
       </c>
       <c r="E136" t="s">
-        <v>372</v>
+        <v>291</v>
       </c>
       <c r="F136" t="s">
         <v>950</v>
@@ -7426,13 +7435,13 @@
         <v>951</v>
       </c>
       <c r="B137" t="s">
-        <v>373</v>
+        <v>292</v>
       </c>
       <c r="D137" t="s">
-        <v>374</v>
+        <v>293</v>
       </c>
       <c r="E137" t="s">
-        <v>375</v>
+        <v>294</v>
       </c>
       <c r="F137" t="s">
         <v>950</v>
@@ -7446,13 +7455,13 @@
         <v>951</v>
       </c>
       <c r="B138" t="s">
-        <v>376</v>
+        <v>295</v>
       </c>
       <c r="D138" t="s">
-        <v>377</v>
+        <v>296</v>
       </c>
       <c r="E138" t="s">
-        <v>378</v>
+        <v>297</v>
       </c>
       <c r="F138" t="s">
         <v>950</v>
@@ -7466,13 +7475,13 @@
         <v>951</v>
       </c>
       <c r="B139" t="s">
-        <v>379</v>
+        <v>298</v>
       </c>
       <c r="D139" t="s">
-        <v>380</v>
+        <v>299</v>
       </c>
       <c r="E139" t="s">
-        <v>381</v>
+        <v>300</v>
       </c>
       <c r="F139" t="s">
         <v>950</v>
@@ -7486,13 +7495,13 @@
         <v>951</v>
       </c>
       <c r="B140" t="s">
-        <v>382</v>
+        <v>301</v>
       </c>
       <c r="D140" t="s">
-        <v>383</v>
+        <v>302</v>
       </c>
       <c r="E140" t="s">
-        <v>384</v>
+        <v>303</v>
       </c>
       <c r="F140" t="s">
         <v>950</v>
@@ -7506,36 +7515,36 @@
         <v>951</v>
       </c>
       <c r="B141" t="s">
-        <v>385</v>
+        <v>1360</v>
       </c>
       <c r="D141" t="s">
-        <v>386</v>
+        <v>1324</v>
       </c>
       <c r="E141" t="s">
-        <v>387</v>
+        <v>1361</v>
       </c>
       <c r="F141" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G141" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" t="s">
+      <c r="A142" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B142" t="s">
-        <v>388</v>
+        <v>1141</v>
       </c>
       <c r="D142" t="s">
-        <v>389</v>
+        <v>1142</v>
       </c>
       <c r="E142" t="s">
-        <v>390</v>
+        <v>1143</v>
       </c>
       <c r="F142" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G142" t="s">
         <v>952</v>
@@ -7546,16 +7555,16 @@
         <v>951</v>
       </c>
       <c r="B143" t="s">
-        <v>391</v>
+        <v>1144</v>
       </c>
       <c r="D143" t="s">
-        <v>392</v>
+        <v>1145</v>
       </c>
       <c r="E143" t="s">
-        <v>393</v>
+        <v>1146</v>
       </c>
       <c r="F143" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G143" t="s">
         <v>952</v>
@@ -7566,13 +7575,13 @@
         <v>951</v>
       </c>
       <c r="B144" t="s">
-        <v>394</v>
+        <v>969</v>
       </c>
       <c r="D144" t="s">
-        <v>395</v>
+        <v>970</v>
       </c>
       <c r="E144" t="s">
-        <v>396</v>
+        <v>971</v>
       </c>
       <c r="F144" t="s">
         <v>950</v>
@@ -7586,16 +7595,16 @@
         <v>951</v>
       </c>
       <c r="B145" t="s">
-        <v>397</v>
+        <v>1147</v>
       </c>
       <c r="D145" t="s">
-        <v>398</v>
+        <v>1148</v>
       </c>
       <c r="E145" t="s">
-        <v>399</v>
+        <v>1149</v>
       </c>
       <c r="F145" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G145" t="s">
         <v>952</v>
@@ -7606,13 +7615,13 @@
         <v>951</v>
       </c>
       <c r="B146" t="s">
-        <v>400</v>
+        <v>304</v>
       </c>
       <c r="D146" t="s">
-        <v>401</v>
+        <v>305</v>
       </c>
       <c r="E146" t="s">
-        <v>402</v>
+        <v>306</v>
       </c>
       <c r="F146" t="s">
         <v>950</v>
@@ -7626,13 +7635,13 @@
         <v>951</v>
       </c>
       <c r="B147" t="s">
-        <v>403</v>
+        <v>307</v>
       </c>
       <c r="D147" t="s">
-        <v>404</v>
+        <v>308</v>
       </c>
       <c r="E147" t="s">
-        <v>405</v>
+        <v>309</v>
       </c>
       <c r="F147" t="s">
         <v>950</v>
@@ -7646,13 +7655,13 @@
         <v>951</v>
       </c>
       <c r="B148" t="s">
-        <v>406</v>
+        <v>310</v>
       </c>
       <c r="D148" t="s">
-        <v>407</v>
+        <v>311</v>
       </c>
       <c r="E148" t="s">
-        <v>408</v>
+        <v>312</v>
       </c>
       <c r="F148" t="s">
         <v>950</v>
@@ -7666,16 +7675,16 @@
         <v>951</v>
       </c>
       <c r="B149" t="s">
-        <v>409</v>
+        <v>1150</v>
       </c>
       <c r="D149" t="s">
-        <v>410</v>
+        <v>1151</v>
       </c>
       <c r="E149" t="s">
-        <v>411</v>
+        <v>1152</v>
       </c>
       <c r="F149" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G149" t="s">
         <v>952</v>
@@ -7686,16 +7695,16 @@
         <v>951</v>
       </c>
       <c r="B150" t="s">
-        <v>412</v>
+        <v>1362</v>
       </c>
       <c r="D150" t="s">
-        <v>413</v>
+        <v>1327</v>
       </c>
       <c r="E150" t="s">
-        <v>414</v>
+        <v>1363</v>
       </c>
       <c r="F150" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G150" t="s">
         <v>952</v>
@@ -7706,16 +7715,13 @@
         <v>951</v>
       </c>
       <c r="B151" t="s">
-        <v>984</v>
-      </c>
-      <c r="C151" t="s">
-        <v>985</v>
+        <v>313</v>
       </c>
       <c r="D151" t="s">
-        <v>986</v>
+        <v>314</v>
       </c>
       <c r="E151" t="s">
-        <v>987</v>
+        <v>315</v>
       </c>
       <c r="F151" t="s">
         <v>950</v>
@@ -7729,13 +7735,13 @@
         <v>951</v>
       </c>
       <c r="B152" t="s">
-        <v>415</v>
+        <v>316</v>
       </c>
       <c r="D152" t="s">
-        <v>416</v>
+        <v>317</v>
       </c>
       <c r="E152" t="s">
-        <v>417</v>
+        <v>318</v>
       </c>
       <c r="F152" t="s">
         <v>950</v>
@@ -7749,13 +7755,13 @@
         <v>951</v>
       </c>
       <c r="B153" t="s">
-        <v>418</v>
+        <v>319</v>
       </c>
       <c r="D153" t="s">
-        <v>419</v>
+        <v>320</v>
       </c>
       <c r="E153" t="s">
-        <v>420</v>
+        <v>225</v>
       </c>
       <c r="F153" t="s">
         <v>950</v>
@@ -7769,13 +7775,13 @@
         <v>951</v>
       </c>
       <c r="B154" t="s">
-        <v>421</v>
+        <v>321</v>
       </c>
       <c r="D154" t="s">
-        <v>422</v>
+        <v>322</v>
       </c>
       <c r="E154" t="s">
-        <v>423</v>
+        <v>323</v>
       </c>
       <c r="F154" t="s">
         <v>950</v>
@@ -7789,13 +7795,13 @@
         <v>951</v>
       </c>
       <c r="B155" t="s">
-        <v>424</v>
+        <v>324</v>
       </c>
       <c r="D155" t="s">
-        <v>425</v>
+        <v>325</v>
       </c>
       <c r="E155" t="s">
-        <v>426</v>
+        <v>326</v>
       </c>
       <c r="F155" t="s">
         <v>950</v>
@@ -7809,13 +7815,13 @@
         <v>951</v>
       </c>
       <c r="B156" t="s">
-        <v>427</v>
+        <v>327</v>
       </c>
       <c r="D156" t="s">
-        <v>428</v>
+        <v>328</v>
       </c>
       <c r="E156" t="s">
-        <v>429</v>
+        <v>329</v>
       </c>
       <c r="F156" t="s">
         <v>950</v>
@@ -7829,13 +7835,13 @@
         <v>951</v>
       </c>
       <c r="B157" t="s">
-        <v>430</v>
+        <v>330</v>
       </c>
       <c r="D157" t="s">
-        <v>431</v>
+        <v>331</v>
       </c>
       <c r="E157" t="s">
-        <v>432</v>
+        <v>332</v>
       </c>
       <c r="F157" t="s">
         <v>950</v>
@@ -7849,16 +7855,16 @@
         <v>951</v>
       </c>
       <c r="B158" t="s">
-        <v>433</v>
+        <v>1364</v>
       </c>
       <c r="D158" t="s">
-        <v>434</v>
+        <v>1342</v>
       </c>
       <c r="E158" t="s">
-        <v>435</v>
+        <v>1365</v>
       </c>
       <c r="F158" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G158" t="s">
         <v>952</v>
@@ -7869,13 +7875,13 @@
         <v>951</v>
       </c>
       <c r="B159" t="s">
-        <v>436</v>
+        <v>333</v>
       </c>
       <c r="D159" t="s">
-        <v>437</v>
+        <v>334</v>
       </c>
       <c r="E159" t="s">
-        <v>438</v>
+        <v>335</v>
       </c>
       <c r="F159" t="s">
         <v>950</v>
@@ -7889,13 +7895,13 @@
         <v>951</v>
       </c>
       <c r="B160" t="s">
-        <v>439</v>
+        <v>336</v>
       </c>
       <c r="D160" t="s">
-        <v>440</v>
+        <v>337</v>
       </c>
       <c r="E160" t="s">
-        <v>441</v>
+        <v>338</v>
       </c>
       <c r="F160" t="s">
         <v>950</v>
@@ -7909,16 +7915,13 @@
         <v>951</v>
       </c>
       <c r="B161" t="s">
-        <v>1021</v>
-      </c>
-      <c r="C161" t="s">
-        <v>1057</v>
+        <v>339</v>
       </c>
       <c r="D161" t="s">
-        <v>1004</v>
+        <v>340</v>
       </c>
       <c r="E161" t="s">
-        <v>1040</v>
+        <v>341</v>
       </c>
       <c r="F161" t="s">
         <v>950</v>
@@ -7932,16 +7935,16 @@
         <v>951</v>
       </c>
       <c r="B162" t="s">
-        <v>442</v>
+        <v>1153</v>
       </c>
       <c r="D162" t="s">
-        <v>443</v>
+        <v>1154</v>
       </c>
       <c r="E162" t="s">
-        <v>444</v>
+        <v>1155</v>
       </c>
       <c r="F162" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G162" t="s">
         <v>952</v>
@@ -7952,13 +7955,13 @@
         <v>951</v>
       </c>
       <c r="B163" t="s">
-        <v>445</v>
+        <v>342</v>
       </c>
       <c r="D163" t="s">
-        <v>446</v>
+        <v>343</v>
       </c>
       <c r="E163" t="s">
-        <v>447</v>
+        <v>344</v>
       </c>
       <c r="F163" t="s">
         <v>950</v>
@@ -7972,16 +7975,13 @@
         <v>951</v>
       </c>
       <c r="B164" t="s">
-        <v>965</v>
-      </c>
-      <c r="C164" t="s">
-        <v>966</v>
+        <v>345</v>
       </c>
       <c r="D164" t="s">
-        <v>967</v>
+        <v>346</v>
       </c>
       <c r="E164" t="s">
-        <v>968</v>
+        <v>347</v>
       </c>
       <c r="F164" t="s">
         <v>950</v>
@@ -7995,13 +7995,13 @@
         <v>951</v>
       </c>
       <c r="B165" t="s">
-        <v>450</v>
+        <v>348</v>
       </c>
       <c r="D165" t="s">
-        <v>451</v>
+        <v>349</v>
       </c>
       <c r="E165" t="s">
-        <v>452</v>
+        <v>350</v>
       </c>
       <c r="F165" t="s">
         <v>950</v>
@@ -8015,13 +8015,16 @@
         <v>951</v>
       </c>
       <c r="B166" t="s">
-        <v>453</v>
+        <v>938</v>
+      </c>
+      <c r="C166" t="s">
+        <v>939</v>
       </c>
       <c r="D166" t="s">
-        <v>454</v>
+        <v>940</v>
       </c>
       <c r="E166" t="s">
-        <v>455</v>
+        <v>941</v>
       </c>
       <c r="F166" t="s">
         <v>950</v>
@@ -8035,16 +8038,16 @@
         <v>951</v>
       </c>
       <c r="B167" t="s">
-        <v>1023</v>
+        <v>1366</v>
       </c>
       <c r="D167" t="s">
-        <v>1329</v>
+        <v>1343</v>
       </c>
       <c r="E167" t="s">
-        <v>1394</v>
+        <v>1367</v>
       </c>
       <c r="F167" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G167" t="s">
         <v>952</v>
@@ -8055,13 +8058,16 @@
         <v>951</v>
       </c>
       <c r="B168" t="s">
-        <v>456</v>
+        <v>351</v>
+      </c>
+      <c r="C168" t="s">
+        <v>352</v>
       </c>
       <c r="D168" t="s">
-        <v>457</v>
+        <v>353</v>
       </c>
       <c r="E168" t="s">
-        <v>458</v>
+        <v>354</v>
       </c>
       <c r="F168" t="s">
         <v>950</v>
@@ -8075,13 +8081,13 @@
         <v>951</v>
       </c>
       <c r="B169" t="s">
-        <v>459</v>
+        <v>355</v>
       </c>
       <c r="D169" t="s">
-        <v>460</v>
+        <v>356</v>
       </c>
       <c r="E169" t="s">
-        <v>461</v>
+        <v>357</v>
       </c>
       <c r="F169" t="s">
         <v>950</v>
@@ -8095,13 +8101,13 @@
         <v>951</v>
       </c>
       <c r="B170" t="s">
-        <v>462</v>
+        <v>358</v>
       </c>
       <c r="D170" t="s">
-        <v>463</v>
+        <v>359</v>
       </c>
       <c r="E170" t="s">
-        <v>464</v>
+        <v>360</v>
       </c>
       <c r="F170" t="s">
         <v>950</v>
@@ -8115,13 +8121,13 @@
         <v>951</v>
       </c>
       <c r="B171" t="s">
-        <v>465</v>
+        <v>361</v>
       </c>
       <c r="D171" t="s">
-        <v>466</v>
+        <v>362</v>
       </c>
       <c r="E171" t="s">
-        <v>467</v>
+        <v>363</v>
       </c>
       <c r="F171" t="s">
         <v>950</v>
@@ -8131,23 +8137,20 @@
       </c>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" t="s">
+      <c r="A172" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B172" t="s">
-        <v>991</v>
-      </c>
-      <c r="C172" t="s">
-        <v>992</v>
+        <v>1156</v>
       </c>
       <c r="D172" t="s">
-        <v>993</v>
+        <v>1157</v>
       </c>
       <c r="E172" t="s">
-        <v>994</v>
+        <v>1158</v>
       </c>
       <c r="F172" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G172" t="s">
         <v>952</v>
@@ -8158,16 +8161,16 @@
         <v>951</v>
       </c>
       <c r="B173" t="s">
-        <v>468</v>
+        <v>1159</v>
       </c>
       <c r="D173" t="s">
-        <v>469</v>
+        <v>1160</v>
       </c>
       <c r="E173" t="s">
-        <v>470</v>
+        <v>1161</v>
       </c>
       <c r="F173" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G173" t="s">
         <v>952</v>
@@ -8178,13 +8181,13 @@
         <v>951</v>
       </c>
       <c r="B174" t="s">
-        <v>471</v>
+        <v>364</v>
       </c>
       <c r="D174" t="s">
-        <v>472</v>
+        <v>365</v>
       </c>
       <c r="E174" t="s">
-        <v>473</v>
+        <v>366</v>
       </c>
       <c r="F174" t="s">
         <v>950</v>
@@ -8198,13 +8201,13 @@
         <v>951</v>
       </c>
       <c r="B175" t="s">
-        <v>474</v>
+        <v>367</v>
       </c>
       <c r="D175" t="s">
-        <v>475</v>
+        <v>368</v>
       </c>
       <c r="E175" t="s">
-        <v>476</v>
+        <v>369</v>
       </c>
       <c r="F175" t="s">
         <v>950</v>
@@ -8218,13 +8221,13 @@
         <v>951</v>
       </c>
       <c r="B176" t="s">
-        <v>477</v>
+        <v>370</v>
       </c>
       <c r="D176" t="s">
-        <v>478</v>
+        <v>371</v>
       </c>
       <c r="E176" t="s">
-        <v>479</v>
+        <v>372</v>
       </c>
       <c r="F176" t="s">
         <v>950</v>
@@ -8238,13 +8241,13 @@
         <v>951</v>
       </c>
       <c r="B177" t="s">
-        <v>480</v>
+        <v>373</v>
       </c>
       <c r="D177" t="s">
-        <v>481</v>
+        <v>374</v>
       </c>
       <c r="E177" t="s">
-        <v>482</v>
+        <v>375</v>
       </c>
       <c r="F177" t="s">
         <v>950</v>
@@ -8258,16 +8261,16 @@
         <v>951</v>
       </c>
       <c r="B178" t="s">
-        <v>483</v>
+        <v>1162</v>
       </c>
       <c r="D178" t="s">
-        <v>484</v>
+        <v>1163</v>
       </c>
       <c r="E178" t="s">
-        <v>485</v>
+        <v>1164</v>
       </c>
       <c r="F178" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G178" t="s">
         <v>952</v>
@@ -8278,13 +8281,13 @@
         <v>951</v>
       </c>
       <c r="B179" t="s">
-        <v>486</v>
+        <v>376</v>
       </c>
       <c r="D179" t="s">
-        <v>487</v>
+        <v>377</v>
       </c>
       <c r="E179" t="s">
-        <v>488</v>
+        <v>378</v>
       </c>
       <c r="F179" t="s">
         <v>950</v>
@@ -8298,13 +8301,13 @@
         <v>951</v>
       </c>
       <c r="B180" t="s">
-        <v>489</v>
+        <v>379</v>
       </c>
       <c r="D180" t="s">
-        <v>490</v>
+        <v>380</v>
       </c>
       <c r="E180" t="s">
-        <v>491</v>
+        <v>381</v>
       </c>
       <c r="F180" t="s">
         <v>950</v>
@@ -8318,13 +8321,13 @@
         <v>951</v>
       </c>
       <c r="B181" t="s">
-        <v>492</v>
+        <v>382</v>
       </c>
       <c r="D181" t="s">
-        <v>493</v>
+        <v>383</v>
       </c>
       <c r="E181" t="s">
-        <v>494</v>
+        <v>384</v>
       </c>
       <c r="F181" t="s">
         <v>950</v>
@@ -8334,20 +8337,20 @@
       </c>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" t="s">
+      <c r="A182" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B182" t="s">
-        <v>495</v>
+        <v>1165</v>
       </c>
       <c r="D182" t="s">
-        <v>496</v>
+        <v>1166</v>
       </c>
       <c r="E182" t="s">
-        <v>497</v>
+        <v>1167</v>
       </c>
       <c r="F182" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G182" t="s">
         <v>952</v>
@@ -8358,13 +8361,13 @@
         <v>951</v>
       </c>
       <c r="B183" t="s">
-        <v>498</v>
+        <v>385</v>
       </c>
       <c r="D183" t="s">
-        <v>499</v>
+        <v>386</v>
       </c>
       <c r="E183" t="s">
-        <v>500</v>
+        <v>387</v>
       </c>
       <c r="F183" t="s">
         <v>950</v>
@@ -8378,16 +8381,19 @@
         <v>951</v>
       </c>
       <c r="B184" t="s">
-        <v>1022</v>
+        <v>1168</v>
+      </c>
+      <c r="C184" t="s">
+        <v>1169</v>
       </c>
       <c r="D184" t="s">
-        <v>1005</v>
+        <v>1170</v>
       </c>
       <c r="E184" t="s">
-        <v>1041</v>
+        <v>1171</v>
       </c>
       <c r="F184" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G184" t="s">
         <v>952</v>
@@ -8398,13 +8404,13 @@
         <v>951</v>
       </c>
       <c r="B185" t="s">
-        <v>501</v>
+        <v>388</v>
       </c>
       <c r="D185" t="s">
-        <v>502</v>
+        <v>389</v>
       </c>
       <c r="E185" t="s">
-        <v>503</v>
+        <v>390</v>
       </c>
       <c r="F185" t="s">
         <v>950</v>
@@ -8418,13 +8424,13 @@
         <v>951</v>
       </c>
       <c r="B186" t="s">
-        <v>504</v>
+        <v>391</v>
       </c>
       <c r="D186" t="s">
-        <v>505</v>
+        <v>392</v>
       </c>
       <c r="E186" t="s">
-        <v>506</v>
+        <v>393</v>
       </c>
       <c r="F186" t="s">
         <v>950</v>
@@ -8438,16 +8444,19 @@
         <v>951</v>
       </c>
       <c r="B187" t="s">
-        <v>507</v>
+        <v>1172</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1173</v>
       </c>
       <c r="D187" t="s">
-        <v>508</v>
+        <v>1174</v>
       </c>
       <c r="E187" t="s">
-        <v>509</v>
+        <v>1175</v>
       </c>
       <c r="F187" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G187" t="s">
         <v>952</v>
@@ -8458,13 +8467,13 @@
         <v>951</v>
       </c>
       <c r="B188" t="s">
-        <v>510</v>
+        <v>394</v>
       </c>
       <c r="D188" t="s">
-        <v>511</v>
+        <v>395</v>
       </c>
       <c r="E188" t="s">
-        <v>512</v>
+        <v>396</v>
       </c>
       <c r="F188" t="s">
         <v>950</v>
@@ -8478,13 +8487,13 @@
         <v>951</v>
       </c>
       <c r="B189" t="s">
-        <v>513</v>
+        <v>397</v>
       </c>
       <c r="D189" t="s">
-        <v>514</v>
+        <v>398</v>
       </c>
       <c r="E189" t="s">
-        <v>515</v>
+        <v>399</v>
       </c>
       <c r="F189" t="s">
         <v>950</v>
@@ -8498,13 +8507,13 @@
         <v>951</v>
       </c>
       <c r="B190" t="s">
-        <v>516</v>
+        <v>400</v>
       </c>
       <c r="D190" t="s">
-        <v>517</v>
+        <v>401</v>
       </c>
       <c r="E190" t="s">
-        <v>518</v>
+        <v>402</v>
       </c>
       <c r="F190" t="s">
         <v>950</v>
@@ -8518,13 +8527,13 @@
         <v>951</v>
       </c>
       <c r="B191" t="s">
-        <v>519</v>
+        <v>403</v>
       </c>
       <c r="D191" t="s">
-        <v>520</v>
+        <v>404</v>
       </c>
       <c r="E191" t="s">
-        <v>521</v>
+        <v>405</v>
       </c>
       <c r="F191" t="s">
         <v>950</v>
@@ -8538,13 +8547,13 @@
         <v>951</v>
       </c>
       <c r="B192" t="s">
-        <v>522</v>
+        <v>406</v>
       </c>
       <c r="D192" t="s">
-        <v>523</v>
+        <v>407</v>
       </c>
       <c r="E192" t="s">
-        <v>524</v>
+        <v>408</v>
       </c>
       <c r="F192" t="s">
         <v>950</v>
@@ -8558,13 +8567,13 @@
         <v>951</v>
       </c>
       <c r="B193" t="s">
-        <v>525</v>
+        <v>409</v>
       </c>
       <c r="D193" t="s">
-        <v>526</v>
+        <v>410</v>
       </c>
       <c r="E193" t="s">
-        <v>527</v>
+        <v>411</v>
       </c>
       <c r="F193" t="s">
         <v>950</v>
@@ -8578,13 +8587,13 @@
         <v>951</v>
       </c>
       <c r="B194" t="s">
-        <v>528</v>
+        <v>412</v>
       </c>
       <c r="D194" t="s">
-        <v>529</v>
+        <v>413</v>
       </c>
       <c r="E194" t="s">
-        <v>530</v>
+        <v>414</v>
       </c>
       <c r="F194" t="s">
         <v>950</v>
@@ -8598,16 +8607,19 @@
         <v>951</v>
       </c>
       <c r="B195" t="s">
-        <v>531</v>
+        <v>1176</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1177</v>
       </c>
       <c r="D195" t="s">
-        <v>532</v>
+        <v>1178</v>
       </c>
       <c r="E195" t="s">
-        <v>533</v>
+        <v>1179</v>
       </c>
       <c r="F195" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G195" t="s">
         <v>952</v>
@@ -8618,13 +8630,16 @@
         <v>951</v>
       </c>
       <c r="B196" t="s">
-        <v>534</v>
+        <v>984</v>
+      </c>
+      <c r="C196" t="s">
+        <v>985</v>
       </c>
       <c r="D196" t="s">
-        <v>535</v>
+        <v>986</v>
       </c>
       <c r="E196" t="s">
-        <v>536</v>
+        <v>987</v>
       </c>
       <c r="F196" t="s">
         <v>950</v>
@@ -8638,13 +8653,13 @@
         <v>951</v>
       </c>
       <c r="B197" t="s">
-        <v>537</v>
+        <v>415</v>
       </c>
       <c r="D197" t="s">
-        <v>538</v>
+        <v>416</v>
       </c>
       <c r="E197" t="s">
-        <v>539</v>
+        <v>417</v>
       </c>
       <c r="F197" t="s">
         <v>950</v>
@@ -8658,13 +8673,13 @@
         <v>951</v>
       </c>
       <c r="B198" t="s">
-        <v>540</v>
+        <v>418</v>
       </c>
       <c r="D198" t="s">
-        <v>541</v>
+        <v>419</v>
       </c>
       <c r="E198" t="s">
-        <v>542</v>
+        <v>420</v>
       </c>
       <c r="F198" t="s">
         <v>950</v>
@@ -8678,13 +8693,13 @@
         <v>951</v>
       </c>
       <c r="B199" t="s">
-        <v>543</v>
+        <v>421</v>
       </c>
       <c r="D199" t="s">
-        <v>544</v>
+        <v>422</v>
       </c>
       <c r="E199" t="s">
-        <v>545</v>
+        <v>423</v>
       </c>
       <c r="F199" t="s">
         <v>950</v>
@@ -8698,13 +8713,13 @@
         <v>951</v>
       </c>
       <c r="B200" t="s">
-        <v>546</v>
+        <v>424</v>
       </c>
       <c r="D200" t="s">
-        <v>547</v>
+        <v>425</v>
       </c>
       <c r="E200" t="s">
-        <v>548</v>
+        <v>426</v>
       </c>
       <c r="F200" t="s">
         <v>950</v>
@@ -8718,13 +8733,13 @@
         <v>951</v>
       </c>
       <c r="B201" t="s">
-        <v>549</v>
+        <v>427</v>
       </c>
       <c r="D201" t="s">
-        <v>550</v>
+        <v>428</v>
       </c>
       <c r="E201" t="s">
-        <v>551</v>
+        <v>429</v>
       </c>
       <c r="F201" t="s">
         <v>950</v>
@@ -8738,13 +8753,13 @@
         <v>951</v>
       </c>
       <c r="B202" t="s">
-        <v>552</v>
+        <v>430</v>
       </c>
       <c r="D202" t="s">
-        <v>553</v>
+        <v>431</v>
       </c>
       <c r="E202" t="s">
-        <v>554</v>
+        <v>432</v>
       </c>
       <c r="F202" t="s">
         <v>950</v>
@@ -8758,13 +8773,13 @@
         <v>951</v>
       </c>
       <c r="B203" t="s">
-        <v>555</v>
+        <v>433</v>
       </c>
       <c r="D203" t="s">
-        <v>556</v>
+        <v>434</v>
       </c>
       <c r="E203" t="s">
-        <v>557</v>
+        <v>435</v>
       </c>
       <c r="F203" t="s">
         <v>950</v>
@@ -8778,13 +8793,13 @@
         <v>951</v>
       </c>
       <c r="B204" t="s">
-        <v>558</v>
+        <v>436</v>
       </c>
       <c r="D204" t="s">
-        <v>559</v>
+        <v>437</v>
       </c>
       <c r="E204" t="s">
-        <v>560</v>
+        <v>438</v>
       </c>
       <c r="F204" t="s">
         <v>950</v>
@@ -8798,13 +8813,13 @@
         <v>951</v>
       </c>
       <c r="B205" t="s">
-        <v>561</v>
+        <v>439</v>
       </c>
       <c r="D205" t="s">
-        <v>562</v>
+        <v>440</v>
       </c>
       <c r="E205" t="s">
-        <v>563</v>
+        <v>441</v>
       </c>
       <c r="F205" t="s">
         <v>950</v>
@@ -8818,13 +8833,16 @@
         <v>951</v>
       </c>
       <c r="B206" t="s">
-        <v>564</v>
+        <v>1021</v>
+      </c>
+      <c r="C206" t="s">
+        <v>1057</v>
       </c>
       <c r="D206" t="s">
-        <v>565</v>
+        <v>1004</v>
       </c>
       <c r="E206" t="s">
-        <v>566</v>
+        <v>1040</v>
       </c>
       <c r="F206" t="s">
         <v>950</v>
@@ -8834,20 +8852,20 @@
       </c>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" t="s">
+      <c r="A207" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B207" t="s">
-        <v>567</v>
+        <v>1181</v>
       </c>
       <c r="D207" t="s">
-        <v>568</v>
+        <v>1182</v>
       </c>
       <c r="E207" t="s">
-        <v>569</v>
+        <v>1183</v>
       </c>
       <c r="F207" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G207" t="s">
         <v>952</v>
@@ -8858,16 +8876,16 @@
         <v>951</v>
       </c>
       <c r="B208" t="s">
-        <v>570</v>
+        <v>1184</v>
       </c>
       <c r="D208" t="s">
-        <v>571</v>
+        <v>1185</v>
       </c>
       <c r="E208" t="s">
-        <v>572</v>
+        <v>1186</v>
       </c>
       <c r="F208" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G208" t="s">
         <v>952</v>
@@ -8878,16 +8896,13 @@
         <v>951</v>
       </c>
       <c r="B209" t="s">
-        <v>946</v>
-      </c>
-      <c r="C209" t="s">
-        <v>947</v>
+        <v>442</v>
       </c>
       <c r="D209" t="s">
-        <v>948</v>
+        <v>443</v>
       </c>
       <c r="E209" t="s">
-        <v>949</v>
+        <v>444</v>
       </c>
       <c r="F209" t="s">
         <v>950</v>
@@ -8901,13 +8916,13 @@
         <v>951</v>
       </c>
       <c r="B210" t="s">
-        <v>573</v>
+        <v>445</v>
       </c>
       <c r="D210" t="s">
-        <v>574</v>
+        <v>446</v>
       </c>
       <c r="E210" t="s">
-        <v>575</v>
+        <v>447</v>
       </c>
       <c r="F210" t="s">
         <v>950</v>
@@ -8921,16 +8936,16 @@
         <v>951</v>
       </c>
       <c r="B211" t="s">
-        <v>576</v>
+        <v>1187</v>
       </c>
       <c r="D211" t="s">
-        <v>577</v>
+        <v>1188</v>
       </c>
       <c r="E211" t="s">
-        <v>578</v>
+        <v>1189</v>
       </c>
       <c r="F211" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G211" t="s">
         <v>952</v>
@@ -8941,13 +8956,16 @@
         <v>951</v>
       </c>
       <c r="B212" t="s">
-        <v>579</v>
+        <v>965</v>
+      </c>
+      <c r="C212" t="s">
+        <v>966</v>
       </c>
       <c r="D212" t="s">
-        <v>580</v>
+        <v>967</v>
       </c>
       <c r="E212" t="s">
-        <v>581</v>
+        <v>968</v>
       </c>
       <c r="F212" t="s">
         <v>950</v>
@@ -8961,13 +8979,13 @@
         <v>951</v>
       </c>
       <c r="B213" t="s">
-        <v>582</v>
+        <v>450</v>
       </c>
       <c r="D213" t="s">
-        <v>583</v>
+        <v>451</v>
       </c>
       <c r="E213" t="s">
-        <v>584</v>
+        <v>452</v>
       </c>
       <c r="F213" t="s">
         <v>950</v>
@@ -8981,13 +8999,13 @@
         <v>951</v>
       </c>
       <c r="B214" t="s">
-        <v>988</v>
+        <v>453</v>
       </c>
       <c r="D214" t="s">
-        <v>989</v>
+        <v>454</v>
       </c>
       <c r="E214" t="s">
-        <v>990</v>
+        <v>455</v>
       </c>
       <c r="F214" t="s">
         <v>950</v>
@@ -9001,16 +9019,13 @@
         <v>951</v>
       </c>
       <c r="B215" t="s">
-        <v>980</v>
-      </c>
-      <c r="C215" t="s">
-        <v>981</v>
+        <v>1023</v>
       </c>
       <c r="D215" t="s">
-        <v>982</v>
+        <v>1329</v>
       </c>
       <c r="E215" t="s">
-        <v>983</v>
+        <v>1394</v>
       </c>
       <c r="F215" t="s">
         <v>950</v>
@@ -9024,13 +9039,13 @@
         <v>951</v>
       </c>
       <c r="B216" t="s">
-        <v>585</v>
+        <v>456</v>
       </c>
       <c r="D216" t="s">
-        <v>586</v>
+        <v>457</v>
       </c>
       <c r="E216" t="s">
-        <v>587</v>
+        <v>458</v>
       </c>
       <c r="F216" t="s">
         <v>950</v>
@@ -9044,13 +9059,13 @@
         <v>951</v>
       </c>
       <c r="B217" t="s">
-        <v>588</v>
+        <v>459</v>
       </c>
       <c r="D217" t="s">
-        <v>589</v>
+        <v>460</v>
       </c>
       <c r="E217" t="s">
-        <v>590</v>
+        <v>461</v>
       </c>
       <c r="F217" t="s">
         <v>950</v>
@@ -9064,13 +9079,13 @@
         <v>951</v>
       </c>
       <c r="B218" t="s">
-        <v>591</v>
+        <v>462</v>
       </c>
       <c r="D218" t="s">
-        <v>592</v>
+        <v>463</v>
       </c>
       <c r="E218" t="s">
-        <v>593</v>
+        <v>464</v>
       </c>
       <c r="F218" t="s">
         <v>950</v>
@@ -9084,13 +9099,13 @@
         <v>951</v>
       </c>
       <c r="B219" t="s">
-        <v>594</v>
+        <v>465</v>
       </c>
       <c r="D219" t="s">
-        <v>595</v>
+        <v>466</v>
       </c>
       <c r="E219" t="s">
-        <v>596</v>
+        <v>467</v>
       </c>
       <c r="F219" t="s">
         <v>950</v>
@@ -9104,13 +9119,16 @@
         <v>951</v>
       </c>
       <c r="B220" t="s">
-        <v>597</v>
+        <v>991</v>
+      </c>
+      <c r="C220" t="s">
+        <v>992</v>
       </c>
       <c r="D220" t="s">
-        <v>598</v>
+        <v>993</v>
       </c>
       <c r="E220" t="s">
-        <v>599</v>
+        <v>994</v>
       </c>
       <c r="F220" t="s">
         <v>950</v>
@@ -9124,13 +9142,13 @@
         <v>951</v>
       </c>
       <c r="B221" t="s">
-        <v>600</v>
+        <v>468</v>
       </c>
       <c r="D221" t="s">
-        <v>601</v>
+        <v>469</v>
       </c>
       <c r="E221" t="s">
-        <v>602</v>
+        <v>470</v>
       </c>
       <c r="F221" t="s">
         <v>950</v>
@@ -9144,13 +9162,13 @@
         <v>951</v>
       </c>
       <c r="B222" t="s">
-        <v>603</v>
+        <v>471</v>
       </c>
       <c r="D222" t="s">
-        <v>604</v>
+        <v>472</v>
       </c>
       <c r="E222" t="s">
-        <v>605</v>
+        <v>473</v>
       </c>
       <c r="F222" t="s">
         <v>950</v>
@@ -9164,13 +9182,13 @@
         <v>951</v>
       </c>
       <c r="B223" t="s">
-        <v>606</v>
+        <v>474</v>
       </c>
       <c r="D223" t="s">
-        <v>607</v>
+        <v>475</v>
       </c>
       <c r="E223" t="s">
-        <v>608</v>
+        <v>476</v>
       </c>
       <c r="F223" t="s">
         <v>950</v>
@@ -9184,13 +9202,13 @@
         <v>951</v>
       </c>
       <c r="B224" t="s">
-        <v>609</v>
+        <v>477</v>
       </c>
       <c r="D224" t="s">
-        <v>610</v>
+        <v>478</v>
       </c>
       <c r="E224" t="s">
-        <v>611</v>
+        <v>479</v>
       </c>
       <c r="F224" t="s">
         <v>950</v>
@@ -9204,16 +9222,13 @@
         <v>951</v>
       </c>
       <c r="B225" t="s">
-        <v>1024</v>
-      </c>
-      <c r="C225" t="s">
-        <v>1058</v>
+        <v>480</v>
       </c>
       <c r="D225" t="s">
-        <v>1006</v>
+        <v>481</v>
       </c>
       <c r="E225" t="s">
-        <v>1042</v>
+        <v>482</v>
       </c>
       <c r="F225" t="s">
         <v>950</v>
@@ -9227,13 +9242,13 @@
         <v>951</v>
       </c>
       <c r="B226" t="s">
-        <v>612</v>
+        <v>483</v>
       </c>
       <c r="D226" t="s">
-        <v>613</v>
+        <v>484</v>
       </c>
       <c r="E226" t="s">
-        <v>614</v>
+        <v>485</v>
       </c>
       <c r="F226" t="s">
         <v>950</v>
@@ -9247,16 +9262,16 @@
         <v>951</v>
       </c>
       <c r="B227" t="s">
-        <v>615</v>
+        <v>1190</v>
       </c>
       <c r="D227" t="s">
-        <v>616</v>
+        <v>1191</v>
       </c>
       <c r="E227" t="s">
-        <v>617</v>
+        <v>1192</v>
       </c>
       <c r="F227" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G227" t="s">
         <v>952</v>
@@ -9267,13 +9282,13 @@
         <v>951</v>
       </c>
       <c r="B228" t="s">
-        <v>618</v>
+        <v>486</v>
       </c>
       <c r="D228" t="s">
-        <v>619</v>
+        <v>487</v>
       </c>
       <c r="E228" t="s">
-        <v>620</v>
+        <v>488</v>
       </c>
       <c r="F228" t="s">
         <v>950</v>
@@ -9287,16 +9302,13 @@
         <v>951</v>
       </c>
       <c r="B229" t="s">
-        <v>1025</v>
-      </c>
-      <c r="C229" t="s">
-        <v>1059</v>
+        <v>489</v>
       </c>
       <c r="D229" t="s">
-        <v>1007</v>
+        <v>490</v>
       </c>
       <c r="E229" t="s">
-        <v>1043</v>
+        <v>491</v>
       </c>
       <c r="F229" t="s">
         <v>950</v>
@@ -9310,13 +9322,13 @@
         <v>951</v>
       </c>
       <c r="B230" t="s">
-        <v>621</v>
+        <v>492</v>
       </c>
       <c r="D230" t="s">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="E230" t="s">
-        <v>623</v>
+        <v>494</v>
       </c>
       <c r="F230" t="s">
         <v>950</v>
@@ -9330,13 +9342,13 @@
         <v>951</v>
       </c>
       <c r="B231" t="s">
-        <v>448</v>
-      </c>
-      <c r="D231" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="E231" s="2" t="s">
-        <v>449</v>
+        <v>495</v>
+      </c>
+      <c r="D231" t="s">
+        <v>496</v>
+      </c>
+      <c r="E231" t="s">
+        <v>497</v>
       </c>
       <c r="F231" t="s">
         <v>950</v>
@@ -9350,16 +9362,19 @@
         <v>951</v>
       </c>
       <c r="B232" t="s">
-        <v>624</v>
+        <v>1193</v>
+      </c>
+      <c r="C232" t="s">
+        <v>1194</v>
       </c>
       <c r="D232" t="s">
-        <v>625</v>
+        <v>1195</v>
       </c>
       <c r="E232" t="s">
-        <v>626</v>
+        <v>1196</v>
       </c>
       <c r="F232" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G232" t="s">
         <v>952</v>
@@ -9370,13 +9385,13 @@
         <v>951</v>
       </c>
       <c r="B233" t="s">
-        <v>627</v>
+        <v>498</v>
       </c>
       <c r="D233" t="s">
-        <v>628</v>
+        <v>499</v>
       </c>
       <c r="E233" t="s">
-        <v>629</v>
+        <v>500</v>
       </c>
       <c r="F233" t="s">
         <v>950</v>
@@ -9390,13 +9405,13 @@
         <v>951</v>
       </c>
       <c r="B234" t="s">
-        <v>630</v>
+        <v>1022</v>
       </c>
       <c r="D234" t="s">
-        <v>631</v>
+        <v>1005</v>
       </c>
       <c r="E234" t="s">
-        <v>632</v>
+        <v>1041</v>
       </c>
       <c r="F234" t="s">
         <v>950</v>
@@ -9410,13 +9425,13 @@
         <v>951</v>
       </c>
       <c r="B235" t="s">
-        <v>633</v>
+        <v>501</v>
       </c>
       <c r="D235" t="s">
-        <v>634</v>
+        <v>502</v>
       </c>
       <c r="E235" t="s">
-        <v>635</v>
+        <v>503</v>
       </c>
       <c r="F235" t="s">
         <v>950</v>
@@ -9430,13 +9445,13 @@
         <v>951</v>
       </c>
       <c r="B236" t="s">
-        <v>636</v>
+        <v>504</v>
       </c>
       <c r="D236" t="s">
-        <v>637</v>
+        <v>505</v>
       </c>
       <c r="E236" t="s">
-        <v>638</v>
+        <v>506</v>
       </c>
       <c r="F236" t="s">
         <v>950</v>
@@ -9450,13 +9465,13 @@
         <v>951</v>
       </c>
       <c r="B237" t="s">
-        <v>639</v>
+        <v>507</v>
       </c>
       <c r="D237" t="s">
-        <v>640</v>
+        <v>508</v>
       </c>
       <c r="E237" t="s">
-        <v>641</v>
+        <v>509</v>
       </c>
       <c r="F237" t="s">
         <v>950</v>
@@ -9470,13 +9485,13 @@
         <v>951</v>
       </c>
       <c r="B238" t="s">
-        <v>642</v>
+        <v>510</v>
       </c>
       <c r="D238" t="s">
-        <v>643</v>
+        <v>511</v>
       </c>
       <c r="E238" t="s">
-        <v>644</v>
+        <v>512</v>
       </c>
       <c r="F238" t="s">
         <v>950</v>
@@ -9490,13 +9505,13 @@
         <v>951</v>
       </c>
       <c r="B239" t="s">
-        <v>645</v>
+        <v>513</v>
       </c>
       <c r="D239" t="s">
-        <v>646</v>
+        <v>514</v>
       </c>
       <c r="E239" t="s">
-        <v>647</v>
+        <v>515</v>
       </c>
       <c r="F239" t="s">
         <v>950</v>
@@ -9510,13 +9525,13 @@
         <v>951</v>
       </c>
       <c r="B240" t="s">
-        <v>648</v>
+        <v>516</v>
       </c>
       <c r="D240" t="s">
-        <v>1331</v>
+        <v>517</v>
       </c>
       <c r="E240" t="s">
-        <v>649</v>
+        <v>518</v>
       </c>
       <c r="F240" t="s">
         <v>950</v>
@@ -9530,13 +9545,13 @@
         <v>951</v>
       </c>
       <c r="B241" t="s">
-        <v>650</v>
+        <v>519</v>
       </c>
       <c r="D241" t="s">
-        <v>651</v>
+        <v>520</v>
       </c>
       <c r="E241" t="s">
-        <v>652</v>
+        <v>521</v>
       </c>
       <c r="F241" t="s">
         <v>950</v>
@@ -9550,13 +9565,13 @@
         <v>951</v>
       </c>
       <c r="B242" t="s">
-        <v>653</v>
+        <v>522</v>
       </c>
       <c r="D242" t="s">
-        <v>654</v>
+        <v>523</v>
       </c>
       <c r="E242" t="s">
-        <v>655</v>
+        <v>524</v>
       </c>
       <c r="F242" t="s">
         <v>950</v>
@@ -9570,19 +9585,19 @@
         <v>951</v>
       </c>
       <c r="B243" t="s">
-        <v>924</v>
+        <v>1197</v>
       </c>
       <c r="C243" t="s">
-        <v>925</v>
+        <v>1198</v>
       </c>
       <c r="D243" t="s">
-        <v>926</v>
+        <v>1199</v>
       </c>
       <c r="E243" t="s">
-        <v>927</v>
+        <v>1200</v>
       </c>
       <c r="F243" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G243" t="s">
         <v>952</v>
@@ -9593,13 +9608,13 @@
         <v>951</v>
       </c>
       <c r="B244" t="s">
-        <v>656</v>
+        <v>525</v>
       </c>
       <c r="D244" t="s">
-        <v>657</v>
+        <v>526</v>
       </c>
       <c r="E244" t="s">
-        <v>658</v>
+        <v>527</v>
       </c>
       <c r="F244" t="s">
         <v>950</v>
@@ -9613,13 +9628,13 @@
         <v>951</v>
       </c>
       <c r="B245" t="s">
-        <v>659</v>
+        <v>528</v>
       </c>
       <c r="D245" t="s">
-        <v>660</v>
+        <v>529</v>
       </c>
       <c r="E245" t="s">
-        <v>661</v>
+        <v>530</v>
       </c>
       <c r="F245" t="s">
         <v>950</v>
@@ -9633,13 +9648,13 @@
         <v>951</v>
       </c>
       <c r="B246" t="s">
-        <v>662</v>
+        <v>531</v>
       </c>
       <c r="D246" t="s">
-        <v>663</v>
+        <v>532</v>
       </c>
       <c r="E246" t="s">
-        <v>664</v>
+        <v>533</v>
       </c>
       <c r="F246" t="s">
         <v>950</v>
@@ -9653,16 +9668,16 @@
         <v>951</v>
       </c>
       <c r="B247" t="s">
-        <v>665</v>
+        <v>1201</v>
       </c>
       <c r="D247" t="s">
-        <v>666</v>
+        <v>1202</v>
       </c>
       <c r="E247" t="s">
-        <v>667</v>
+        <v>1203</v>
       </c>
       <c r="F247" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G247" t="s">
         <v>952</v>
@@ -9673,13 +9688,13 @@
         <v>951</v>
       </c>
       <c r="B248" t="s">
-        <v>668</v>
+        <v>534</v>
       </c>
       <c r="D248" t="s">
-        <v>669</v>
+        <v>535</v>
       </c>
       <c r="E248" t="s">
-        <v>670</v>
+        <v>536</v>
       </c>
       <c r="F248" t="s">
         <v>950</v>
@@ -9689,20 +9704,20 @@
       </c>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" t="s">
+      <c r="A249" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B249" t="s">
-        <v>671</v>
+        <v>1204</v>
       </c>
       <c r="D249" t="s">
-        <v>672</v>
+        <v>1205</v>
       </c>
       <c r="E249" t="s">
-        <v>673</v>
+        <v>1206</v>
       </c>
       <c r="F249" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G249" t="s">
         <v>952</v>
@@ -9713,16 +9728,16 @@
         <v>951</v>
       </c>
       <c r="B250" t="s">
-        <v>674</v>
+        <v>1207</v>
       </c>
       <c r="D250" t="s">
-        <v>675</v>
+        <v>1208</v>
       </c>
       <c r="E250" t="s">
-        <v>676</v>
+        <v>1209</v>
       </c>
       <c r="F250" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G250" t="s">
         <v>952</v>
@@ -9733,19 +9748,16 @@
         <v>951</v>
       </c>
       <c r="B251" t="s">
-        <v>934</v>
-      </c>
-      <c r="C251" t="s">
-        <v>935</v>
+        <v>1210</v>
       </c>
       <c r="D251" t="s">
-        <v>936</v>
+        <v>1211</v>
       </c>
       <c r="E251" t="s">
-        <v>937</v>
+        <v>1212</v>
       </c>
       <c r="F251" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G251" t="s">
         <v>952</v>
@@ -9756,16 +9768,13 @@
         <v>951</v>
       </c>
       <c r="B252" t="s">
-        <v>995</v>
-      </c>
-      <c r="C252" t="s">
-        <v>996</v>
+        <v>537</v>
       </c>
       <c r="D252" t="s">
-        <v>997</v>
+        <v>538</v>
       </c>
       <c r="E252" t="s">
-        <v>998</v>
+        <v>539</v>
       </c>
       <c r="F252" t="s">
         <v>950</v>
@@ -9779,13 +9788,13 @@
         <v>951</v>
       </c>
       <c r="B253" t="s">
-        <v>677</v>
+        <v>540</v>
       </c>
       <c r="D253" t="s">
-        <v>678</v>
+        <v>541</v>
       </c>
       <c r="E253" t="s">
-        <v>679</v>
+        <v>542</v>
       </c>
       <c r="F253" t="s">
         <v>950</v>
@@ -9799,13 +9808,13 @@
         <v>951</v>
       </c>
       <c r="B254" t="s">
-        <v>680</v>
+        <v>543</v>
       </c>
       <c r="D254" t="s">
-        <v>681</v>
+        <v>544</v>
       </c>
       <c r="E254" t="s">
-        <v>682</v>
+        <v>545</v>
       </c>
       <c r="F254" t="s">
         <v>950</v>
@@ -9819,13 +9828,13 @@
         <v>951</v>
       </c>
       <c r="B255" t="s">
-        <v>683</v>
+        <v>546</v>
       </c>
       <c r="D255" t="s">
-        <v>684</v>
+        <v>547</v>
       </c>
       <c r="E255" t="s">
-        <v>685</v>
+        <v>548</v>
       </c>
       <c r="F255" t="s">
         <v>950</v>
@@ -9839,13 +9848,13 @@
         <v>951</v>
       </c>
       <c r="B256" t="s">
-        <v>686</v>
+        <v>549</v>
       </c>
       <c r="D256" t="s">
-        <v>687</v>
+        <v>550</v>
       </c>
       <c r="E256" t="s">
-        <v>688</v>
+        <v>551</v>
       </c>
       <c r="F256" t="s">
         <v>950</v>
@@ -9859,13 +9868,13 @@
         <v>951</v>
       </c>
       <c r="B257" t="s">
-        <v>689</v>
+        <v>552</v>
       </c>
       <c r="D257" t="s">
-        <v>690</v>
+        <v>553</v>
       </c>
       <c r="E257" t="s">
-        <v>691</v>
+        <v>554</v>
       </c>
       <c r="F257" t="s">
         <v>950</v>
@@ -9879,16 +9888,16 @@
         <v>951</v>
       </c>
       <c r="B258" t="s">
-        <v>1034</v>
+        <v>1213</v>
       </c>
       <c r="D258" t="s">
-        <v>1015</v>
+        <v>1214</v>
       </c>
       <c r="E258" t="s">
-        <v>1050</v>
+        <v>1215</v>
       </c>
       <c r="F258" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G258" t="s">
         <v>952</v>
@@ -9899,13 +9908,13 @@
         <v>951</v>
       </c>
       <c r="B259" t="s">
-        <v>1035</v>
+        <v>555</v>
       </c>
       <c r="D259" t="s">
-        <v>1016</v>
+        <v>556</v>
       </c>
       <c r="E259" t="s">
-        <v>1051</v>
+        <v>557</v>
       </c>
       <c r="F259" t="s">
         <v>950</v>
@@ -9919,16 +9928,19 @@
         <v>951</v>
       </c>
       <c r="B260" t="s">
-        <v>1026</v>
+        <v>1216</v>
+      </c>
+      <c r="C260" t="s">
+        <v>1217</v>
       </c>
       <c r="D260" t="s">
-        <v>1333</v>
+        <v>1218</v>
       </c>
       <c r="E260" t="s">
-        <v>1395</v>
+        <v>1219</v>
       </c>
       <c r="F260" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G260" t="s">
         <v>952</v>
@@ -9939,13 +9951,13 @@
         <v>951</v>
       </c>
       <c r="B261" t="s">
-        <v>692</v>
+        <v>558</v>
       </c>
       <c r="D261" t="s">
-        <v>693</v>
+        <v>559</v>
       </c>
       <c r="E261" t="s">
-        <v>694</v>
+        <v>560</v>
       </c>
       <c r="F261" t="s">
         <v>950</v>
@@ -9959,13 +9971,13 @@
         <v>951</v>
       </c>
       <c r="B262" t="s">
-        <v>695</v>
+        <v>561</v>
       </c>
       <c r="D262" t="s">
-        <v>696</v>
+        <v>562</v>
       </c>
       <c r="E262" t="s">
-        <v>697</v>
+        <v>563</v>
       </c>
       <c r="F262" t="s">
         <v>950</v>
@@ -9979,16 +9991,19 @@
         <v>951</v>
       </c>
       <c r="B263" t="s">
-        <v>698</v>
+        <v>1220</v>
+      </c>
+      <c r="C263" t="s">
+        <v>1221</v>
       </c>
       <c r="D263" t="s">
-        <v>699</v>
+        <v>1222</v>
       </c>
       <c r="E263" t="s">
-        <v>700</v>
+        <v>1223</v>
       </c>
       <c r="F263" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G263" t="s">
         <v>952</v>
@@ -9999,13 +10014,13 @@
         <v>951</v>
       </c>
       <c r="B264" t="s">
-        <v>701</v>
+        <v>564</v>
       </c>
       <c r="D264" t="s">
-        <v>702</v>
+        <v>565</v>
       </c>
       <c r="E264" t="s">
-        <v>703</v>
+        <v>566</v>
       </c>
       <c r="F264" t="s">
         <v>950</v>
@@ -10019,16 +10034,13 @@
         <v>951</v>
       </c>
       <c r="B265" t="s">
-        <v>942</v>
-      </c>
-      <c r="C265" t="s">
-        <v>943</v>
+        <v>567</v>
       </c>
       <c r="D265" t="s">
-        <v>944</v>
+        <v>568</v>
       </c>
       <c r="E265" t="s">
-        <v>945</v>
+        <v>569</v>
       </c>
       <c r="F265" t="s">
         <v>950</v>
@@ -10042,16 +10054,19 @@
         <v>951</v>
       </c>
       <c r="B266" t="s">
-        <v>704</v>
+        <v>1224</v>
+      </c>
+      <c r="C266" t="s">
+        <v>1225</v>
       </c>
       <c r="D266" t="s">
-        <v>705</v>
+        <v>1226</v>
       </c>
       <c r="E266" t="s">
-        <v>706</v>
+        <v>1227</v>
       </c>
       <c r="F266" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G266" t="s">
         <v>952</v>
@@ -10062,13 +10077,13 @@
         <v>951</v>
       </c>
       <c r="B267" t="s">
-        <v>707</v>
+        <v>570</v>
       </c>
       <c r="D267" t="s">
-        <v>708</v>
+        <v>571</v>
       </c>
       <c r="E267" t="s">
-        <v>709</v>
+        <v>572</v>
       </c>
       <c r="F267" t="s">
         <v>950</v>
@@ -10082,13 +10097,16 @@
         <v>951</v>
       </c>
       <c r="B268" t="s">
-        <v>710</v>
+        <v>946</v>
+      </c>
+      <c r="C268" t="s">
+        <v>947</v>
       </c>
       <c r="D268" t="s">
-        <v>711</v>
+        <v>948</v>
       </c>
       <c r="E268" t="s">
-        <v>712</v>
+        <v>949</v>
       </c>
       <c r="F268" t="s">
         <v>950</v>
@@ -10102,13 +10120,13 @@
         <v>951</v>
       </c>
       <c r="B269" t="s">
-        <v>713</v>
+        <v>573</v>
       </c>
       <c r="D269" t="s">
-        <v>714</v>
+        <v>574</v>
       </c>
       <c r="E269" t="s">
-        <v>715</v>
+        <v>575</v>
       </c>
       <c r="F269" t="s">
         <v>950</v>
@@ -10122,13 +10140,13 @@
         <v>951</v>
       </c>
       <c r="B270" t="s">
-        <v>716</v>
+        <v>576</v>
       </c>
       <c r="D270" t="s">
-        <v>717</v>
+        <v>577</v>
       </c>
       <c r="E270" t="s">
-        <v>718</v>
+        <v>578</v>
       </c>
       <c r="F270" t="s">
         <v>950</v>
@@ -10142,13 +10160,13 @@
         <v>951</v>
       </c>
       <c r="B271" t="s">
-        <v>719</v>
+        <v>579</v>
       </c>
       <c r="D271" t="s">
-        <v>720</v>
+        <v>580</v>
       </c>
       <c r="E271" t="s">
-        <v>721</v>
+        <v>581</v>
       </c>
       <c r="F271" t="s">
         <v>950</v>
@@ -10162,13 +10180,13 @@
         <v>951</v>
       </c>
       <c r="B272" t="s">
-        <v>722</v>
+        <v>582</v>
       </c>
       <c r="D272" t="s">
-        <v>723</v>
+        <v>583</v>
       </c>
       <c r="E272" t="s">
-        <v>724</v>
+        <v>584</v>
       </c>
       <c r="F272" t="s">
         <v>950</v>
@@ -10182,13 +10200,13 @@
         <v>951</v>
       </c>
       <c r="B273" t="s">
-        <v>725</v>
+        <v>988</v>
       </c>
       <c r="D273" t="s">
-        <v>726</v>
+        <v>989</v>
       </c>
       <c r="E273" t="s">
-        <v>727</v>
+        <v>990</v>
       </c>
       <c r="F273" t="s">
         <v>950</v>
@@ -10202,13 +10220,16 @@
         <v>951</v>
       </c>
       <c r="B274" t="s">
-        <v>728</v>
+        <v>980</v>
+      </c>
+      <c r="C274" t="s">
+        <v>981</v>
       </c>
       <c r="D274" t="s">
-        <v>729</v>
+        <v>982</v>
       </c>
       <c r="E274" t="s">
-        <v>730</v>
+        <v>983</v>
       </c>
       <c r="F274" t="s">
         <v>950</v>
@@ -10222,16 +10243,13 @@
         <v>951</v>
       </c>
       <c r="B275" t="s">
-        <v>1027</v>
-      </c>
-      <c r="C275" t="s">
-        <v>1060</v>
+        <v>585</v>
       </c>
       <c r="D275" t="s">
-        <v>1008</v>
+        <v>586</v>
       </c>
       <c r="E275" t="s">
-        <v>1044</v>
+        <v>587</v>
       </c>
       <c r="F275" t="s">
         <v>950</v>
@@ -10245,16 +10263,16 @@
         <v>951</v>
       </c>
       <c r="B276" t="s">
-        <v>731</v>
+        <v>1368</v>
       </c>
       <c r="D276" t="s">
-        <v>732</v>
+        <v>1328</v>
       </c>
       <c r="E276" t="s">
-        <v>733</v>
+        <v>1369</v>
       </c>
       <c r="F276" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G276" t="s">
         <v>952</v>
@@ -10265,13 +10283,13 @@
         <v>951</v>
       </c>
       <c r="B277" t="s">
-        <v>734</v>
+        <v>588</v>
       </c>
       <c r="D277" t="s">
-        <v>735</v>
+        <v>589</v>
       </c>
       <c r="E277" t="s">
-        <v>736</v>
+        <v>590</v>
       </c>
       <c r="F277" t="s">
         <v>950</v>
@@ -10285,13 +10303,13 @@
         <v>951</v>
       </c>
       <c r="B278" t="s">
-        <v>737</v>
+        <v>591</v>
       </c>
       <c r="D278" t="s">
-        <v>738</v>
+        <v>592</v>
       </c>
       <c r="E278" t="s">
-        <v>739</v>
+        <v>593</v>
       </c>
       <c r="F278" t="s">
         <v>950</v>
@@ -10305,13 +10323,13 @@
         <v>951</v>
       </c>
       <c r="B279" t="s">
-        <v>740</v>
+        <v>594</v>
       </c>
       <c r="D279" t="s">
-        <v>741</v>
+        <v>595</v>
       </c>
       <c r="E279" t="s">
-        <v>742</v>
+        <v>596</v>
       </c>
       <c r="F279" t="s">
         <v>950</v>
@@ -10325,16 +10343,19 @@
         <v>951</v>
       </c>
       <c r="B280" t="s">
-        <v>743</v>
+        <v>1228</v>
+      </c>
+      <c r="C280" t="s">
+        <v>1229</v>
       </c>
       <c r="D280" t="s">
-        <v>744</v>
+        <v>1230</v>
       </c>
       <c r="E280" t="s">
-        <v>745</v>
+        <v>1231</v>
       </c>
       <c r="F280" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G280" t="s">
         <v>952</v>
@@ -10345,16 +10366,13 @@
         <v>951</v>
       </c>
       <c r="B281" t="s">
-        <v>1028</v>
-      </c>
-      <c r="C281" t="s">
-        <v>1061</v>
+        <v>597</v>
       </c>
       <c r="D281" t="s">
-        <v>1009</v>
+        <v>598</v>
       </c>
       <c r="E281" t="s">
-        <v>1045</v>
+        <v>599</v>
       </c>
       <c r="F281" t="s">
         <v>950</v>
@@ -10368,13 +10386,13 @@
         <v>951</v>
       </c>
       <c r="B282" t="s">
-        <v>746</v>
+        <v>600</v>
       </c>
       <c r="D282" t="s">
-        <v>747</v>
+        <v>601</v>
       </c>
       <c r="E282" t="s">
-        <v>748</v>
+        <v>602</v>
       </c>
       <c r="F282" t="s">
         <v>950</v>
@@ -10388,13 +10406,13 @@
         <v>951</v>
       </c>
       <c r="B283" t="s">
-        <v>749</v>
+        <v>603</v>
       </c>
       <c r="D283" t="s">
-        <v>750</v>
+        <v>604</v>
       </c>
       <c r="E283" t="s">
-        <v>751</v>
+        <v>605</v>
       </c>
       <c r="F283" t="s">
         <v>950</v>
@@ -10408,13 +10426,13 @@
         <v>951</v>
       </c>
       <c r="B284" t="s">
-        <v>752</v>
+        <v>606</v>
       </c>
       <c r="D284" t="s">
-        <v>753</v>
+        <v>607</v>
       </c>
       <c r="E284" t="s">
-        <v>754</v>
+        <v>608</v>
       </c>
       <c r="F284" t="s">
         <v>950</v>
@@ -10428,16 +10446,16 @@
         <v>951</v>
       </c>
       <c r="B285" t="s">
-        <v>755</v>
+        <v>1232</v>
       </c>
       <c r="D285" t="s">
-        <v>756</v>
+        <v>1233</v>
       </c>
       <c r="E285" t="s">
-        <v>757</v>
+        <v>1234</v>
       </c>
       <c r="F285" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G285" t="s">
         <v>952</v>
@@ -10448,16 +10466,16 @@
         <v>951</v>
       </c>
       <c r="B286" t="s">
-        <v>758</v>
-      </c>
-      <c r="D286" t="s">
-        <v>759</v>
-      </c>
-      <c r="E286" t="s">
-        <v>760</v>
+        <v>1370</v>
+      </c>
+      <c r="D286" s="2" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E286" s="2" t="s">
+        <v>1371</v>
       </c>
       <c r="F286" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G286" t="s">
         <v>952</v>
@@ -10468,13 +10486,13 @@
         <v>951</v>
       </c>
       <c r="B287" t="s">
-        <v>761</v>
+        <v>609</v>
       </c>
       <c r="D287" t="s">
-        <v>762</v>
+        <v>610</v>
       </c>
       <c r="E287" t="s">
-        <v>763</v>
+        <v>611</v>
       </c>
       <c r="F287" t="s">
         <v>950</v>
@@ -10488,13 +10506,16 @@
         <v>951</v>
       </c>
       <c r="B288" t="s">
-        <v>764</v>
+        <v>1024</v>
+      </c>
+      <c r="C288" t="s">
+        <v>1058</v>
       </c>
       <c r="D288" t="s">
-        <v>765</v>
+        <v>1006</v>
       </c>
       <c r="E288" t="s">
-        <v>766</v>
+        <v>1042</v>
       </c>
       <c r="F288" t="s">
         <v>950</v>
@@ -10508,13 +10529,13 @@
         <v>951</v>
       </c>
       <c r="B289" t="s">
-        <v>767</v>
+        <v>612</v>
       </c>
       <c r="D289" t="s">
-        <v>768</v>
+        <v>613</v>
       </c>
       <c r="E289" t="s">
-        <v>769</v>
+        <v>614</v>
       </c>
       <c r="F289" t="s">
         <v>950</v>
@@ -10528,16 +10549,13 @@
         <v>951</v>
       </c>
       <c r="B290" t="s">
-        <v>976</v>
-      </c>
-      <c r="C290" t="s">
-        <v>977</v>
+        <v>615</v>
       </c>
       <c r="D290" t="s">
-        <v>978</v>
+        <v>616</v>
       </c>
       <c r="E290" t="s">
-        <v>979</v>
+        <v>617</v>
       </c>
       <c r="F290" t="s">
         <v>950</v>
@@ -10551,16 +10569,19 @@
         <v>951</v>
       </c>
       <c r="B291" t="s">
-        <v>770</v>
+        <v>1235</v>
+      </c>
+      <c r="C291" t="s">
+        <v>1236</v>
       </c>
       <c r="D291" t="s">
-        <v>771</v>
+        <v>1237</v>
       </c>
       <c r="E291" t="s">
-        <v>772</v>
+        <v>1238</v>
       </c>
       <c r="F291" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G291" t="s">
         <v>952</v>
@@ -10571,16 +10592,16 @@
         <v>951</v>
       </c>
       <c r="B292" t="s">
-        <v>773</v>
+        <v>1239</v>
       </c>
       <c r="D292" t="s">
-        <v>774</v>
+        <v>1240</v>
       </c>
       <c r="E292" t="s">
-        <v>775</v>
+        <v>1241</v>
       </c>
       <c r="F292" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G292" t="s">
         <v>952</v>
@@ -10591,13 +10612,13 @@
         <v>951</v>
       </c>
       <c r="B293" t="s">
-        <v>776</v>
+        <v>618</v>
       </c>
       <c r="D293" t="s">
-        <v>777</v>
+        <v>619</v>
       </c>
       <c r="E293" t="s">
-        <v>778</v>
+        <v>620</v>
       </c>
       <c r="F293" t="s">
         <v>950</v>
@@ -10611,13 +10632,16 @@
         <v>951</v>
       </c>
       <c r="B294" t="s">
-        <v>779</v>
+        <v>1025</v>
+      </c>
+      <c r="C294" t="s">
+        <v>1059</v>
       </c>
       <c r="D294" t="s">
-        <v>780</v>
+        <v>1007</v>
       </c>
       <c r="E294" t="s">
-        <v>781</v>
+        <v>1043</v>
       </c>
       <c r="F294" t="s">
         <v>950</v>
@@ -10631,13 +10655,13 @@
         <v>951</v>
       </c>
       <c r="B295" t="s">
-        <v>782</v>
+        <v>621</v>
       </c>
       <c r="D295" t="s">
-        <v>783</v>
+        <v>622</v>
       </c>
       <c r="E295" t="s">
-        <v>784</v>
+        <v>623</v>
       </c>
       <c r="F295" t="s">
         <v>950</v>
@@ -10651,13 +10675,13 @@
         <v>951</v>
       </c>
       <c r="B296" t="s">
-        <v>785</v>
-      </c>
-      <c r="D296" t="s">
-        <v>786</v>
-      </c>
-      <c r="E296" t="s">
-        <v>787</v>
+        <v>448</v>
+      </c>
+      <c r="D296" s="2" t="s">
+        <v>1330</v>
+      </c>
+      <c r="E296" s="2" t="s">
+        <v>449</v>
       </c>
       <c r="F296" t="s">
         <v>950</v>
@@ -10671,13 +10695,13 @@
         <v>951</v>
       </c>
       <c r="B297" t="s">
-        <v>788</v>
+        <v>624</v>
       </c>
       <c r="D297" t="s">
-        <v>789</v>
+        <v>625</v>
       </c>
       <c r="E297" t="s">
-        <v>790</v>
+        <v>626</v>
       </c>
       <c r="F297" t="s">
         <v>950</v>
@@ -10691,13 +10715,13 @@
         <v>951</v>
       </c>
       <c r="B298" t="s">
-        <v>791</v>
+        <v>627</v>
       </c>
       <c r="D298" t="s">
-        <v>792</v>
+        <v>628</v>
       </c>
       <c r="E298" t="s">
-        <v>793</v>
+        <v>629</v>
       </c>
       <c r="F298" t="s">
         <v>950</v>
@@ -10711,13 +10735,13 @@
         <v>951</v>
       </c>
       <c r="B299" t="s">
-        <v>794</v>
+        <v>630</v>
       </c>
       <c r="D299" t="s">
-        <v>795</v>
+        <v>631</v>
       </c>
       <c r="E299" t="s">
-        <v>796</v>
+        <v>632</v>
       </c>
       <c r="F299" t="s">
         <v>950</v>
@@ -10731,13 +10755,13 @@
         <v>951</v>
       </c>
       <c r="B300" t="s">
-        <v>797</v>
+        <v>633</v>
       </c>
       <c r="D300" t="s">
-        <v>798</v>
+        <v>634</v>
       </c>
       <c r="E300" t="s">
-        <v>799</v>
+        <v>635</v>
       </c>
       <c r="F300" t="s">
         <v>950</v>
@@ -10751,16 +10775,16 @@
         <v>951</v>
       </c>
       <c r="B301" t="s">
-        <v>800</v>
+        <v>1242</v>
       </c>
       <c r="D301" t="s">
-        <v>801</v>
+        <v>1243</v>
       </c>
       <c r="E301" t="s">
-        <v>802</v>
+        <v>1244</v>
       </c>
       <c r="F301" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G301" t="s">
         <v>952</v>
@@ -10771,13 +10795,13 @@
         <v>951</v>
       </c>
       <c r="B302" t="s">
-        <v>803</v>
+        <v>636</v>
       </c>
       <c r="D302" t="s">
-        <v>804</v>
+        <v>637</v>
       </c>
       <c r="E302" t="s">
-        <v>805</v>
+        <v>638</v>
       </c>
       <c r="F302" t="s">
         <v>950</v>
@@ -10791,13 +10815,13 @@
         <v>951</v>
       </c>
       <c r="B303" t="s">
-        <v>806</v>
+        <v>639</v>
       </c>
       <c r="D303" t="s">
-        <v>807</v>
+        <v>640</v>
       </c>
       <c r="E303" t="s">
-        <v>808</v>
+        <v>641</v>
       </c>
       <c r="F303" t="s">
         <v>950</v>
@@ -10811,13 +10835,13 @@
         <v>951</v>
       </c>
       <c r="B304" t="s">
-        <v>809</v>
+        <v>642</v>
       </c>
       <c r="D304" t="s">
-        <v>810</v>
+        <v>643</v>
       </c>
       <c r="E304" t="s">
-        <v>811</v>
+        <v>644</v>
       </c>
       <c r="F304" t="s">
         <v>950</v>
@@ -10831,13 +10855,13 @@
         <v>951</v>
       </c>
       <c r="B305" t="s">
-        <v>812</v>
+        <v>645</v>
       </c>
       <c r="D305" t="s">
-        <v>813</v>
+        <v>646</v>
       </c>
       <c r="E305" t="s">
-        <v>814</v>
+        <v>647</v>
       </c>
       <c r="F305" t="s">
         <v>950</v>
@@ -10851,13 +10875,13 @@
         <v>951</v>
       </c>
       <c r="B306" t="s">
-        <v>815</v>
+        <v>648</v>
       </c>
       <c r="D306" t="s">
-        <v>816</v>
+        <v>1331</v>
       </c>
       <c r="E306" t="s">
-        <v>817</v>
+        <v>649</v>
       </c>
       <c r="F306" t="s">
         <v>950</v>
@@ -10871,13 +10895,13 @@
         <v>951</v>
       </c>
       <c r="B307" t="s">
-        <v>818</v>
+        <v>650</v>
       </c>
       <c r="D307" t="s">
-        <v>819</v>
+        <v>651</v>
       </c>
       <c r="E307" t="s">
-        <v>820</v>
+        <v>652</v>
       </c>
       <c r="F307" t="s">
         <v>950</v>
@@ -10891,13 +10915,13 @@
         <v>951</v>
       </c>
       <c r="B308" t="s">
-        <v>821</v>
+        <v>653</v>
       </c>
       <c r="D308" t="s">
-        <v>822</v>
+        <v>654</v>
       </c>
       <c r="E308" t="s">
-        <v>823</v>
+        <v>655</v>
       </c>
       <c r="F308" t="s">
         <v>950</v>
@@ -10911,13 +10935,16 @@
         <v>951</v>
       </c>
       <c r="B309" t="s">
-        <v>824</v>
+        <v>924</v>
+      </c>
+      <c r="C309" t="s">
+        <v>925</v>
       </c>
       <c r="D309" t="s">
-        <v>825</v>
+        <v>926</v>
       </c>
       <c r="E309" t="s">
-        <v>826</v>
+        <v>927</v>
       </c>
       <c r="F309" t="s">
         <v>950</v>
@@ -10931,13 +10958,13 @@
         <v>951</v>
       </c>
       <c r="B310" t="s">
-        <v>827</v>
+        <v>656</v>
       </c>
       <c r="D310" t="s">
-        <v>828</v>
+        <v>657</v>
       </c>
       <c r="E310" t="s">
-        <v>829</v>
+        <v>658</v>
       </c>
       <c r="F310" t="s">
         <v>950</v>
@@ -10951,13 +10978,13 @@
         <v>951</v>
       </c>
       <c r="B311" t="s">
-        <v>830</v>
+        <v>659</v>
       </c>
       <c r="D311" t="s">
-        <v>831</v>
+        <v>660</v>
       </c>
       <c r="E311" t="s">
-        <v>832</v>
+        <v>661</v>
       </c>
       <c r="F311" t="s">
         <v>950</v>
@@ -10971,13 +10998,13 @@
         <v>951</v>
       </c>
       <c r="B312" t="s">
-        <v>833</v>
+        <v>662</v>
       </c>
       <c r="D312" t="s">
-        <v>834</v>
+        <v>663</v>
       </c>
       <c r="E312" t="s">
-        <v>835</v>
+        <v>664</v>
       </c>
       <c r="F312" t="s">
         <v>950</v>
@@ -10991,13 +11018,13 @@
         <v>951</v>
       </c>
       <c r="B313" t="s">
-        <v>836</v>
+        <v>665</v>
       </c>
       <c r="D313" t="s">
-        <v>837</v>
+        <v>666</v>
       </c>
       <c r="E313" t="s">
-        <v>838</v>
+        <v>667</v>
       </c>
       <c r="F313" t="s">
         <v>950</v>
@@ -11011,13 +11038,13 @@
         <v>951</v>
       </c>
       <c r="B314" t="s">
-        <v>839</v>
+        <v>668</v>
       </c>
       <c r="D314" t="s">
-        <v>840</v>
+        <v>669</v>
       </c>
       <c r="E314" t="s">
-        <v>841</v>
+        <v>670</v>
       </c>
       <c r="F314" t="s">
         <v>950</v>
@@ -11031,13 +11058,13 @@
         <v>951</v>
       </c>
       <c r="B315" t="s">
-        <v>842</v>
+        <v>671</v>
       </c>
       <c r="D315" t="s">
-        <v>843</v>
+        <v>672</v>
       </c>
       <c r="E315" t="s">
-        <v>844</v>
+        <v>673</v>
       </c>
       <c r="F315" t="s">
         <v>950</v>
@@ -11051,13 +11078,13 @@
         <v>951</v>
       </c>
       <c r="B316" t="s">
-        <v>845</v>
+        <v>674</v>
       </c>
       <c r="D316" t="s">
-        <v>846</v>
+        <v>675</v>
       </c>
       <c r="E316" t="s">
-        <v>847</v>
+        <v>676</v>
       </c>
       <c r="F316" t="s">
         <v>950</v>
@@ -11071,13 +11098,16 @@
         <v>951</v>
       </c>
       <c r="B317" t="s">
-        <v>848</v>
+        <v>934</v>
+      </c>
+      <c r="C317" t="s">
+        <v>935</v>
       </c>
       <c r="D317" t="s">
-        <v>849</v>
+        <v>936</v>
       </c>
       <c r="E317" t="s">
-        <v>850</v>
+        <v>937</v>
       </c>
       <c r="F317" t="s">
         <v>950</v>
@@ -11091,16 +11121,16 @@
         <v>951</v>
       </c>
       <c r="B318" t="s">
-        <v>920</v>
+        <v>995</v>
       </c>
       <c r="C318" t="s">
-        <v>921</v>
+        <v>996</v>
       </c>
       <c r="D318" t="s">
-        <v>922</v>
+        <v>997</v>
       </c>
       <c r="E318" t="s">
-        <v>923</v>
+        <v>998</v>
       </c>
       <c r="F318" t="s">
         <v>950</v>
@@ -11114,16 +11144,16 @@
         <v>951</v>
       </c>
       <c r="B319" t="s">
-        <v>851</v>
+        <v>1319</v>
       </c>
       <c r="D319" t="s">
-        <v>852</v>
+        <v>1320</v>
       </c>
       <c r="E319" t="s">
-        <v>853</v>
+        <v>1321</v>
       </c>
       <c r="F319" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G319" t="s">
         <v>952</v>
@@ -11134,13 +11164,13 @@
         <v>951</v>
       </c>
       <c r="B320" t="s">
-        <v>854</v>
+        <v>677</v>
       </c>
       <c r="D320" t="s">
-        <v>855</v>
+        <v>678</v>
       </c>
       <c r="E320" t="s">
-        <v>856</v>
+        <v>679</v>
       </c>
       <c r="F320" t="s">
         <v>950</v>
@@ -11154,13 +11184,13 @@
         <v>951</v>
       </c>
       <c r="B321" t="s">
-        <v>1032</v>
+        <v>680</v>
       </c>
       <c r="D321" t="s">
-        <v>1336</v>
+        <v>681</v>
       </c>
       <c r="E321" t="s">
-        <v>1396</v>
+        <v>682</v>
       </c>
       <c r="F321" t="s">
         <v>950</v>
@@ -11174,13 +11204,13 @@
         <v>951</v>
       </c>
       <c r="B322" t="s">
-        <v>857</v>
+        <v>683</v>
       </c>
       <c r="D322" t="s">
-        <v>858</v>
+        <v>684</v>
       </c>
       <c r="E322" t="s">
-        <v>859</v>
+        <v>685</v>
       </c>
       <c r="F322" t="s">
         <v>950</v>
@@ -11194,13 +11224,13 @@
         <v>951</v>
       </c>
       <c r="B323" t="s">
-        <v>1037</v>
+        <v>686</v>
       </c>
       <c r="D323" t="s">
-        <v>1018</v>
+        <v>687</v>
       </c>
       <c r="E323" t="s">
-        <v>1053</v>
+        <v>688</v>
       </c>
       <c r="F323" t="s">
         <v>950</v>
@@ -11214,13 +11244,13 @@
         <v>951</v>
       </c>
       <c r="B324" t="s">
-        <v>860</v>
+        <v>689</v>
       </c>
       <c r="D324" t="s">
-        <v>861</v>
+        <v>690</v>
       </c>
       <c r="E324" t="s">
-        <v>862</v>
+        <v>691</v>
       </c>
       <c r="F324" t="s">
         <v>950</v>
@@ -11234,13 +11264,13 @@
         <v>951</v>
       </c>
       <c r="B325" t="s">
-        <v>863</v>
+        <v>1034</v>
       </c>
       <c r="D325" t="s">
-        <v>864</v>
+        <v>1015</v>
       </c>
       <c r="E325" t="s">
-        <v>865</v>
+        <v>1050</v>
       </c>
       <c r="F325" t="s">
         <v>950</v>
@@ -11254,13 +11284,13 @@
         <v>951</v>
       </c>
       <c r="B326" t="s">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="D326" t="s">
-        <v>1010</v>
+        <v>1016</v>
       </c>
       <c r="E326" t="s">
-        <v>1046</v>
+        <v>1051</v>
       </c>
       <c r="F326" t="s">
         <v>950</v>
@@ -11274,16 +11304,16 @@
         <v>951</v>
       </c>
       <c r="B327" t="s">
-        <v>1030</v>
+        <v>1372</v>
       </c>
       <c r="D327" t="s">
-        <v>1011</v>
+        <v>1332</v>
       </c>
       <c r="E327" t="s">
-        <v>1047</v>
+        <v>1373</v>
       </c>
       <c r="F327" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G327" t="s">
         <v>952</v>
@@ -11294,13 +11324,13 @@
         <v>951</v>
       </c>
       <c r="B328" t="s">
-        <v>1397</v>
+        <v>1026</v>
       </c>
       <c r="D328" t="s">
-        <v>1326</v>
+        <v>1333</v>
       </c>
       <c r="E328" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="F328" t="s">
         <v>950</v>
@@ -11314,13 +11344,13 @@
         <v>951</v>
       </c>
       <c r="B329" t="s">
-        <v>1031</v>
+        <v>692</v>
       </c>
       <c r="D329" t="s">
-        <v>1012</v>
+        <v>693</v>
       </c>
       <c r="E329" t="s">
-        <v>1048</v>
+        <v>694</v>
       </c>
       <c r="F329" t="s">
         <v>950</v>
@@ -11334,13 +11364,13 @@
         <v>951</v>
       </c>
       <c r="B330" t="s">
-        <v>1400</v>
+        <v>695</v>
       </c>
       <c r="D330" t="s">
-        <v>1013</v>
+        <v>696</v>
       </c>
       <c r="E330" t="s">
-        <v>1399</v>
+        <v>697</v>
       </c>
       <c r="F330" t="s">
         <v>950</v>
@@ -11354,16 +11384,13 @@
         <v>951</v>
       </c>
       <c r="B331" t="s">
-        <v>972</v>
-      </c>
-      <c r="C331" t="s">
-        <v>973</v>
+        <v>698</v>
       </c>
       <c r="D331" t="s">
-        <v>974</v>
+        <v>699</v>
       </c>
       <c r="E331" t="s">
-        <v>975</v>
+        <v>700</v>
       </c>
       <c r="F331" t="s">
         <v>950</v>
@@ -11377,16 +11404,13 @@
         <v>951</v>
       </c>
       <c r="B332" t="s">
-        <v>908</v>
-      </c>
-      <c r="C332" t="s">
-        <v>909</v>
+        <v>701</v>
       </c>
       <c r="D332" t="s">
-        <v>910</v>
+        <v>702</v>
       </c>
       <c r="E332" t="s">
-        <v>911</v>
+        <v>703</v>
       </c>
       <c r="F332" t="s">
         <v>950</v>
@@ -11400,16 +11424,16 @@
         <v>951</v>
       </c>
       <c r="B333" t="s">
-        <v>1033</v>
+        <v>942</v>
       </c>
       <c r="C333" t="s">
-        <v>1062</v>
+        <v>943</v>
       </c>
       <c r="D333" t="s">
-        <v>1014</v>
+        <v>944</v>
       </c>
       <c r="E333" t="s">
-        <v>1049</v>
+        <v>945</v>
       </c>
       <c r="F333" t="s">
         <v>950</v>
@@ -11423,13 +11447,13 @@
         <v>951</v>
       </c>
       <c r="B334" t="s">
-        <v>866</v>
+        <v>704</v>
       </c>
       <c r="D334" t="s">
-        <v>867</v>
+        <v>705</v>
       </c>
       <c r="E334" t="s">
-        <v>868</v>
+        <v>706</v>
       </c>
       <c r="F334" t="s">
         <v>950</v>
@@ -11443,13 +11467,13 @@
         <v>951</v>
       </c>
       <c r="B335" t="s">
-        <v>869</v>
+        <v>707</v>
       </c>
       <c r="D335" t="s">
-        <v>870</v>
+        <v>708</v>
       </c>
       <c r="E335" t="s">
-        <v>871</v>
+        <v>709</v>
       </c>
       <c r="F335" t="s">
         <v>950</v>
@@ -11463,16 +11487,16 @@
         <v>951</v>
       </c>
       <c r="B336" t="s">
-        <v>872</v>
+        <v>1245</v>
       </c>
       <c r="D336" t="s">
-        <v>873</v>
+        <v>1246</v>
       </c>
       <c r="E336" t="s">
-        <v>874</v>
+        <v>1247</v>
       </c>
       <c r="F336" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G336" t="s">
         <v>952</v>
@@ -11483,16 +11507,16 @@
         <v>951</v>
       </c>
       <c r="B337" t="s">
-        <v>875</v>
+        <v>1248</v>
       </c>
       <c r="D337" t="s">
-        <v>876</v>
+        <v>1249</v>
       </c>
       <c r="E337" t="s">
-        <v>877</v>
+        <v>1250</v>
       </c>
       <c r="F337" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G337" t="s">
         <v>952</v>
@@ -11503,16 +11527,19 @@
         <v>951</v>
       </c>
       <c r="B338" t="s">
-        <v>878</v>
+        <v>1251</v>
+      </c>
+      <c r="C338" t="s">
+        <v>1252</v>
       </c>
       <c r="D338" t="s">
-        <v>879</v>
+        <v>1253</v>
       </c>
       <c r="E338" t="s">
-        <v>880</v>
+        <v>1254</v>
       </c>
       <c r="F338" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G338" t="s">
         <v>952</v>
@@ -11523,13 +11550,13 @@
         <v>951</v>
       </c>
       <c r="B339" t="s">
-        <v>881</v>
+        <v>710</v>
       </c>
       <c r="D339" t="s">
-        <v>882</v>
+        <v>711</v>
       </c>
       <c r="E339" t="s">
-        <v>883</v>
+        <v>712</v>
       </c>
       <c r="F339" t="s">
         <v>950</v>
@@ -11543,13 +11570,13 @@
         <v>951</v>
       </c>
       <c r="B340" t="s">
-        <v>884</v>
+        <v>713</v>
       </c>
       <c r="D340" t="s">
-        <v>885</v>
+        <v>714</v>
       </c>
       <c r="E340" t="s">
-        <v>886</v>
+        <v>715</v>
       </c>
       <c r="F340" t="s">
         <v>950</v>
@@ -11563,16 +11590,16 @@
         <v>951</v>
       </c>
       <c r="B341" t="s">
-        <v>887</v>
+        <v>1255</v>
       </c>
       <c r="D341" t="s">
-        <v>888</v>
+        <v>1256</v>
       </c>
       <c r="E341" t="s">
-        <v>889</v>
+        <v>1257</v>
       </c>
       <c r="F341" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G341" t="s">
         <v>952</v>
@@ -11583,13 +11610,13 @@
         <v>951</v>
       </c>
       <c r="B342" t="s">
-        <v>890</v>
+        <v>716</v>
       </c>
       <c r="D342" t="s">
-        <v>891</v>
+        <v>717</v>
       </c>
       <c r="E342" t="s">
-        <v>892</v>
+        <v>718</v>
       </c>
       <c r="F342" t="s">
         <v>950</v>
@@ -11603,16 +11630,16 @@
         <v>951</v>
       </c>
       <c r="B343" t="s">
-        <v>893</v>
+        <v>1258</v>
       </c>
       <c r="D343" t="s">
-        <v>894</v>
+        <v>1259</v>
       </c>
       <c r="E343" t="s">
-        <v>895</v>
+        <v>1260</v>
       </c>
       <c r="F343" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G343" t="s">
         <v>952</v>
@@ -11623,13 +11650,13 @@
         <v>951</v>
       </c>
       <c r="B344" t="s">
-        <v>896</v>
+        <v>719</v>
       </c>
       <c r="D344" t="s">
-        <v>897</v>
+        <v>720</v>
       </c>
       <c r="E344" t="s">
-        <v>898</v>
+        <v>721</v>
       </c>
       <c r="F344" t="s">
         <v>950</v>
@@ -11643,13 +11670,13 @@
         <v>951</v>
       </c>
       <c r="B345" t="s">
-        <v>899</v>
+        <v>722</v>
       </c>
       <c r="D345" t="s">
-        <v>900</v>
+        <v>723</v>
       </c>
       <c r="E345" t="s">
-        <v>901</v>
+        <v>724</v>
       </c>
       <c r="F345" t="s">
         <v>950</v>
@@ -11663,16 +11690,19 @@
         <v>951</v>
       </c>
       <c r="B346" t="s">
-        <v>902</v>
+        <v>1261</v>
+      </c>
+      <c r="C346" t="s">
+        <v>1262</v>
       </c>
       <c r="D346" t="s">
-        <v>903</v>
+        <v>1263</v>
       </c>
       <c r="E346" t="s">
-        <v>904</v>
+        <v>1264</v>
       </c>
       <c r="F346" t="s">
-        <v>950</v>
+        <v>1066</v>
       </c>
       <c r="G346" t="s">
         <v>952</v>
@@ -11683,13 +11713,13 @@
         <v>951</v>
       </c>
       <c r="B347" t="s">
-        <v>905</v>
+        <v>725</v>
       </c>
       <c r="D347" t="s">
-        <v>906</v>
+        <v>726</v>
       </c>
       <c r="E347" t="s">
-        <v>907</v>
+        <v>727</v>
       </c>
       <c r="F347" t="s">
         <v>950</v>
@@ -11699,17 +11729,17 @@
       </c>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="3" t="s">
+      <c r="A348" t="s">
         <v>951</v>
       </c>
       <c r="B348" t="s">
-        <v>1063</v>
+        <v>1265</v>
       </c>
       <c r="D348" t="s">
-        <v>1064</v>
+        <v>1266</v>
       </c>
       <c r="E348" t="s">
-        <v>1065</v>
+        <v>1267</v>
       </c>
       <c r="F348" t="s">
         <v>1066</v>
@@ -11723,16 +11753,16 @@
         <v>951</v>
       </c>
       <c r="B349" t="s">
-        <v>1067</v>
+        <v>728</v>
       </c>
       <c r="D349" t="s">
-        <v>1068</v>
+        <v>729</v>
       </c>
       <c r="E349" t="s">
-        <v>1069</v>
+        <v>730</v>
       </c>
       <c r="F349" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G349" t="s">
         <v>952</v>
@@ -11743,16 +11773,19 @@
         <v>951</v>
       </c>
       <c r="B350" t="s">
-        <v>1070</v>
+        <v>1027</v>
+      </c>
+      <c r="C350" t="s">
+        <v>1060</v>
       </c>
       <c r="D350" t="s">
-        <v>1071</v>
+        <v>1008</v>
       </c>
       <c r="E350" t="s">
-        <v>1072</v>
+        <v>1044</v>
       </c>
       <c r="F350" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G350" t="s">
         <v>952</v>
@@ -11763,16 +11796,16 @@
         <v>951</v>
       </c>
       <c r="B351" t="s">
-        <v>1073</v>
+        <v>731</v>
       </c>
       <c r="D351" t="s">
-        <v>1074</v>
+        <v>732</v>
       </c>
       <c r="E351" t="s">
-        <v>1075</v>
+        <v>733</v>
       </c>
       <c r="F351" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G351" t="s">
         <v>952</v>
@@ -11783,16 +11816,16 @@
         <v>951</v>
       </c>
       <c r="B352" t="s">
-        <v>1076</v>
+        <v>734</v>
       </c>
       <c r="D352" t="s">
-        <v>1077</v>
+        <v>735</v>
       </c>
       <c r="E352" t="s">
-        <v>1078</v>
+        <v>736</v>
       </c>
       <c r="F352" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G352" t="s">
         <v>952</v>
@@ -11803,33 +11836,33 @@
         <v>951</v>
       </c>
       <c r="B353" t="s">
-        <v>1350</v>
+        <v>737</v>
       </c>
       <c r="D353" t="s">
-        <v>1337</v>
+        <v>738</v>
       </c>
       <c r="E353" t="s">
-        <v>1351</v>
+        <v>739</v>
       </c>
       <c r="F353" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G353" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="3" t="s">
+      <c r="A354" t="s">
         <v>951</v>
       </c>
       <c r="B354" t="s">
-        <v>1079</v>
+        <v>1268</v>
       </c>
       <c r="D354" t="s">
-        <v>1080</v>
+        <v>1269</v>
       </c>
       <c r="E354" t="s">
-        <v>1081</v>
+        <v>1270</v>
       </c>
       <c r="F354" t="s">
         <v>1066</v>
@@ -11843,13 +11876,13 @@
         <v>951</v>
       </c>
       <c r="B355" t="s">
-        <v>1082</v>
+        <v>1271</v>
       </c>
       <c r="D355" t="s">
-        <v>1083</v>
+        <v>1272</v>
       </c>
       <c r="E355" t="s">
-        <v>1084</v>
+        <v>1273</v>
       </c>
       <c r="F355" t="s">
         <v>1066</v>
@@ -11863,13 +11896,13 @@
         <v>951</v>
       </c>
       <c r="B356" t="s">
-        <v>1085</v>
+        <v>1374</v>
       </c>
       <c r="D356" t="s">
-        <v>1086</v>
+        <v>1338</v>
       </c>
       <c r="E356" t="s">
-        <v>1087</v>
+        <v>1375</v>
       </c>
       <c r="F356" t="s">
         <v>1066</v>
@@ -11879,17 +11912,17 @@
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="3" t="s">
+      <c r="A357" t="s">
         <v>951</v>
       </c>
       <c r="B357" t="s">
-        <v>1088</v>
+        <v>1274</v>
       </c>
       <c r="D357" t="s">
-        <v>1089</v>
+        <v>1275</v>
       </c>
       <c r="E357" t="s">
-        <v>1090</v>
+        <v>1276</v>
       </c>
       <c r="F357" t="s">
         <v>1066</v>
@@ -11903,13 +11936,13 @@
         <v>951</v>
       </c>
       <c r="B358" t="s">
-        <v>1091</v>
+        <v>1277</v>
       </c>
       <c r="D358" t="s">
-        <v>1092</v>
+        <v>1278</v>
       </c>
       <c r="E358" t="s">
-        <v>1093</v>
+        <v>1279</v>
       </c>
       <c r="F358" t="s">
         <v>1066</v>
@@ -11923,16 +11956,13 @@
         <v>951</v>
       </c>
       <c r="B359" t="s">
-        <v>1094</v>
-      </c>
-      <c r="C359" t="s">
-        <v>1095</v>
+        <v>1280</v>
       </c>
       <c r="D359" t="s">
-        <v>1096</v>
+        <v>1281</v>
       </c>
       <c r="E359" t="s">
-        <v>1097</v>
+        <v>1282</v>
       </c>
       <c r="F359" t="s">
         <v>1066</v>
@@ -11946,16 +11976,13 @@
         <v>951</v>
       </c>
       <c r="B360" t="s">
-        <v>1098</v>
-      </c>
-      <c r="C360" t="s">
-        <v>1099</v>
+        <v>1376</v>
       </c>
       <c r="D360" t="s">
-        <v>1100</v>
+        <v>1345</v>
       </c>
       <c r="E360" t="s">
-        <v>1101</v>
+        <v>1377</v>
       </c>
       <c r="F360" t="s">
         <v>1066</v>
@@ -11969,36 +11996,36 @@
         <v>951</v>
       </c>
       <c r="B361" t="s">
-        <v>1102</v>
+        <v>740</v>
       </c>
       <c r="D361" t="s">
-        <v>1103</v>
+        <v>741</v>
       </c>
       <c r="E361" t="s">
-        <v>1104</v>
+        <v>742</v>
       </c>
       <c r="F361" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G361" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="3" t="s">
+      <c r="A362" t="s">
         <v>951</v>
       </c>
       <c r="B362" t="s">
-        <v>1105</v>
+        <v>743</v>
       </c>
       <c r="D362" t="s">
-        <v>1106</v>
+        <v>744</v>
       </c>
       <c r="E362" t="s">
-        <v>1107</v>
+        <v>745</v>
       </c>
       <c r="F362" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G362" t="s">
         <v>952</v>
@@ -12009,16 +12036,19 @@
         <v>951</v>
       </c>
       <c r="B363" t="s">
-        <v>1108</v>
+        <v>1028</v>
+      </c>
+      <c r="C363" t="s">
+        <v>1061</v>
       </c>
       <c r="D363" t="s">
-        <v>1109</v>
+        <v>1009</v>
       </c>
       <c r="E363" t="s">
-        <v>1110</v>
+        <v>1045</v>
       </c>
       <c r="F363" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G363" t="s">
         <v>952</v>
@@ -12029,39 +12059,36 @@
         <v>951</v>
       </c>
       <c r="B364" t="s">
-        <v>1111</v>
-      </c>
-      <c r="C364" t="s">
-        <v>1112</v>
+        <v>746</v>
       </c>
       <c r="D364" t="s">
-        <v>1113</v>
+        <v>747</v>
       </c>
       <c r="E364" t="s">
-        <v>1114</v>
+        <v>748</v>
       </c>
       <c r="F364" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G364" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="3" t="s">
+      <c r="A365" t="s">
         <v>951</v>
       </c>
       <c r="B365" t="s">
-        <v>1115</v>
+        <v>749</v>
       </c>
       <c r="D365" t="s">
-        <v>1116</v>
+        <v>750</v>
       </c>
       <c r="E365" t="s">
-        <v>1117</v>
+        <v>751</v>
       </c>
       <c r="F365" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G365" t="s">
         <v>952</v>
@@ -12072,16 +12099,16 @@
         <v>951</v>
       </c>
       <c r="B366" t="s">
-        <v>1352</v>
+        <v>752</v>
       </c>
       <c r="D366" t="s">
-        <v>1341</v>
+        <v>753</v>
       </c>
       <c r="E366" t="s">
-        <v>1353</v>
+        <v>754</v>
       </c>
       <c r="F366" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G366" t="s">
         <v>952</v>
@@ -12092,19 +12119,16 @@
         <v>951</v>
       </c>
       <c r="B367" t="s">
-        <v>1118</v>
-      </c>
-      <c r="C367" t="s">
-        <v>1119</v>
+        <v>755</v>
       </c>
       <c r="D367" t="s">
-        <v>1120</v>
+        <v>756</v>
       </c>
       <c r="E367" t="s">
-        <v>1121</v>
+        <v>757</v>
       </c>
       <c r="F367" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G367" t="s">
         <v>952</v>
@@ -12115,16 +12139,16 @@
         <v>951</v>
       </c>
       <c r="B368" t="s">
-        <v>1122</v>
+        <v>758</v>
       </c>
       <c r="D368" t="s">
-        <v>1123</v>
+        <v>759</v>
       </c>
       <c r="E368" t="s">
-        <v>1124</v>
+        <v>760</v>
       </c>
       <c r="F368" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G368" t="s">
         <v>952</v>
@@ -12135,16 +12159,16 @@
         <v>951</v>
       </c>
       <c r="B369" t="s">
-        <v>1125</v>
+        <v>761</v>
       </c>
       <c r="D369" t="s">
-        <v>1126</v>
+        <v>762</v>
       </c>
       <c r="E369" t="s">
-        <v>1127</v>
+        <v>763</v>
       </c>
       <c r="F369" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G369" t="s">
         <v>952</v>
@@ -12155,16 +12179,16 @@
         <v>951</v>
       </c>
       <c r="B370" t="s">
-        <v>1128</v>
+        <v>764</v>
       </c>
       <c r="D370" t="s">
-        <v>1129</v>
+        <v>765</v>
       </c>
       <c r="E370" t="s">
-        <v>1130</v>
+        <v>766</v>
       </c>
       <c r="F370" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G370" t="s">
         <v>952</v>
@@ -12175,16 +12199,16 @@
         <v>951</v>
       </c>
       <c r="B371" t="s">
-        <v>1354</v>
+        <v>767</v>
       </c>
       <c r="D371" t="s">
-        <v>1339</v>
+        <v>768</v>
       </c>
       <c r="E371" t="s">
-        <v>1355</v>
+        <v>769</v>
       </c>
       <c r="F371" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G371" t="s">
         <v>952</v>
@@ -12195,16 +12219,19 @@
         <v>951</v>
       </c>
       <c r="B372" t="s">
-        <v>1356</v>
+        <v>976</v>
+      </c>
+      <c r="C372" t="s">
+        <v>977</v>
       </c>
       <c r="D372" t="s">
-        <v>1322</v>
+        <v>978</v>
       </c>
       <c r="E372" t="s">
-        <v>1357</v>
+        <v>979</v>
       </c>
       <c r="F372" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G372" t="s">
         <v>952</v>
@@ -12215,16 +12242,16 @@
         <v>951</v>
       </c>
       <c r="B373" t="s">
-        <v>1131</v>
+        <v>770</v>
       </c>
       <c r="D373" t="s">
-        <v>1132</v>
+        <v>771</v>
       </c>
       <c r="E373" t="s">
-        <v>1133</v>
+        <v>772</v>
       </c>
       <c r="F373" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G373" t="s">
         <v>952</v>
@@ -12235,13 +12262,13 @@
         <v>951</v>
       </c>
       <c r="B374" t="s">
-        <v>1134</v>
+        <v>1378</v>
       </c>
       <c r="D374" t="s">
-        <v>1135</v>
+        <v>1346</v>
       </c>
       <c r="E374" t="s">
-        <v>1136</v>
+        <v>1379</v>
       </c>
       <c r="F374" t="s">
         <v>1066</v>
@@ -12255,13 +12282,16 @@
         <v>951</v>
       </c>
       <c r="B375" t="s">
-        <v>1358</v>
+        <v>1283</v>
+      </c>
+      <c r="C375" t="s">
+        <v>1284</v>
       </c>
       <c r="D375" t="s">
-        <v>1323</v>
+        <v>1285</v>
       </c>
       <c r="E375" t="s">
-        <v>1359</v>
+        <v>1286</v>
       </c>
       <c r="F375" t="s">
         <v>1066</v>
@@ -12275,19 +12305,16 @@
         <v>951</v>
       </c>
       <c r="B376" t="s">
-        <v>1137</v>
-      </c>
-      <c r="C376" t="s">
-        <v>1138</v>
+        <v>773</v>
       </c>
       <c r="D376" t="s">
-        <v>1139</v>
+        <v>774</v>
       </c>
       <c r="E376" t="s">
-        <v>1140</v>
+        <v>775</v>
       </c>
       <c r="F376" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G376" t="s">
         <v>952</v>
@@ -12298,13 +12325,13 @@
         <v>951</v>
       </c>
       <c r="B377" t="s">
-        <v>1360</v>
-      </c>
-      <c r="D377" t="s">
-        <v>1324</v>
-      </c>
-      <c r="E377" t="s">
-        <v>1361</v>
+        <v>1380</v>
+      </c>
+      <c r="D377" s="2" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E377" s="2" t="s">
+        <v>1382</v>
       </c>
       <c r="F377" t="s">
         <v>1066</v>
@@ -12314,20 +12341,20 @@
       </c>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="3" t="s">
+      <c r="A378" t="s">
         <v>951</v>
       </c>
       <c r="B378" t="s">
-        <v>1141</v>
+        <v>776</v>
       </c>
       <c r="D378" t="s">
-        <v>1142</v>
+        <v>777</v>
       </c>
       <c r="E378" t="s">
-        <v>1143</v>
+        <v>778</v>
       </c>
       <c r="F378" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G378" t="s">
         <v>952</v>
@@ -12338,13 +12365,13 @@
         <v>951</v>
       </c>
       <c r="B379" t="s">
-        <v>1144</v>
+        <v>1383</v>
       </c>
       <c r="D379" t="s">
-        <v>1145</v>
+        <v>1334</v>
       </c>
       <c r="E379" t="s">
-        <v>1146</v>
+        <v>1384</v>
       </c>
       <c r="F379" t="s">
         <v>1066</v>
@@ -12358,16 +12385,16 @@
         <v>951</v>
       </c>
       <c r="B380" t="s">
-        <v>1147</v>
+        <v>779</v>
       </c>
       <c r="D380" t="s">
-        <v>1148</v>
+        <v>780</v>
       </c>
       <c r="E380" t="s">
-        <v>1149</v>
+        <v>781</v>
       </c>
       <c r="F380" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G380" t="s">
         <v>952</v>
@@ -12378,16 +12405,16 @@
         <v>951</v>
       </c>
       <c r="B381" t="s">
-        <v>1150</v>
+        <v>782</v>
       </c>
       <c r="D381" t="s">
-        <v>1151</v>
+        <v>783</v>
       </c>
       <c r="E381" t="s">
-        <v>1152</v>
+        <v>784</v>
       </c>
       <c r="F381" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G381" t="s">
         <v>952</v>
@@ -12398,16 +12425,16 @@
         <v>951</v>
       </c>
       <c r="B382" t="s">
-        <v>1362</v>
+        <v>785</v>
       </c>
       <c r="D382" t="s">
-        <v>1327</v>
+        <v>786</v>
       </c>
       <c r="E382" t="s">
-        <v>1363</v>
+        <v>787</v>
       </c>
       <c r="F382" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G382" t="s">
         <v>952</v>
@@ -12418,16 +12445,16 @@
         <v>951</v>
       </c>
       <c r="B383" t="s">
-        <v>1364</v>
+        <v>788</v>
       </c>
       <c r="D383" t="s">
-        <v>1342</v>
+        <v>789</v>
       </c>
       <c r="E383" t="s">
-        <v>1365</v>
+        <v>790</v>
       </c>
       <c r="F383" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G383" t="s">
         <v>952</v>
@@ -12438,16 +12465,16 @@
         <v>951</v>
       </c>
       <c r="B384" t="s">
-        <v>1153</v>
+        <v>791</v>
       </c>
       <c r="D384" t="s">
-        <v>1154</v>
+        <v>792</v>
       </c>
       <c r="E384" t="s">
-        <v>1155</v>
+        <v>793</v>
       </c>
       <c r="F384" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G384" t="s">
         <v>952</v>
@@ -12458,13 +12485,13 @@
         <v>951</v>
       </c>
       <c r="B385" t="s">
-        <v>1366</v>
+        <v>1385</v>
       </c>
       <c r="D385" t="s">
-        <v>1343</v>
+        <v>1335</v>
       </c>
       <c r="E385" t="s">
-        <v>1367</v>
+        <v>1386</v>
       </c>
       <c r="F385" t="s">
         <v>1066</v>
@@ -12474,20 +12501,20 @@
       </c>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="3" t="s">
+      <c r="A386" t="s">
         <v>951</v>
       </c>
       <c r="B386" t="s">
-        <v>1156</v>
+        <v>794</v>
       </c>
       <c r="D386" t="s">
-        <v>1157</v>
+        <v>795</v>
       </c>
       <c r="E386" t="s">
-        <v>1158</v>
+        <v>796</v>
       </c>
       <c r="F386" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G386" t="s">
         <v>952</v>
@@ -12498,16 +12525,16 @@
         <v>951</v>
       </c>
       <c r="B387" t="s">
-        <v>1159</v>
+        <v>797</v>
       </c>
       <c r="D387" t="s">
-        <v>1160</v>
+        <v>798</v>
       </c>
       <c r="E387" t="s">
-        <v>1161</v>
+        <v>799</v>
       </c>
       <c r="F387" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G387" t="s">
         <v>952</v>
@@ -12518,36 +12545,36 @@
         <v>951</v>
       </c>
       <c r="B388" t="s">
-        <v>1162</v>
+        <v>800</v>
       </c>
       <c r="D388" t="s">
-        <v>1163</v>
+        <v>801</v>
       </c>
       <c r="E388" t="s">
-        <v>1164</v>
+        <v>802</v>
       </c>
       <c r="F388" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G388" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="3" t="s">
+      <c r="A389" t="s">
         <v>951</v>
       </c>
       <c r="B389" t="s">
-        <v>1165</v>
+        <v>803</v>
       </c>
       <c r="D389" t="s">
-        <v>1166</v>
+        <v>804</v>
       </c>
       <c r="E389" t="s">
-        <v>1167</v>
+        <v>805</v>
       </c>
       <c r="F389" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G389" t="s">
         <v>952</v>
@@ -12558,16 +12585,13 @@
         <v>951</v>
       </c>
       <c r="B390" t="s">
-        <v>1168</v>
-      </c>
-      <c r="C390" t="s">
-        <v>1169</v>
+        <v>1387</v>
       </c>
       <c r="D390" t="s">
-        <v>1170</v>
+        <v>1347</v>
       </c>
       <c r="E390" t="s">
-        <v>1171</v>
+        <v>1388</v>
       </c>
       <c r="F390" t="s">
         <v>1066</v>
@@ -12581,19 +12605,16 @@
         <v>951</v>
       </c>
       <c r="B391" t="s">
-        <v>1172</v>
-      </c>
-      <c r="C391" t="s">
-        <v>1173</v>
+        <v>806</v>
       </c>
       <c r="D391" t="s">
-        <v>1174</v>
+        <v>807</v>
       </c>
       <c r="E391" t="s">
-        <v>1175</v>
+        <v>808</v>
       </c>
       <c r="F391" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G391" t="s">
         <v>952</v>
@@ -12604,16 +12625,16 @@
         <v>951</v>
       </c>
       <c r="B392" t="s">
-        <v>1176</v>
+        <v>1287</v>
       </c>
       <c r="C392" t="s">
-        <v>1177</v>
+        <v>1288</v>
       </c>
       <c r="D392" t="s">
-        <v>1178</v>
+        <v>1289</v>
       </c>
       <c r="E392" t="s">
-        <v>1179</v>
+        <v>1290</v>
       </c>
       <c r="F392" t="s">
         <v>1066</v>
@@ -12623,20 +12644,20 @@
       </c>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="3" t="s">
+      <c r="A393" t="s">
         <v>951</v>
       </c>
       <c r="B393" t="s">
-        <v>1181</v>
+        <v>809</v>
       </c>
       <c r="D393" t="s">
-        <v>1182</v>
+        <v>810</v>
       </c>
       <c r="E393" t="s">
-        <v>1183</v>
+        <v>811</v>
       </c>
       <c r="F393" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G393" t="s">
         <v>952</v>
@@ -12647,16 +12668,16 @@
         <v>951</v>
       </c>
       <c r="B394" t="s">
-        <v>1184</v>
+        <v>812</v>
       </c>
       <c r="D394" t="s">
-        <v>1185</v>
+        <v>813</v>
       </c>
       <c r="E394" t="s">
-        <v>1186</v>
+        <v>814</v>
       </c>
       <c r="F394" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G394" t="s">
         <v>952</v>
@@ -12667,16 +12688,16 @@
         <v>951</v>
       </c>
       <c r="B395" t="s">
-        <v>1187</v>
+        <v>815</v>
       </c>
       <c r="D395" t="s">
-        <v>1188</v>
+        <v>816</v>
       </c>
       <c r="E395" t="s">
-        <v>1189</v>
+        <v>817</v>
       </c>
       <c r="F395" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G395" t="s">
         <v>952</v>
@@ -12687,16 +12708,16 @@
         <v>951</v>
       </c>
       <c r="B396" t="s">
-        <v>1190</v>
+        <v>818</v>
       </c>
       <c r="D396" t="s">
-        <v>1191</v>
+        <v>819</v>
       </c>
       <c r="E396" t="s">
-        <v>1192</v>
+        <v>820</v>
       </c>
       <c r="F396" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G396" t="s">
         <v>952</v>
@@ -12707,19 +12728,16 @@
         <v>951</v>
       </c>
       <c r="B397" t="s">
-        <v>1193</v>
-      </c>
-      <c r="C397" t="s">
-        <v>1194</v>
+        <v>821</v>
       </c>
       <c r="D397" t="s">
-        <v>1195</v>
+        <v>822</v>
       </c>
       <c r="E397" t="s">
-        <v>1196</v>
+        <v>823</v>
       </c>
       <c r="F397" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G397" t="s">
         <v>952</v>
@@ -12730,19 +12748,16 @@
         <v>951</v>
       </c>
       <c r="B398" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C398" t="s">
-        <v>1198</v>
+        <v>824</v>
       </c>
       <c r="D398" t="s">
-        <v>1199</v>
+        <v>825</v>
       </c>
       <c r="E398" t="s">
-        <v>1200</v>
+        <v>826</v>
       </c>
       <c r="F398" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G398" t="s">
         <v>952</v>
@@ -12753,33 +12768,33 @@
         <v>951</v>
       </c>
       <c r="B399" t="s">
-        <v>1201</v>
+        <v>827</v>
       </c>
       <c r="D399" t="s">
-        <v>1202</v>
+        <v>828</v>
       </c>
       <c r="E399" t="s">
-        <v>1203</v>
+        <v>829</v>
       </c>
       <c r="F399" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G399" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="3" t="s">
+      <c r="A400" t="s">
         <v>951</v>
       </c>
       <c r="B400" t="s">
-        <v>1204</v>
+        <v>1291</v>
       </c>
       <c r="D400" t="s">
-        <v>1205</v>
+        <v>1292</v>
       </c>
       <c r="E400" t="s">
-        <v>1206</v>
+        <v>1293</v>
       </c>
       <c r="F400" t="s">
         <v>1066</v>
@@ -12793,16 +12808,16 @@
         <v>951</v>
       </c>
       <c r="B401" t="s">
-        <v>1207</v>
+        <v>830</v>
       </c>
       <c r="D401" t="s">
-        <v>1208</v>
+        <v>831</v>
       </c>
       <c r="E401" t="s">
-        <v>1209</v>
+        <v>832</v>
       </c>
       <c r="F401" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G401" t="s">
         <v>952</v>
@@ -12813,13 +12828,13 @@
         <v>951</v>
       </c>
       <c r="B402" t="s">
-        <v>1210</v>
+        <v>1294</v>
       </c>
       <c r="D402" t="s">
-        <v>1211</v>
+        <v>1295</v>
       </c>
       <c r="E402" t="s">
-        <v>1212</v>
+        <v>1296</v>
       </c>
       <c r="F402" t="s">
         <v>1066</v>
@@ -12833,16 +12848,16 @@
         <v>951</v>
       </c>
       <c r="B403" t="s">
-        <v>1213</v>
+        <v>833</v>
       </c>
       <c r="D403" t="s">
-        <v>1214</v>
+        <v>834</v>
       </c>
       <c r="E403" t="s">
-        <v>1215</v>
+        <v>835</v>
       </c>
       <c r="F403" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G403" t="s">
         <v>952</v>
@@ -12853,19 +12868,16 @@
         <v>951</v>
       </c>
       <c r="B404" t="s">
-        <v>1216</v>
-      </c>
-      <c r="C404" t="s">
-        <v>1217</v>
+        <v>836</v>
       </c>
       <c r="D404" t="s">
-        <v>1218</v>
+        <v>837</v>
       </c>
       <c r="E404" t="s">
-        <v>1219</v>
+        <v>838</v>
       </c>
       <c r="F404" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G404" t="s">
         <v>952</v>
@@ -12876,19 +12888,16 @@
         <v>951</v>
       </c>
       <c r="B405" t="s">
-        <v>1220</v>
-      </c>
-      <c r="C405" t="s">
-        <v>1221</v>
+        <v>839</v>
       </c>
       <c r="D405" t="s">
-        <v>1222</v>
+        <v>840</v>
       </c>
       <c r="E405" t="s">
-        <v>1223</v>
+        <v>841</v>
       </c>
       <c r="F405" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G405" t="s">
         <v>952</v>
@@ -12899,16 +12908,13 @@
         <v>951</v>
       </c>
       <c r="B406" t="s">
-        <v>1224</v>
-      </c>
-      <c r="C406" t="s">
-        <v>1225</v>
+        <v>1316</v>
       </c>
       <c r="D406" t="s">
-        <v>1226</v>
+        <v>1317</v>
       </c>
       <c r="E406" t="s">
-        <v>1227</v>
+        <v>1318</v>
       </c>
       <c r="F406" t="s">
         <v>1066</v>
@@ -12922,13 +12928,16 @@
         <v>951</v>
       </c>
       <c r="B407" t="s">
-        <v>1368</v>
+        <v>1297</v>
+      </c>
+      <c r="C407" t="s">
+        <v>1298</v>
       </c>
       <c r="D407" t="s">
-        <v>1328</v>
+        <v>1299</v>
       </c>
       <c r="E407" t="s">
-        <v>1369</v>
+        <v>1300</v>
       </c>
       <c r="F407" t="s">
         <v>1066</v>
@@ -12942,19 +12951,16 @@
         <v>951</v>
       </c>
       <c r="B408" t="s">
-        <v>1228</v>
-      </c>
-      <c r="C408" t="s">
-        <v>1229</v>
+        <v>842</v>
       </c>
       <c r="D408" t="s">
-        <v>1230</v>
+        <v>843</v>
       </c>
       <c r="E408" t="s">
-        <v>1231</v>
+        <v>844</v>
       </c>
       <c r="F408" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G408" t="s">
         <v>952</v>
@@ -12965,16 +12971,16 @@
         <v>951</v>
       </c>
       <c r="B409" t="s">
-        <v>1232</v>
+        <v>845</v>
       </c>
       <c r="D409" t="s">
-        <v>1233</v>
+        <v>846</v>
       </c>
       <c r="E409" t="s">
-        <v>1234</v>
+        <v>847</v>
       </c>
       <c r="F409" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G409" t="s">
         <v>952</v>
@@ -12985,16 +12991,16 @@
         <v>951</v>
       </c>
       <c r="B410" t="s">
-        <v>1370</v>
-      </c>
-      <c r="D410" s="2" t="s">
-        <v>1344</v>
-      </c>
-      <c r="E410" s="2" t="s">
-        <v>1371</v>
+        <v>848</v>
+      </c>
+      <c r="D410" t="s">
+        <v>849</v>
+      </c>
+      <c r="E410" t="s">
+        <v>850</v>
       </c>
       <c r="F410" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G410" t="s">
         <v>952</v>
@@ -13005,19 +13011,19 @@
         <v>951</v>
       </c>
       <c r="B411" t="s">
-        <v>1235</v>
+        <v>920</v>
       </c>
       <c r="C411" t="s">
-        <v>1236</v>
+        <v>921</v>
       </c>
       <c r="D411" t="s">
-        <v>1237</v>
+        <v>922</v>
       </c>
       <c r="E411" t="s">
-        <v>1238</v>
+        <v>923</v>
       </c>
       <c r="F411" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G411" t="s">
         <v>952</v>
@@ -13028,16 +13034,16 @@
         <v>951</v>
       </c>
       <c r="B412" t="s">
-        <v>1239</v>
+        <v>851</v>
       </c>
       <c r="D412" t="s">
-        <v>1240</v>
+        <v>852</v>
       </c>
       <c r="E412" t="s">
-        <v>1241</v>
+        <v>853</v>
       </c>
       <c r="F412" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G412" t="s">
         <v>952</v>
@@ -13048,16 +13054,16 @@
         <v>951</v>
       </c>
       <c r="B413" t="s">
-        <v>1242</v>
+        <v>854</v>
       </c>
       <c r="D413" t="s">
-        <v>1243</v>
+        <v>855</v>
       </c>
       <c r="E413" t="s">
-        <v>1244</v>
+        <v>856</v>
       </c>
       <c r="F413" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G413" t="s">
         <v>952</v>
@@ -13068,16 +13074,16 @@
         <v>951</v>
       </c>
       <c r="B414" t="s">
-        <v>1319</v>
+        <v>1032</v>
       </c>
       <c r="D414" t="s">
-        <v>1320</v>
+        <v>1336</v>
       </c>
       <c r="E414" t="s">
-        <v>1321</v>
+        <v>1396</v>
       </c>
       <c r="F414" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G414" t="s">
         <v>952</v>
@@ -13088,16 +13094,16 @@
         <v>951</v>
       </c>
       <c r="B415" t="s">
-        <v>1372</v>
+        <v>857</v>
       </c>
       <c r="D415" t="s">
-        <v>1332</v>
+        <v>858</v>
       </c>
       <c r="E415" t="s">
-        <v>1373</v>
+        <v>859</v>
       </c>
       <c r="F415" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G415" t="s">
         <v>952</v>
@@ -13108,16 +13114,16 @@
         <v>951</v>
       </c>
       <c r="B416" t="s">
-        <v>1245</v>
+        <v>1037</v>
       </c>
       <c r="D416" t="s">
-        <v>1246</v>
+        <v>1018</v>
       </c>
       <c r="E416" t="s">
-        <v>1247</v>
+        <v>1053</v>
       </c>
       <c r="F416" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G416" t="s">
         <v>952</v>
@@ -13128,13 +13134,13 @@
         <v>951</v>
       </c>
       <c r="B417" t="s">
-        <v>1248</v>
-      </c>
-      <c r="D417" t="s">
-        <v>1249</v>
-      </c>
-      <c r="E417" t="s">
-        <v>1250</v>
+        <v>1389</v>
+      </c>
+      <c r="D417" s="2" t="s">
+        <v>1348</v>
+      </c>
+      <c r="E417" s="2" t="s">
+        <v>1390</v>
       </c>
       <c r="F417" t="s">
         <v>1066</v>
@@ -13148,16 +13154,13 @@
         <v>951</v>
       </c>
       <c r="B418" t="s">
-        <v>1251</v>
-      </c>
-      <c r="C418" t="s">
-        <v>1252</v>
+        <v>1301</v>
       </c>
       <c r="D418" t="s">
-        <v>1253</v>
+        <v>1302</v>
       </c>
       <c r="E418" t="s">
-        <v>1254</v>
+        <v>1303</v>
       </c>
       <c r="F418" t="s">
         <v>1066</v>
@@ -13171,16 +13174,16 @@
         <v>951</v>
       </c>
       <c r="B419" t="s">
-        <v>1255</v>
+        <v>860</v>
       </c>
       <c r="D419" t="s">
-        <v>1256</v>
+        <v>861</v>
       </c>
       <c r="E419" t="s">
-        <v>1257</v>
+        <v>862</v>
       </c>
       <c r="F419" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G419" t="s">
         <v>952</v>
@@ -13191,16 +13194,16 @@
         <v>951</v>
       </c>
       <c r="B420" t="s">
-        <v>1258</v>
+        <v>863</v>
       </c>
       <c r="D420" t="s">
-        <v>1259</v>
+        <v>864</v>
       </c>
       <c r="E420" t="s">
-        <v>1260</v>
+        <v>865</v>
       </c>
       <c r="F420" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G420" t="s">
         <v>952</v>
@@ -13211,19 +13214,16 @@
         <v>951</v>
       </c>
       <c r="B421" t="s">
-        <v>1261</v>
-      </c>
-      <c r="C421" t="s">
-        <v>1262</v>
+        <v>1029</v>
       </c>
       <c r="D421" t="s">
-        <v>1263</v>
+        <v>1010</v>
       </c>
       <c r="E421" t="s">
-        <v>1264</v>
+        <v>1046</v>
       </c>
       <c r="F421" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G421" t="s">
         <v>952</v>
@@ -13234,16 +13234,16 @@
         <v>951</v>
       </c>
       <c r="B422" t="s">
-        <v>1265</v>
+        <v>1030</v>
       </c>
       <c r="D422" t="s">
-        <v>1266</v>
+        <v>1011</v>
       </c>
       <c r="E422" t="s">
-        <v>1267</v>
+        <v>1047</v>
       </c>
       <c r="F422" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G422" t="s">
         <v>952</v>
@@ -13254,16 +13254,16 @@
         <v>951</v>
       </c>
       <c r="B423" t="s">
-        <v>1268</v>
+        <v>1397</v>
       </c>
       <c r="D423" t="s">
-        <v>1269</v>
+        <v>1326</v>
       </c>
       <c r="E423" t="s">
-        <v>1270</v>
+        <v>1398</v>
       </c>
       <c r="F423" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G423" t="s">
         <v>952</v>
@@ -13274,13 +13274,13 @@
         <v>951</v>
       </c>
       <c r="B424" t="s">
-        <v>1271</v>
+        <v>1180</v>
       </c>
       <c r="D424" t="s">
-        <v>1272</v>
+        <v>1325</v>
       </c>
       <c r="E424" t="s">
-        <v>1273</v>
+        <v>1391</v>
       </c>
       <c r="F424" t="s">
         <v>1066</v>
@@ -13294,16 +13294,16 @@
         <v>951</v>
       </c>
       <c r="B425" t="s">
-        <v>1374</v>
+        <v>1031</v>
       </c>
       <c r="D425" t="s">
-        <v>1338</v>
+        <v>1012</v>
       </c>
       <c r="E425" t="s">
-        <v>1375</v>
+        <v>1048</v>
       </c>
       <c r="F425" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G425" t="s">
         <v>952</v>
@@ -13314,16 +13314,16 @@
         <v>951</v>
       </c>
       <c r="B426" t="s">
-        <v>1274</v>
+        <v>1400</v>
       </c>
       <c r="D426" t="s">
-        <v>1275</v>
+        <v>1013</v>
       </c>
       <c r="E426" t="s">
-        <v>1276</v>
+        <v>1399</v>
       </c>
       <c r="F426" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G426" t="s">
         <v>952</v>
@@ -13334,13 +13334,13 @@
         <v>951</v>
       </c>
       <c r="B427" t="s">
-        <v>1277</v>
+        <v>1392</v>
       </c>
       <c r="D427" t="s">
-        <v>1278</v>
+        <v>1349</v>
       </c>
       <c r="E427" t="s">
-        <v>1279</v>
+        <v>1393</v>
       </c>
       <c r="F427" t="s">
         <v>1066</v>
@@ -13354,16 +13354,19 @@
         <v>951</v>
       </c>
       <c r="B428" t="s">
-        <v>1280</v>
+        <v>972</v>
+      </c>
+      <c r="C428" t="s">
+        <v>973</v>
       </c>
       <c r="D428" t="s">
-        <v>1281</v>
+        <v>974</v>
       </c>
       <c r="E428" t="s">
-        <v>1282</v>
+        <v>975</v>
       </c>
       <c r="F428" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G428" t="s">
         <v>952</v>
@@ -13374,16 +13377,19 @@
         <v>951</v>
       </c>
       <c r="B429" t="s">
-        <v>1376</v>
+        <v>908</v>
+      </c>
+      <c r="C429" t="s">
+        <v>909</v>
       </c>
       <c r="D429" t="s">
-        <v>1345</v>
+        <v>910</v>
       </c>
       <c r="E429" t="s">
-        <v>1377</v>
+        <v>911</v>
       </c>
       <c r="F429" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G429" t="s">
         <v>952</v>
@@ -13394,16 +13400,19 @@
         <v>951</v>
       </c>
       <c r="B430" t="s">
-        <v>1378</v>
+        <v>1033</v>
+      </c>
+      <c r="C430" t="s">
+        <v>1062</v>
       </c>
       <c r="D430" t="s">
-        <v>1346</v>
+        <v>1014</v>
       </c>
       <c r="E430" t="s">
-        <v>1379</v>
+        <v>1049</v>
       </c>
       <c r="F430" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G430" t="s">
         <v>952</v>
@@ -13414,19 +13423,16 @@
         <v>951</v>
       </c>
       <c r="B431" t="s">
-        <v>1283</v>
-      </c>
-      <c r="C431" t="s">
-        <v>1284</v>
+        <v>866</v>
       </c>
       <c r="D431" t="s">
-        <v>1285</v>
+        <v>867</v>
       </c>
       <c r="E431" t="s">
-        <v>1286</v>
+        <v>868</v>
       </c>
       <c r="F431" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G431" t="s">
         <v>952</v>
@@ -13437,16 +13443,16 @@
         <v>951</v>
       </c>
       <c r="B432" t="s">
-        <v>1380</v>
-      </c>
-      <c r="D432" s="2" t="s">
-        <v>1381</v>
-      </c>
-      <c r="E432" s="2" t="s">
-        <v>1382</v>
+        <v>869</v>
+      </c>
+      <c r="D432" t="s">
+        <v>870</v>
+      </c>
+      <c r="E432" t="s">
+        <v>871</v>
       </c>
       <c r="F432" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G432" t="s">
         <v>952</v>
@@ -13457,13 +13463,13 @@
         <v>951</v>
       </c>
       <c r="B433" t="s">
-        <v>1383</v>
+        <v>1304</v>
       </c>
       <c r="D433" t="s">
-        <v>1334</v>
+        <v>1305</v>
       </c>
       <c r="E433" t="s">
-        <v>1384</v>
+        <v>1306</v>
       </c>
       <c r="F433" t="s">
         <v>1066</v>
@@ -13477,16 +13483,16 @@
         <v>951</v>
       </c>
       <c r="B434" t="s">
-        <v>1385</v>
+        <v>872</v>
       </c>
       <c r="D434" t="s">
-        <v>1335</v>
+        <v>873</v>
       </c>
       <c r="E434" t="s">
-        <v>1386</v>
+        <v>874</v>
       </c>
       <c r="F434" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G434" t="s">
         <v>952</v>
@@ -13497,13 +13503,13 @@
         <v>951</v>
       </c>
       <c r="B435" t="s">
-        <v>1387</v>
+        <v>1307</v>
       </c>
       <c r="D435" t="s">
-        <v>1347</v>
+        <v>1308</v>
       </c>
       <c r="E435" t="s">
-        <v>1388</v>
+        <v>1309</v>
       </c>
       <c r="F435" t="s">
         <v>1066</v>
@@ -13517,36 +13523,33 @@
         <v>951</v>
       </c>
       <c r="B436" t="s">
-        <v>1287</v>
-      </c>
-      <c r="C436" t="s">
-        <v>1288</v>
+        <v>875</v>
       </c>
       <c r="D436" t="s">
-        <v>1289</v>
+        <v>876</v>
       </c>
       <c r="E436" t="s">
-        <v>1290</v>
+        <v>877</v>
       </c>
       <c r="F436" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G436" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" t="s">
+      <c r="A437" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B437" t="s">
-        <v>1291</v>
+        <v>1310</v>
       </c>
       <c r="D437" t="s">
-        <v>1292</v>
+        <v>1311</v>
       </c>
       <c r="E437" t="s">
-        <v>1293</v>
+        <v>1312</v>
       </c>
       <c r="F437" t="s">
         <v>1066</v>
@@ -13560,16 +13563,16 @@
         <v>951</v>
       </c>
       <c r="B438" t="s">
-        <v>1294</v>
+        <v>878</v>
       </c>
       <c r="D438" t="s">
-        <v>1295</v>
+        <v>879</v>
       </c>
       <c r="E438" t="s">
-        <v>1296</v>
+        <v>880</v>
       </c>
       <c r="F438" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G438" t="s">
         <v>952</v>
@@ -13580,16 +13583,16 @@
         <v>951</v>
       </c>
       <c r="B439" t="s">
-        <v>1316</v>
+        <v>881</v>
       </c>
       <c r="D439" t="s">
-        <v>1317</v>
+        <v>882</v>
       </c>
       <c r="E439" t="s">
-        <v>1318</v>
+        <v>883</v>
       </c>
       <c r="F439" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G439" t="s">
         <v>952</v>
@@ -13600,19 +13603,16 @@
         <v>951</v>
       </c>
       <c r="B440" t="s">
-        <v>1297</v>
-      </c>
-      <c r="C440" t="s">
-        <v>1298</v>
+        <v>884</v>
       </c>
       <c r="D440" t="s">
-        <v>1299</v>
+        <v>885</v>
       </c>
       <c r="E440" t="s">
-        <v>1300</v>
+        <v>886</v>
       </c>
       <c r="F440" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G440" t="s">
         <v>952</v>
@@ -13623,33 +13623,33 @@
         <v>951</v>
       </c>
       <c r="B441" t="s">
-        <v>1389</v>
-      </c>
-      <c r="D441" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="E441" s="2" t="s">
-        <v>1390</v>
+        <v>887</v>
+      </c>
+      <c r="D441" t="s">
+        <v>888</v>
+      </c>
+      <c r="E441" t="s">
+        <v>889</v>
       </c>
       <c r="F441" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G441" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" t="s">
+      <c r="A442" s="3" t="s">
         <v>951</v>
       </c>
       <c r="B442" t="s">
-        <v>1301</v>
+        <v>1313</v>
       </c>
       <c r="D442" t="s">
-        <v>1302</v>
+        <v>1314</v>
       </c>
       <c r="E442" t="s">
-        <v>1303</v>
+        <v>1315</v>
       </c>
       <c r="F442" t="s">
         <v>1066</v>
@@ -13663,16 +13663,16 @@
         <v>951</v>
       </c>
       <c r="B443" t="s">
-        <v>1180</v>
+        <v>890</v>
       </c>
       <c r="D443" t="s">
-        <v>1325</v>
+        <v>891</v>
       </c>
       <c r="E443" t="s">
-        <v>1391</v>
+        <v>892</v>
       </c>
       <c r="F443" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G443" t="s">
         <v>952</v>
@@ -13683,16 +13683,16 @@
         <v>951</v>
       </c>
       <c r="B444" t="s">
-        <v>1392</v>
+        <v>893</v>
       </c>
       <c r="D444" t="s">
-        <v>1349</v>
+        <v>894</v>
       </c>
       <c r="E444" t="s">
-        <v>1393</v>
+        <v>895</v>
       </c>
       <c r="F444" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G444" t="s">
         <v>952</v>
@@ -13703,16 +13703,16 @@
         <v>951</v>
       </c>
       <c r="B445" t="s">
-        <v>1304</v>
+        <v>896</v>
       </c>
       <c r="D445" t="s">
-        <v>1305</v>
+        <v>897</v>
       </c>
       <c r="E445" t="s">
-        <v>1306</v>
+        <v>898</v>
       </c>
       <c r="F445" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G445" t="s">
         <v>952</v>
@@ -13723,76 +13723,76 @@
         <v>951</v>
       </c>
       <c r="B446" t="s">
-        <v>1307</v>
+        <v>899</v>
       </c>
       <c r="D446" t="s">
-        <v>1308</v>
+        <v>900</v>
       </c>
       <c r="E446" t="s">
-        <v>1309</v>
+        <v>901</v>
       </c>
       <c r="F446" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G446" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="3" t="s">
+      <c r="A447" t="s">
         <v>951</v>
       </c>
       <c r="B447" t="s">
-        <v>1310</v>
+        <v>902</v>
       </c>
       <c r="D447" t="s">
-        <v>1311</v>
+        <v>903</v>
       </c>
       <c r="E447" t="s">
-        <v>1312</v>
+        <v>904</v>
       </c>
       <c r="F447" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G447" t="s">
         <v>952</v>
       </c>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="3" t="s">
+      <c r="A448" t="s">
         <v>951</v>
       </c>
       <c r="B448" t="s">
-        <v>1313</v>
+        <v>905</v>
       </c>
       <c r="D448" t="s">
-        <v>1314</v>
+        <v>906</v>
       </c>
       <c r="E448" t="s">
-        <v>1315</v>
+        <v>907</v>
       </c>
       <c r="F448" t="s">
-        <v>1066</v>
+        <v>950</v>
       </c>
       <c r="G448" t="s">
         <v>952</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D1:D341 D421:D1048576">
-    <cfRule type="duplicateValues" dxfId="5" priority="4"/>
+  <conditionalFormatting sqref="D340:D1048576 D1:D260">
+    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B341 B421:B1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="3"/>
+  <conditionalFormatting sqref="B340:B1048576 B1:B260">
+    <cfRule type="duplicateValues" dxfId="3" priority="3"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D342:D420">
-    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
+  <conditionalFormatting sqref="D261:D339">
+    <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B341 B421:B448">
-    <cfRule type="duplicateValues" dxfId="2" priority="32"/>
+  <conditionalFormatting sqref="B340:B367 B2:B260">
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D2:D341 D421:D448">
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  <conditionalFormatting sqref="D340:D367 D2:D260">
+    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="11_2BC801F5383D905E5247B3E9B00243C1836B5DFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -4482,7 +4483,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4534,9 +4535,9 @@
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2 2" xfId="2"/>
-    <cellStyle name="Normal 3" xfId="1"/>
-    <cellStyle name="Normal 7 2" xfId="3"/>
+    <cellStyle name="Normal 2 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Normal 3" xfId="1" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Normal 7 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
   </cellStyles>
   <dxfs count="6">
     <dxf>
@@ -4620,19 +4621,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G476" totalsRowShown="0" headerRowDxfId="5">
-  <autoFilter ref="A1:G476"/>
-  <sortState ref="A2:G448">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:G476" totalsRowShown="0" headerRowDxfId="5">
+  <autoFilter ref="A1:G476" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G448">
     <sortCondition ref="D1:D448"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Imprint"/>
-    <tableColumn id="2" name="ISSN Electronic"/>
-    <tableColumn id="3" name="ISSN Print"/>
-    <tableColumn id="4" name="Journal Name"/>
-    <tableColumn id="5" name="JournalURL"/>
-    <tableColumn id="6" name="Publishing model"/>
-    <tableColumn id="7" name="CC License options"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Imprint"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="ISSN Electronic"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="ISSN Print"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Journal Name"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="JournalURL"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Publishing model"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="CC License options"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4900,10 +4901,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G476"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -14590,8 +14593,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="D340:D1048576 D1:D260">
-    <cfRule type="duplicateValues" dxfId="4" priority="4"/>
+  <conditionalFormatting sqref="B340:B367 B2:B260">
+    <cfRule type="duplicateValues" dxfId="4" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B340:B1048576 B1:B260">
     <cfRule type="duplicateValues" dxfId="3" priority="3"/>
@@ -14599,11 +14602,11 @@
   <conditionalFormatting sqref="D261:D339">
     <cfRule type="duplicateValues" dxfId="2" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B340:B367 B2:B260">
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  <conditionalFormatting sqref="D340:D367 D2:D260">
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D340:D367 D2:D260">
-    <cfRule type="duplicateValues" dxfId="0" priority="34"/>
+  <conditionalFormatting sqref="D340:D1048576 D1:D260">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
+++ b/Bibsam_tidskriftslistor/scifree_data_oxford.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_2BC801F5383D905E5247B3E9B00243C1836B5DFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{851B7DA9-1665-4EA5-AA4E-A89F620EF30C}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_2BC801F5383D905E5247B3E9B00243C1836B5DFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6793973-017E-4DCA-90AC-2B1302B87507}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1556">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3063" uniqueCount="1557">
   <si>
     <t>ISSN Electronic</t>
   </si>
@@ -4688,6 +4688,9 @@
   </si>
   <si>
     <t>https://academic.oup.com/library</t>
+  </si>
+  <si>
+    <t>2513-9878</t>
   </si>
 </sst>
 </file>
@@ -5034,8 +5037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780A6847-9473-40BF-8088-EE40059FC7E0}">
   <dimension ref="A1:G502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C46" sqref="C46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5966,7 +5969,7 @@
         <v>925</v>
       </c>
       <c r="B46" t="s">
-        <v>1015</v>
+        <v>1556</v>
       </c>
       <c r="D46" t="s">
         <v>1500</v>
